--- a/on_trucks/Processed_Stand_Alone/24_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/24_455-55R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>103</v>
       </c>
       <c r="E2">
-        <v>0.006866823398397642</v>
+        <v>0.006731925240992658</v>
       </c>
       <c r="F2">
         <v>0.5033658205401833</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>106</v>
       </c>
       <c r="E3">
-        <v>0.01678813717273282</v>
+        <v>0.01651608338647059</v>
       </c>
       <c r="F3">
         <v>0.5059706008207099</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>107</v>
       </c>
       <c r="E4">
-        <v>0.04648203204711566</v>
+        <v>0.06015755477446096</v>
       </c>
       <c r="F4">
         <v>0.511628732688704</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>110</v>
       </c>
       <c r="E5">
-        <v>0.01875067039136344</v>
+        <v>0.01826365714201592</v>
       </c>
       <c r="F5">
         <v>0.5017669328883789</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>106</v>
       </c>
       <c r="E6">
-        <v>0.01197879334157743</v>
+        <v>0.01195572242935386</v>
       </c>
       <c r="F6">
         <v>0.5012703707493804</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>142</v>
       </c>
       <c r="E2">
-        <v>0.006866823398397642</v>
+        <v>0.006731925240992658</v>
       </c>
       <c r="F2">
         <v>0.7129469557224646</v>
       </c>
       <c r="G2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>146</v>
       </c>
       <c r="E3">
-        <v>0.01678813717273282</v>
+        <v>0.01651608338647059</v>
       </c>
       <c r="F3">
         <v>0.7003665233953549</v>
       </c>
       <c r="G3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>132</v>
       </c>
       <c r="E4">
-        <v>0.04648203204711566</v>
+        <v>0.06015755477446096</v>
       </c>
       <c r="F4">
         <v>0.7046018127441742</v>
       </c>
       <c r="G4">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>146</v>
       </c>
       <c r="E5">
-        <v>0.01875067039136344</v>
+        <v>0.01826365714201592</v>
       </c>
       <c r="F5">
         <v>0.7186757738704643</v>
       </c>
       <c r="G5">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>143</v>
       </c>
       <c r="E6">
-        <v>0.01197879334157743</v>
+        <v>0.01195572242935386</v>
       </c>
       <c r="F6">
         <v>0.7029407529670025</v>
       </c>
       <c r="G6">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>152</v>
       </c>
       <c r="E2">
-        <v>0.006866823398397642</v>
+        <v>0.006731925240992658</v>
       </c>
       <c r="F2">
         <v>0.8070230231260366</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>156</v>
       </c>
       <c r="E3">
-        <v>0.01678813717273282</v>
+        <v>0.01651608338647059</v>
       </c>
       <c r="F3">
         <v>0.8074071582501732</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>146</v>
       </c>
       <c r="E4">
-        <v>0.04648203204711566</v>
+        <v>0.06015755477446096</v>
       </c>
       <c r="F4">
         <v>0.8025210248438266</v>
       </c>
       <c r="G4">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>157</v>
       </c>
       <c r="E5">
-        <v>0.01875067039136344</v>
+        <v>0.01826365714201592</v>
       </c>
       <c r="F5">
         <v>0.8019683667383247</v>
       </c>
       <c r="G5">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>152</v>
       </c>
       <c r="E6">
-        <v>0.01197879334157743</v>
+        <v>0.01195572242935386</v>
       </c>
       <c r="F6">
         <v>0.8051307903860534</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>164</v>
       </c>
       <c r="E2">
-        <v>0.006866823398397642</v>
+        <v>0.006731925240992658</v>
       </c>
       <c r="F2">
         <v>0.9074683199845789</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>173</v>
       </c>
       <c r="E3">
-        <v>0.01678813717273282</v>
+        <v>0.01651608338647059</v>
       </c>
       <c r="F3">
         <v>0.9011560667661775</v>
       </c>
       <c r="G3">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>162</v>
       </c>
       <c r="E4">
-        <v>0.04648203204711566</v>
+        <v>0.06015755477446096</v>
       </c>
       <c r="F4">
         <v>0.9038128767054413</v>
       </c>
       <c r="G4">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>176</v>
       </c>
       <c r="E5">
-        <v>0.01875067039136344</v>
+        <v>0.01826365714201592</v>
       </c>
       <c r="F5">
         <v>0.9102891470899296</v>
       </c>
       <c r="G5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>165</v>
       </c>
       <c r="E6">
-        <v>0.01197879334157743</v>
+        <v>0.01195572242935386</v>
       </c>
       <c r="F6">
         <v>0.9001438589433899</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>24</v>

--- a/on_trucks/Processed_Stand_Alone/24_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/24_455-55R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0003121588477968134</v>
+        <v>0.0001113520074531394</v>
       </c>
       <c r="C2">
-        <v>0.0003093279779981671</v>
+        <v>0.0001084447794496275</v>
       </c>
       <c r="D2">
-        <v>0.0001080199323167749</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.745908675817276E-05</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4.810682657826504E-07</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.135253019251898E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.427612327329164E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0001396277400685796</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0002153535846823633</v>
+        <v>1.193557652147075E-05</v>
       </c>
       <c r="K2">
-        <v>0.0002088055151481134</v>
+        <v>5.210883238855729E-06</v>
       </c>
       <c r="L2">
-        <v>0.0001354842103632999</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0002037314955090175</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001174365616469903</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0002000805157687038</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0003040521183734277</v>
+        <v>0.0001030266119129308</v>
       </c>
       <c r="Q2">
-        <v>0.0004067131710713681</v>
+        <v>0.0002084567830271883</v>
       </c>
       <c r="R2">
-        <v>0.0002425568927474506</v>
+        <v>3.987265050233739E-05</v>
       </c>
       <c r="S2">
-        <v>0.0002356044232419648</v>
+        <v>3.273264920323974E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001292033308100454</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>8.669852383332072E-05</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1.385813101430099E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>8.323191807989293E-07</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>5.894918580707137E-07</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>7.524313664811774E-06</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1.386889401353544E-07</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1.827937569982737E-06</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>2.562035617767924E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>5.273296824921754E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>7.249421484364263E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0001070208123878401</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0001470797195385363</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0002141204847700711</v>
+        <v>1.066921570266573E-05</v>
       </c>
       <c r="AH2">
-        <v>0.0002768975203048758</v>
+        <v>7.513956180318899E-05</v>
       </c>
       <c r="AI2">
-        <v>0.0001988919958532407</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0001912662263956453</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0001322808005911515</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0001790310672659058</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>7.86352744068423E-05</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>4.506480679463734E-06</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>8.005764430567219E-06</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.161154917409552E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3.014661185573643E-07</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.31500270646669E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>5.482958010009005E-06</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>2.080126152045107E-06</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>4.226129399404517E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>9.971390690756456E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0001481020194658223</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>2.604806314725737E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>1.661337081832671E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>9.29134233912683E-06</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>3.494394951451213E-07</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>4.643876469691069E-06</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>8.005764430567219E-06</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>1.31500270646669E-05</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>4.040301712622041E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>5.011216843562939E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>3.283328766463896E-05</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>5.716518993396316E-05</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>3.488890551842729E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>9.888035296685345E-06</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>2.654215111211396E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>8.524635893661009E-06</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>1.135253019251898E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>9.29134233912683E-06</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>1.601780286068818E-06</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>1.742120976086687E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>2.36734723161569E-06</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>6.372211546758316E-06</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>1.386889401353544E-07</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>5.663411597173731E-06</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>2.949591290201924E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>5.798893087537224E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0001070208123878401</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>5.273296824921754E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>9.539352321486413E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0001684485380186183</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0001356263103531926</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>5.946570277033264E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>5.13428493480937E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>4.109600707692952E-05</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>3.946533719291556E-05</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>2.949591290201924E-05</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>3.290325765966215E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>1.717972877804289E-07</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>2.197397043703881E-07</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>9.587368318071139E-06</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>5.863150282966748E-05</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>7.626665457531712E-05</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>1.051266825225655E-07</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.2044449554582706</v>
+        <v>0.2097503057399618</v>
       </c>
       <c r="CO2">
-        <v>0.03665661739269375</v>
+        <v>0.03743614444570946</v>
       </c>
       <c r="CP2">
-        <v>0.06567614032859759</v>
+        <v>0.06723842280134372</v>
       </c>
       <c r="CQ2">
-        <v>0.0001707993978514067</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.02580064516485567</v>
+        <v>0.02628734965436638</v>
       </c>
       <c r="CS2">
-        <v>0.03621520742409029</v>
+        <v>0.03698282814611598</v>
       </c>
       <c r="CT2">
-        <v>0.05526521406910435</v>
+        <v>0.05654667838463848</v>
       </c>
       <c r="CU2">
-        <v>0.002353353232611053</v>
+        <v>0.002207604360345135</v>
       </c>
       <c r="CV2">
-        <v>0.0003074216981337567</v>
+        <v>0.0001064870807214857</v>
       </c>
       <c r="CW2">
-        <v>0.03536829448432938</v>
+        <v>0.03611307107845187</v>
       </c>
       <c r="CX2">
-        <v>0.008531971393139251</v>
+        <v>0.008552880906756537</v>
       </c>
       <c r="CY2">
-        <v>0.001688559679896387</v>
+        <v>0.001524879060181049</v>
       </c>
       <c r="CZ2">
-        <v>0.0240197122915296</v>
+        <v>0.02445837895278754</v>
       </c>
       <c r="DA2">
-        <v>0.009471370326321827</v>
+        <v>0.00951761863023769</v>
       </c>
       <c r="DB2">
-        <v>0.0229827413652871</v>
+        <v>0.02339343738710993</v>
       </c>
       <c r="DC2">
-        <v>0.001662266781766544</v>
+        <v>0.001497876952993669</v>
       </c>
       <c r="DD2">
-        <v>0.0006703054523226168</v>
+        <v>0.0004791590463137808</v>
       </c>
       <c r="DE2">
-        <v>5.95053317675139E-08</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.001583833487345335</v>
+        <v>0.001417328045354727</v>
       </c>
       <c r="DG2">
-        <v>0.01049144325376624</v>
+        <v>0.01056520640050846</v>
       </c>
       <c r="DH2">
-        <v>0.000128248590877954</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.001765975674389954</v>
+        <v>0.001604383227846777</v>
       </c>
       <c r="DJ2">
-        <v>0.005246020626861851</v>
+        <v>0.005178296851194813</v>
       </c>
       <c r="DK2">
-        <v>0.001286150108518913</v>
+        <v>0.001111615131423447</v>
       </c>
       <c r="DL2">
-        <v>0.002375811831013621</v>
+        <v>0.002230668743675938</v>
       </c>
       <c r="DM2">
-        <v>0.002187155844432315</v>
+        <v>0.002036924062277448</v>
       </c>
       <c r="DN2">
-        <v>0.0001756095875092683</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>5.13428493480937E-05</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.007515132465464813</v>
+        <v>0.007508614368249624</v>
       </c>
       <c r="DQ2">
-        <v>0.0004363832389610001</v>
+        <v>0.0002389271537507323</v>
       </c>
       <c r="DR2">
-        <v>0.00789748543826887</v>
+        <v>0.007901280703625954</v>
       </c>
       <c r="DS2">
-        <v>0.0007011025501320856</v>
+        <v>0.0005107868467945367</v>
       </c>
       <c r="DT2">
-        <v>0.00154193309032562</v>
+        <v>0.001374297451848719</v>
       </c>
       <c r="DU2">
-        <v>0.008755925377209886</v>
+        <v>0.008782875692917155</v>
       </c>
       <c r="DV2">
-        <v>0.008846318370780426</v>
+        <v>0.008875706893545035</v>
       </c>
       <c r="DW2">
-        <v>0.0001004786828531677</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.001468420195554434</v>
+        <v>0.001298801663804983</v>
       </c>
       <c r="DY2">
-        <v>0.007536364163954649</v>
+        <v>0.007530418757996297</v>
       </c>
       <c r="DZ2">
-        <v>0.003822248428131701</v>
+        <v>0.003716120664656901</v>
       </c>
       <c r="EA2">
-        <v>0.0002756270503952416</v>
+        <v>7.383482299087271E-05</v>
       </c>
       <c r="EB2">
-        <v>0.004594433273207857</v>
+        <v>0.004509133966281156</v>
       </c>
       <c r="EC2">
-        <v>0.002184152444645941</v>
+        <v>0.00203383965056453</v>
       </c>
       <c r="ED2">
-        <v>0.007787637446082121</v>
+        <v>0.007788469736774853</v>
       </c>
       <c r="EE2">
-        <v>0.005974565575042018</v>
+        <v>0.005926493139197651</v>
       </c>
       <c r="EF2">
-        <v>0.007390360474339576</v>
+        <v>0.007380476851354043</v>
       </c>
       <c r="EG2">
-        <v>2.995469886938678E-05</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.01915732663738062</v>
+        <v>0.01946483818861104</v>
       </c>
       <c r="EI2">
-        <v>0.009059043355649757</v>
+        <v>0.009094169796132253</v>
       </c>
       <c r="EJ2">
-        <v>0.004070389310481975</v>
+        <v>0.003970954752162386</v>
       </c>
       <c r="EK2">
-        <v>0.0002141204847700711</v>
+        <v>1.066921570266573E-05</v>
       </c>
       <c r="EL2">
-        <v>0.01803351871731465</v>
+        <v>0.01831071733948313</v>
       </c>
       <c r="EM2">
-        <v>0.02210987842737196</v>
+        <v>0.02249703036141485</v>
       </c>
       <c r="EN2">
-        <v>0.0002025321755943226</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.001441004897504425</v>
+        <v>0.00127064688174693</v>
       </c>
       <c r="EP2">
-        <v>0.00893110536474971</v>
+        <v>0.00896278088165956</v>
       </c>
       <c r="EQ2">
-        <v>0.02665166010432482</v>
+        <v>0.02716131936664872</v>
       </c>
       <c r="ER2">
-        <v>0.006839474513522908</v>
+        <v>0.006814731618989905</v>
       </c>
       <c r="ES2">
-        <v>3.030730284430682E-05</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.004026207313624545</v>
+        <v>0.003925581016296322</v>
       </c>
       <c r="EU2">
-        <v>0.01546650889990053</v>
+        <v>0.01567446652001945</v>
       </c>
       <c r="EV2">
-        <v>0.01764315974508005</v>
+        <v>0.01790982905559058</v>
       </c>
       <c r="EW2">
-        <v>0.01284410708642632</v>
+        <v>0.01298132959360966</v>
       </c>
       <c r="EX2">
-        <v>0.01073962723611344</v>
+        <v>0.01082008475056467</v>
       </c>
       <c r="EY2">
-        <v>5.381601317218289E-05</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.02428425827271301</v>
+        <v>0.02473006064054327</v>
       </c>
       <c r="FA2">
-        <v>0.007645497956192197</v>
+        <v>0.007642496260491879</v>
       </c>
       <c r="FB2">
-        <v>0.0001117230780533781</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.003378026759728232</v>
+        <v>0.00325991682413873</v>
       </c>
       <c r="FD2">
-        <v>0.006893714909664905</v>
+        <v>0.006870435063443973</v>
       </c>
       <c r="FE2">
-        <v>0.001180154916058122</v>
+        <v>0.00100276088743561</v>
       </c>
       <c r="FF2">
-        <v>0.01262165610224878</v>
+        <v>0.01275287834837083</v>
       </c>
       <c r="FG2">
-        <v>0.008813120373141728</v>
+        <v>0.008841613432785415</v>
       </c>
       <c r="FH2">
-        <v>0.01251004511018743</v>
+        <v>0.01263825682753096</v>
       </c>
       <c r="FI2">
-        <v>0.01221365613126894</v>
+        <v>0.01233387322788389</v>
       </c>
       <c r="FJ2">
-        <v>0.002441415426347379</v>
+        <v>0.002298041891524901</v>
       </c>
       <c r="FK2">
-        <v>0.0004217473900020165</v>
+        <v>0.000223896526072598</v>
       </c>
       <c r="FL2">
-        <v>0.001528090991310179</v>
+        <v>0.001360081984254866</v>
       </c>
       <c r="FM2">
-        <v>0.02051593054074605</v>
+        <v>0.02086008826879251</v>
       </c>
       <c r="FN2">
-        <v>0.01673785080947272</v>
+        <v>0.01698010085308344</v>
       </c>
       <c r="FO2">
-        <v>0.005072998939168511</v>
+        <v>0.005000608179000315</v>
       </c>
       <c r="FP2">
-        <v>0.002039527854932776</v>
+        <v>0.001885314042847923</v>
       </c>
       <c r="FQ2">
-        <v>3.030730284430682E-05</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.0005770231589575855</v>
+        <v>0.0003833606116304501</v>
       </c>
       <c r="FS2">
-        <v>0.0002860577496533283</v>
+        <v>8.454687375132153E-05</v>
       </c>
       <c r="FT2">
-        <v>0.001808064771396247</v>
+        <v>0.001647607611221009</v>
       </c>
       <c r="FU2">
-        <v>0.003255249468461116</v>
+        <v>0.003133827810953531</v>
       </c>
       <c r="FV2">
-        <v>0.002980915187973923</v>
+        <v>0.002852093800107452</v>
       </c>
       <c r="FW2">
-        <v>0.001044830625683448</v>
+        <v>0.0008637864398221034</v>
       </c>
       <c r="FX2">
-        <v>0.0004047722912094187</v>
+        <v>0.0002064635510216719</v>
       </c>
       <c r="FY2">
-        <v>0.001158190717620389</v>
+        <v>0.0009802042397213963</v>
       </c>
       <c r="FZ2">
-        <v>0.0005267689625320581</v>
+        <v>0.0003317508882824725</v>
       </c>
       <c r="GA2">
-        <v>3.198853472472442E-05</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.001280397308928097</v>
+        <v>0.001105707159224581</v>
       </c>
       <c r="GC2">
-        <v>6.586401531523444E-06</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.000578567158847764</v>
+        <v>0.0003849462584589595</v>
       </c>
       <c r="GE2">
-        <v>0.0001492769593822514</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>2.211118942727872E-05</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.001080828023123031</v>
+        <v>0.0009007548097343989</v>
       </c>
       <c r="GH2">
-        <v>0.008268165411903202</v>
+        <v>0.008281959179268356</v>
       </c>
       <c r="GI2">
-        <v>0.008730038379051173</v>
+        <v>0.008756290434206259</v>
       </c>
       <c r="GJ2">
-        <v>0.002467479124493524</v>
+        <v>0.002324808616424008</v>
       </c>
       <c r="GK2">
-        <v>0.0003184321773506051</v>
+        <v>0.0001177945500818265</v>
       </c>
       <c r="GL2">
-        <v>2.523489820509604E-05</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0007346617477450921</v>
+        <v>0.000545251250322589</v>
       </c>
       <c r="GN2">
-        <v>0.001176428516323173</v>
+        <v>0.0009989339740018295</v>
       </c>
       <c r="GO2">
-        <v>0.003153438875702685</v>
+        <v>0.003029271039581356</v>
       </c>
       <c r="GP2">
-        <v>0.0008169352118931578</v>
+        <v>0.0006297439101515807</v>
       </c>
       <c r="GQ2">
-        <v>0.0002817284799612599</v>
+        <v>8.010082890335459E-05</v>
       </c>
       <c r="GR2">
-        <v>2.262461039076019E-05</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.002557014818125043</v>
+        <v>0.002416759392812201</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001072710605831823</v>
+        <v>4.395401775626515E-05</v>
       </c>
       <c r="C3">
-        <v>0.0002756738860794219</v>
+        <v>0.0002142475640364005</v>
       </c>
       <c r="D3">
-        <v>0.0002000998098956514</v>
+        <v>0.000137824989757997</v>
       </c>
       <c r="E3">
-        <v>7.688576011753495E-05</v>
+        <v>1.322757028820835E-05</v>
       </c>
       <c r="F3">
-        <v>0.0002605561068428175</v>
+        <v>0.0001989600519029473</v>
       </c>
       <c r="G3">
-        <v>0.0001576768020378667</v>
+        <v>9.492568310631891E-05</v>
       </c>
       <c r="H3">
-        <v>1.371631430737355E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0002185627589633364</v>
+        <v>0.0001564952291810036</v>
       </c>
       <c r="J3">
-        <v>5.491656422690338E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.468950425823082E-05</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.985888449222957E-06</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0001099626744472651</v>
+        <v>4.667585136434599E-05</v>
       </c>
       <c r="N3">
-        <v>0.0001725066312890115</v>
+        <v>0.0001099220123333647</v>
       </c>
       <c r="O3">
-        <v>4.252728285251925E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>6.380505177806549E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0002326379382525885</v>
+        <v>0.0001707284357120245</v>
       </c>
       <c r="R3">
-        <v>0.0001609365618732601</v>
+        <v>9.822204147058571E-05</v>
       </c>
       <c r="S3">
-        <v>0.0002347136681477713</v>
+        <v>0.0001728274705941813</v>
       </c>
       <c r="T3">
-        <v>0.000378237460900316</v>
+        <v>0.0003179626580317092</v>
       </c>
       <c r="U3">
-        <v>0.0001753719711443218</v>
+        <v>0.0001128195224186066</v>
       </c>
       <c r="V3">
-        <v>2.93916915158212E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>4.559131769779609E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>4.800631757584695E-05</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0001351854931736</v>
+        <v>7.218185600192544E-05</v>
       </c>
       <c r="Z3">
-        <v>9.994943895289891E-05</v>
+        <v>3.655019357298176E-05</v>
       </c>
       <c r="AA3">
-        <v>6.821741055525664E-05</v>
+        <v>4.461897960524063E-06</v>
       </c>
       <c r="AB3">
-        <v>0.0001524387123023721</v>
+        <v>8.962878340073251E-05</v>
       </c>
       <c r="AC3">
-        <v>5.623454216035005E-05</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>7.320526630338716E-06</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>6.836142654798432E-08</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.187186140051205E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.000280656185827833</v>
+        <v>0.0002192858019061475</v>
       </c>
       <c r="AH3">
-        <v>0.0003545822820948207</v>
+        <v>0.0002940418937879498</v>
       </c>
       <c r="AI3">
-        <v>0.0003182335439303063</v>
+        <v>0.0002572850549011731</v>
       </c>
       <c r="AJ3">
-        <v>0.0003052873545840441</v>
+        <v>0.0002441935139006433</v>
       </c>
       <c r="AK3">
-        <v>0.0001203018779251711</v>
+        <v>5.713113690231837E-05</v>
       </c>
       <c r="AL3">
-        <v>3.762794809991872E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>4.085970593672612E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>6.849991654099105E-06</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.113507543771719E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0001081165445404883</v>
+        <v>4.480899427455293E-05</v>
       </c>
       <c r="AQ3">
-        <v>0.0001741118912079515</v>
+        <v>0.0001115452950989127</v>
       </c>
       <c r="AR3">
-        <v>1.547945721834093E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>5.502179722158948E-06</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>5.09178544288244E-09</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>9.946127497754949E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>3.365876330034883E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0003150971440886837</v>
+        <v>0.0002541134415389359</v>
       </c>
       <c r="AX3">
-        <v>0.0003750750810600052</v>
+        <v>0.0003147647729837332</v>
       </c>
       <c r="AY3">
-        <v>6.33719367999363E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>5.029085746048558E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0002612184868093696</v>
+        <v>0.0001996298686542796</v>
       </c>
       <c r="BB3">
-        <v>0.0002465080375521964</v>
+        <v>0.0001847542597445352</v>
       </c>
       <c r="BC3">
-        <v>0.0006991485946954133</v>
+        <v>0.0006424767797734874</v>
       </c>
       <c r="BD3">
-        <v>0.0007311013930819074</v>
+        <v>0.000674788324041085</v>
       </c>
       <c r="BE3">
-        <v>0.000203382399729892</v>
+        <v>0.0001411444344419488</v>
       </c>
       <c r="BF3">
-        <v>0.0002372166880213774</v>
+        <v>0.0001753585927973273</v>
       </c>
       <c r="BG3">
-        <v>0.0001826386007773821</v>
+        <v>0.0001201677371891824</v>
       </c>
       <c r="BH3">
-        <v>0.0001351854931736</v>
+        <v>7.218185600192544E-05</v>
       </c>
       <c r="BI3">
-        <v>9.994943895289891E-05</v>
+        <v>3.655019357298176E-05</v>
       </c>
       <c r="BJ3">
-        <v>6.577236167872314E-05</v>
+        <v>1.989397616267975E-06</v>
       </c>
       <c r="BK3">
-        <v>1.016658948662238E-06</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>4.531484371175707E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>4.085970593672612E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>6.500156171764588E-05</v>
+        <v>1.209943599046821E-06</v>
       </c>
       <c r="BO3">
-        <v>9.445837523017863E-05</v>
+        <v>3.099747964768531E-05</v>
       </c>
       <c r="BP3">
-        <v>0.0002209783788413559</v>
+        <v>0.0001589379701164989</v>
       </c>
       <c r="BQ3">
-        <v>0.0003763858509938159</v>
+        <v>0.0003160902594162099</v>
       </c>
       <c r="BR3">
-        <v>0.0005245932735098534</v>
+        <v>0.0004659616614602213</v>
       </c>
       <c r="BS3">
-        <v>0.0003349186230877675</v>
+        <v>0.0002741574636111582</v>
       </c>
       <c r="BT3">
-        <v>0.000411962839197301</v>
+        <v>0.0003520666836198127</v>
       </c>
       <c r="BU3">
-        <v>0.0003294738533627095</v>
+        <v>0.0002686515634433516</v>
       </c>
       <c r="BV3">
-        <v>5.272508733756539E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>2.84410185638269E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>8.594901565987188E-05</v>
+        <v>2.239258235139438E-05</v>
       </c>
       <c r="BY3">
-        <v>9.288134530981321E-05</v>
+        <v>2.940274382934298E-05</v>
       </c>
       <c r="BZ3">
-        <v>5.188275038010049E-06</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>2.423593477616909E-07</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>1.5003423242379E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0001686053214860142</v>
+        <v>0.0001059769010828132</v>
       </c>
       <c r="CD3">
-        <v>0.0004345951780544461</v>
+        <v>0.0003749531241129564</v>
       </c>
       <c r="CE3">
-        <v>0.0007540422619234728</v>
+        <v>0.0006979867584988542</v>
       </c>
       <c r="CF3">
-        <v>0.0007172160137830712</v>
+        <v>0.0006607470484551454</v>
       </c>
       <c r="CG3">
-        <v>0.0006421933275714573</v>
+        <v>0.0005848820548079763</v>
       </c>
       <c r="CH3">
-        <v>0.0004362952979685959</v>
+        <v>0.0003766723319019523</v>
       </c>
       <c r="CI3">
-        <v>0.0005462786724148158</v>
+        <v>0.0004878905303562355</v>
       </c>
       <c r="CJ3">
-        <v>0.0004488642473339075</v>
+        <v>0.0003893823975087919</v>
       </c>
       <c r="CK3">
-        <v>0.0005462786724148158</v>
+        <v>0.0004878905303562355</v>
       </c>
       <c r="CL3">
-        <v>0.0002564125670520519</v>
+        <v>0.0001947699910589974</v>
       </c>
       <c r="CM3">
-        <v>1.564121921017251E-05</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.01203556389224564</v>
+        <v>0.01210617020317933</v>
       </c>
       <c r="CO3">
-        <v>0.1366281431007512</v>
+        <v>0.1380975963629432</v>
       </c>
       <c r="CP3">
-        <v>0.1214405938676699</v>
+        <v>0.1227395308994673</v>
       </c>
       <c r="CQ3">
-        <v>0.03886708803734644</v>
+        <v>0.03923894179003328</v>
       </c>
       <c r="CR3">
-        <v>0.001126500043115643</v>
+        <v>0.001074626260905906</v>
       </c>
       <c r="CS3">
-        <v>0.05293496032696753</v>
+        <v>0.05346475928303679</v>
       </c>
       <c r="CT3">
-        <v>0.01155625641644901</v>
+        <v>0.01162148136514192</v>
       </c>
       <c r="CU3">
-        <v>0.02688984964215557</v>
+        <v>0.02712723051114387</v>
       </c>
       <c r="CV3">
-        <v>0.003058428245559948</v>
+        <v>0.003028244935553349</v>
       </c>
       <c r="CW3">
-        <v>0.007127237140099167</v>
+        <v>0.007142735851875375</v>
       </c>
       <c r="CX3">
-        <v>0.01917301403182908</v>
+        <v>0.0193237551343446</v>
       </c>
       <c r="CY3">
-        <v>0.0001358177431416736</v>
+        <v>7.282120447414664E-05</v>
       </c>
       <c r="CZ3">
-        <v>0.003148458941013709</v>
+        <v>0.003119286438911202</v>
       </c>
       <c r="DA3">
-        <v>0.02488461174341314</v>
+        <v>0.02509947906513384</v>
       </c>
       <c r="DB3">
-        <v>0.009436061523511518</v>
+        <v>0.009477482260260996</v>
       </c>
       <c r="DC3">
-        <v>0.02073987895270782</v>
+        <v>0.0209082118269928</v>
       </c>
       <c r="DD3">
-        <v>3.897246103202546E-05</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.0005661329714122423</v>
+        <v>0.0005079677409090561</v>
       </c>
       <c r="DF3">
-        <v>0.004760645059603884</v>
+        <v>0.004749573167113742</v>
       </c>
       <c r="DG3">
-        <v>0.000270964156317247</v>
+        <v>0.0002094849563969</v>
       </c>
       <c r="DH3">
-        <v>0.003885887103776137</v>
+        <v>0.00386499398029959</v>
       </c>
       <c r="DI3">
-        <v>1.386861029968313E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.005138887340503957</v>
+        <v>0.005132062113945569</v>
       </c>
       <c r="DK3">
-        <v>0.0004598628467785162</v>
+        <v>0.0004005044822957777</v>
       </c>
       <c r="DL3">
-        <v>0.00139263672967666</v>
+        <v>0.001343750962443248</v>
       </c>
       <c r="DM3">
-        <v>0.001121947143345548</v>
+        <v>0.001070022244046791</v>
       </c>
       <c r="DN3">
-        <v>0.002403905878611065</v>
+        <v>0.002366374004000111</v>
       </c>
       <c r="DO3">
-        <v>4.871896453986074E-08</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.0002572830270080967</v>
+        <v>0.000195650223990796</v>
       </c>
       <c r="DQ3">
-        <v>0.002677587164791106</v>
+        <v>0.002643128011165796</v>
       </c>
       <c r="DR3">
-        <v>0.001342424232212218</v>
+        <v>0.001292974710705161</v>
       </c>
       <c r="DS3">
-        <v>0.000983258150348863</v>
+        <v>0.000929776138449508</v>
       </c>
       <c r="DT3">
-        <v>0.0003499947323264761</v>
+        <v>0.0002894028379022429</v>
       </c>
       <c r="DU3">
-        <v>0.0008720483859645716</v>
+        <v>0.0008173177809238964</v>
       </c>
       <c r="DV3">
-        <v>0.009074249541781773</v>
+        <v>0.00911160808164291</v>
       </c>
       <c r="DW3">
-        <v>0.001119682943459883</v>
+        <v>0.001067732623151886</v>
       </c>
       <c r="DX3">
-        <v>0.01101106744397917</v>
+        <v>0.01107017135451039</v>
       </c>
       <c r="DY3">
-        <v>0.0046183597667888</v>
+        <v>0.004605690384710372</v>
       </c>
       <c r="DZ3">
-        <v>0.004543933370547076</v>
+        <v>0.004530428375801045</v>
       </c>
       <c r="EA3">
-        <v>0.0007070699042954145</v>
+        <v>0.0006504870248450419</v>
       </c>
       <c r="EB3">
-        <v>4.189957788421619E-06</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.0004994003747820077</v>
+        <v>0.0004404859127440161</v>
       </c>
       <c r="ED3">
-        <v>0.01224950238144248</v>
+        <v>0.01232251065889193</v>
       </c>
       <c r="EE3">
-        <v>0.007808811105682038</v>
+        <v>0.007831962100362007</v>
       </c>
       <c r="EF3">
-        <v>0.002137435492066898</v>
+        <v>0.002096911855906533</v>
       </c>
       <c r="EG3">
-        <v>0.00306293564533234</v>
+        <v>0.003032802941569465</v>
       </c>
       <c r="EH3">
-        <v>0.001215239338634615</v>
+        <v>0.001164361865304445</v>
       </c>
       <c r="EI3">
-        <v>0.02198013189007933</v>
+        <v>0.02216238954263965</v>
       </c>
       <c r="EJ3">
-        <v>0.01377777130427019</v>
+        <v>0.01386793802194923</v>
       </c>
       <c r="EK3">
-        <v>0.01014128848789999</v>
+        <v>0.01019062706851583</v>
       </c>
       <c r="EL3">
-        <v>0.0002702895263513134</v>
+        <v>0.0002088027521109141</v>
       </c>
       <c r="EM3">
-        <v>0.01666081215868659</v>
+        <v>0.01678334784195872</v>
       </c>
       <c r="EN3">
-        <v>0.006822178255503586</v>
+        <v>0.006834251958395783</v>
       </c>
       <c r="EO3">
-        <v>0.00426283778474143</v>
+        <v>0.004246176825926638</v>
       </c>
       <c r="EP3">
-        <v>0.01027849248097167</v>
+        <v>0.01032937150154491</v>
       </c>
       <c r="EQ3">
-        <v>0.02561388870658718</v>
+        <v>0.02583694389040238</v>
       </c>
       <c r="ER3">
-        <v>0.02986711849181378</v>
+        <v>0.03013792625893581</v>
       </c>
       <c r="ES3">
-        <v>0.005413058426659265</v>
+        <v>0.005409311420251932</v>
       </c>
       <c r="ET3">
-        <v>0.0007773373607471509</v>
+        <v>0.0007215434000097114</v>
       </c>
       <c r="EU3">
-        <v>0.003598530118286671</v>
+        <v>0.003574410731692142</v>
       </c>
       <c r="EV3">
-        <v>0.01350022631828525</v>
+        <v>0.01358727693579244</v>
       </c>
       <c r="EW3">
-        <v>0.01966304400708426</v>
+        <v>0.01981928685730631</v>
       </c>
       <c r="EX3">
-        <v>0.01336802232496109</v>
+        <v>0.01345358863935666</v>
       </c>
       <c r="EY3">
-        <v>0.0114921174196878</v>
+        <v>0.01155662225615056</v>
       </c>
       <c r="EZ3">
-        <v>2.755859860838605E-06</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.009358424527431918</v>
+        <v>0.009398973604922388</v>
       </c>
       <c r="FB3">
-        <v>0.0001163171491263861</v>
+        <v>5.310167008007178E-05</v>
       </c>
       <c r="FC3">
-        <v>0.003852102505482142</v>
+        <v>0.003830830069829676</v>
       </c>
       <c r="FD3">
-        <v>0.01149794141939371</v>
+        <v>0.01156251164405442</v>
       </c>
       <c r="FE3">
-        <v>0.01562578121095208</v>
+        <v>0.01573669621910138</v>
       </c>
       <c r="FF3">
-        <v>0.001188398439989988</v>
+        <v>0.001137219613967093</v>
       </c>
       <c r="FG3">
-        <v>0.01072093245862998</v>
+        <v>0.01077677891641171</v>
       </c>
       <c r="FH3">
-        <v>0.005003513047339891</v>
+        <v>0.00499516792354144</v>
       </c>
       <c r="FI3">
-        <v>0.01020977548444164</v>
+        <v>0.01025988299388873</v>
       </c>
       <c r="FJ3">
-        <v>0.006237501685027731</v>
+        <v>0.00624301100789603</v>
       </c>
       <c r="FK3">
-        <v>0.002371407180252136</v>
+        <v>0.002333510430739258</v>
       </c>
       <c r="FL3">
-        <v>0.001023689848307202</v>
+        <v>0.0009706617780292705</v>
       </c>
       <c r="FM3">
-        <v>0.0003561181220172661</v>
+        <v>0.0002955949771530367</v>
       </c>
       <c r="FN3">
-        <v>0.01500738224217908</v>
+        <v>0.01511135425647093</v>
       </c>
       <c r="FO3">
-        <v>0.005099036042516309</v>
+        <v>0.005091763390701554</v>
       </c>
       <c r="FP3">
-        <v>0.0004624814966462834</v>
+        <v>0.00040315253271378</v>
       </c>
       <c r="FQ3">
-        <v>2.666083365372008E-05</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.004949869350048712</v>
+        <v>0.004940921948627575</v>
       </c>
       <c r="FS3">
-        <v>0.00199367689932621</v>
+        <v>0.001951539232294584</v>
       </c>
       <c r="FT3">
-        <v>0.0007296334631560328</v>
+        <v>0.0006733039131232082</v>
       </c>
       <c r="FU3">
-        <v>0.01141222442372212</v>
+        <v>0.01147583227198106</v>
       </c>
       <c r="FV3">
-        <v>0.008909437550104208</v>
+        <v>0.008944945684800337</v>
       </c>
       <c r="FW3">
-        <v>0.00689755165169749</v>
+        <v>0.006910471599575879</v>
       </c>
       <c r="FX3">
-        <v>0.002177181290059872</v>
+        <v>0.002137103894668428</v>
       </c>
       <c r="FY3">
-        <v>0.0008700524560653592</v>
+        <v>0.0008152994419817685</v>
       </c>
       <c r="FZ3">
-        <v>0.0007868234602681358</v>
+        <v>0.0007311360034772278</v>
       </c>
       <c r="GA3">
-        <v>0.0001179307090449069</v>
+        <v>5.473334603236469E-05</v>
       </c>
       <c r="GB3">
-        <v>0.0003907459102686825</v>
+        <v>0.0003306115443857699</v>
       </c>
       <c r="GC3">
-        <v>0.003857160805226715</v>
+        <v>0.003835945160975641</v>
       </c>
       <c r="GD3">
-        <v>0.0005333376230682941</v>
+        <v>0.0004748041870641236</v>
       </c>
       <c r="GE3">
-        <v>0.0003602298818096364</v>
+        <v>0.0002997529011927997</v>
       </c>
       <c r="GF3">
-        <v>0.001670257015657795</v>
+        <v>0.001624488194017124</v>
       </c>
       <c r="GG3">
-        <v>0.001596721419371089</v>
+        <v>0.001550126986403258</v>
       </c>
       <c r="GH3">
-        <v>0.008951758547967145</v>
+        <v>0.008987741836153239</v>
       </c>
       <c r="GI3">
-        <v>0.01991901999415836</v>
+        <v>0.02007813678142696</v>
       </c>
       <c r="GJ3">
-        <v>0.01534191922528612</v>
+        <v>0.01544964720997264</v>
       </c>
       <c r="GK3">
-        <v>0.00642221337570043</v>
+        <v>0.006429796525011689</v>
       </c>
       <c r="GL3">
-        <v>0.001716072713344261</v>
+        <v>0.001670818281480538</v>
       </c>
       <c r="GM3">
-        <v>5.613072116559266E-05</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>5.004357447297252E-06</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.0002900651153527146</v>
+        <v>0.0002288003689614831</v>
       </c>
       <c r="GP3">
-        <v>0.002528663572311232</v>
+        <v>0.002492532398452981</v>
       </c>
       <c r="GQ3">
-        <v>7.989363596564762E-05</v>
+        <v>1.626921667054244E-05</v>
       </c>
       <c r="GR3">
-        <v>3.600778218173149E-06</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.001226626638059596</v>
+        <v>0.001175877014150193</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>3.007985073100656E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.001812691044052381</v>
+        <v>0.001477093714105726</v>
       </c>
       <c r="D4">
-        <v>0.0002734338066450431</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0008443989205207517</v>
+        <v>0.0004258475060008026</v>
       </c>
       <c r="F4">
-        <v>0.001997024548532091</v>
+        <v>0.00167721916478503</v>
       </c>
       <c r="G4">
-        <v>5.667797537739951E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1.328756932291717E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001625217739496367</v>
+        <v>0.001273559475061623</v>
       </c>
       <c r="J4">
-        <v>0.003181730277323047</v>
+        <v>0.00296341924309331</v>
       </c>
       <c r="K4">
-        <v>0.0001145694867842906</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0006086362147911992</v>
+        <v>0.0001698868879315457</v>
       </c>
       <c r="M4">
-        <v>2.918972170937446E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.002016558049006798</v>
+        <v>0.0016984261102987</v>
       </c>
       <c r="O4">
-        <v>0.0004521551409883648</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.00263973956415148</v>
+        <v>0.002374995906578292</v>
       </c>
       <c r="Q4">
-        <v>1.128143027416358E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001912682946482404</v>
+        <v>0.001585651974279704</v>
       </c>
       <c r="S4">
-        <v>0.0002072508450366516</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001858225645158972</v>
+        <v>0.001526529287924385</v>
       </c>
       <c r="U4">
-        <v>0.0002436397359209817</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1.003630974390441E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001635121039737039</v>
+        <v>0.001284311196130839</v>
       </c>
       <c r="X4">
-        <v>0.002006779448769156</v>
+        <v>0.001687809772345953</v>
       </c>
       <c r="Y4">
-        <v>0.001892474545991296</v>
+        <v>0.001563712309717876</v>
       </c>
       <c r="Z4">
-        <v>0.001706410441469528</v>
+        <v>0.001361707997600225</v>
       </c>
       <c r="AA4">
-        <v>0.0008836330614742277</v>
+        <v>0.0004684428560023752</v>
       </c>
       <c r="AB4">
-        <v>0.006475561457370392</v>
+        <v>0.006539434635569474</v>
       </c>
       <c r="AC4">
-        <v>0.006741402863830923</v>
+        <v>0.006828050812141919</v>
       </c>
       <c r="AD4">
-        <v>0.005033332522321055</v>
+        <v>0.00497364920538334</v>
       </c>
       <c r="AE4">
-        <v>0.0001688098441024507</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002305242056022454</v>
+        <v>0.002011841824772217</v>
       </c>
       <c r="AG4">
-        <v>0.001738077842239116</v>
+        <v>0.001396088360891986</v>
       </c>
       <c r="AH4">
-        <v>1.409419534251996E-05</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0022004468534757</v>
+        <v>0.001898068763288397</v>
       </c>
       <c r="AJ4">
-        <v>0.007417661780265503</v>
+        <v>0.00756224517799723</v>
       </c>
       <c r="AK4">
-        <v>0.01113943927071288</v>
+        <v>0.01160286926153628</v>
       </c>
       <c r="AL4">
-        <v>0.004685723113873382</v>
+        <v>0.004596259920010024</v>
       </c>
       <c r="AM4">
-        <v>0.0005138139124868087</v>
+        <v>6.69411101865993E-05</v>
       </c>
       <c r="AN4">
-        <v>0.004012296497507633</v>
+        <v>0.00386514049882814</v>
       </c>
       <c r="AO4">
-        <v>0.008798028213811444</v>
+        <v>0.009060868314337436</v>
       </c>
       <c r="AP4">
-        <v>0.01120575027232439</v>
+        <v>0.01167486116078409</v>
       </c>
       <c r="AQ4">
-        <v>0.01379848583533357</v>
+        <v>0.01448971771387795</v>
       </c>
       <c r="AR4">
-        <v>0.01110213326980627</v>
+        <v>0.01156236723633174</v>
       </c>
       <c r="AS4">
-        <v>0.002962733072000933</v>
+        <v>0.002725660434480087</v>
       </c>
       <c r="AT4">
-        <v>0.0002449175559520355</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0004732579115012086</v>
+        <v>2.29106557236296E-05</v>
       </c>
       <c r="AV4">
-        <v>0.0003326662480845218</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.003167909676987176</v>
+        <v>0.002948414624813625</v>
       </c>
       <c r="AX4">
-        <v>0.004552403610633424</v>
+        <v>0.004451518866312028</v>
       </c>
       <c r="AY4">
-        <v>0.001196529029078288</v>
+        <v>0.0008081447821890597</v>
       </c>
       <c r="AZ4">
-        <v>0.00248660406042995</v>
+        <v>0.002208741205438779</v>
       </c>
       <c r="BA4">
-        <v>0.002589572562932311</v>
+        <v>0.002320531072545256</v>
       </c>
       <c r="BB4">
-        <v>0.01010608124560001</v>
+        <v>0.01048098292257422</v>
       </c>
       <c r="BC4">
-        <v>0.007157107173933453</v>
+        <v>0.007279368724441227</v>
       </c>
       <c r="BD4">
-        <v>0.003558081086469199</v>
+        <v>0.003372012219755264</v>
       </c>
       <c r="BE4">
-        <v>0.001584799538514116</v>
+        <v>0.00122967862599921</v>
       </c>
       <c r="BF4">
-        <v>7.288220677119799E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.00247712716019964</v>
+        <v>0.002198452414288268</v>
       </c>
       <c r="BH4">
-        <v>0.003181730277323047</v>
+        <v>0.00296341924309331</v>
       </c>
       <c r="BI4">
-        <v>0.001640635739871058</v>
+        <v>0.001290298343463587</v>
       </c>
       <c r="BJ4">
-        <v>4.490369609125862E-06</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.001103192226809999</v>
+        <v>0.0007068117680328485</v>
       </c>
       <c r="BL4">
-        <v>0.001721054341825407</v>
+        <v>0.00137760644843636</v>
       </c>
       <c r="BM4">
-        <v>0.001222098429699681</v>
+        <v>0.0008359047265214755</v>
       </c>
       <c r="BN4">
-        <v>0.003348311081371327</v>
+        <v>0.003144271110358451</v>
       </c>
       <c r="BO4">
-        <v>0.003853326093644303</v>
+        <v>0.003692551018648633</v>
       </c>
       <c r="BP4">
-        <v>0.005087615623640254</v>
+        <v>0.005032582767930407</v>
       </c>
       <c r="BQ4">
-        <v>0.002505666360893206</v>
+        <v>0.002229436582993505</v>
       </c>
       <c r="BR4">
-        <v>0.0008451751205396152</v>
+        <v>0.0004266902034747685</v>
       </c>
       <c r="BS4">
-        <v>1.082838826315366E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0006324094153689403</v>
+        <v>0.0001956967508381211</v>
       </c>
       <c r="BU4">
-        <v>0.001098688926700559</v>
+        <v>0.0007019226678853219</v>
       </c>
       <c r="BV4">
-        <v>0.002522090761292355</v>
+        <v>0.002247268070227986</v>
       </c>
       <c r="BW4">
-        <v>0.002089409950777259</v>
+        <v>0.001777519271988482</v>
       </c>
       <c r="BX4">
-        <v>0.002450073659542181</v>
+        <v>0.002169081226305875</v>
       </c>
       <c r="BY4">
-        <v>0.002124436251628475</v>
+        <v>0.001815546294060588</v>
       </c>
       <c r="BZ4">
-        <v>0.001952217247443175</v>
+        <v>0.001628573199150878</v>
       </c>
       <c r="CA4">
-        <v>0.006110278148493204</v>
+        <v>0.006142857317620631</v>
       </c>
       <c r="CB4">
-        <v>0.010479380254672</v>
+        <v>0.01088626264987898</v>
       </c>
       <c r="CC4">
-        <v>0.01256293530530697</v>
+        <v>0.01314831693404391</v>
       </c>
       <c r="CD4">
-        <v>0.0111970972721141</v>
+        <v>0.01166546685359235</v>
       </c>
       <c r="CE4">
-        <v>0.003249728478975553</v>
+        <v>0.003037242885677981</v>
       </c>
       <c r="CF4">
-        <v>0.0008200275699284744</v>
+        <v>0.0003993882492600962</v>
       </c>
       <c r="CG4">
-        <v>0.0001436306334905404</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0001788699043469323</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.001408795234236824</v>
+        <v>0.001038595942390451</v>
       </c>
       <c r="CJ4">
-        <v>0.0007064037171671647</v>
+        <v>0.0002760301825540034</v>
       </c>
       <c r="CK4">
-        <v>0.000381020809259644</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.001060171025764489</v>
+        <v>0.0006601049185520734</v>
       </c>
       <c r="CM4">
-        <v>0.006322956753661762</v>
+        <v>0.006373756208353152</v>
       </c>
       <c r="CN4">
-        <v>0.01433495534837096</v>
+        <v>0.01507214684620171</v>
       </c>
       <c r="CO4">
-        <v>0.01933896546997941</v>
+        <v>0.02050485309033931</v>
       </c>
       <c r="CP4">
-        <v>0.02985641072557647</v>
+        <v>0.03192333329399076</v>
       </c>
       <c r="CQ4">
-        <v>0.03150312676559529</v>
+        <v>0.03371112434467238</v>
       </c>
       <c r="CR4">
-        <v>0.02729108666323346</v>
+        <v>0.02913823659893298</v>
       </c>
       <c r="CS4">
-        <v>0.01659746340335488</v>
+        <v>0.01752848513069979</v>
       </c>
       <c r="CT4">
-        <v>0.003094680175207538</v>
+        <v>0.00286891151392754</v>
       </c>
       <c r="CU4">
-        <v>0.0004726771214870941</v>
+        <v>2.228010913009107E-05</v>
       </c>
       <c r="CV4">
-        <v>0.004355979705859891</v>
+        <v>0.00423826722452317</v>
       </c>
       <c r="CW4">
-        <v>0.007616181185089961</v>
+        <v>0.007777771842404866</v>
       </c>
       <c r="CX4">
-        <v>0.006656684161772073</v>
+        <v>0.006736074215275563</v>
       </c>
       <c r="CY4">
-        <v>0.004717527114646289</v>
+        <v>0.004630788585897692</v>
       </c>
       <c r="CZ4">
-        <v>0.0052641077279294</v>
+        <v>0.005224195041629092</v>
       </c>
       <c r="DA4">
-        <v>0.01013355074626758</v>
+        <v>0.01051080574950169</v>
       </c>
       <c r="DB4">
-        <v>0.01838837844687806</v>
+        <v>0.0194728287877308</v>
       </c>
       <c r="DC4">
-        <v>0.02581253662730144</v>
+        <v>0.02753301842045819</v>
       </c>
       <c r="DD4">
-        <v>0.0258037786270886</v>
+        <v>0.02752351011785964</v>
       </c>
       <c r="DE4">
-        <v>0.01581009738422015</v>
+        <v>0.01667366505947259</v>
       </c>
       <c r="DF4">
-        <v>0.01682653340892179</v>
+        <v>0.01777717968153894</v>
       </c>
       <c r="DG4">
-        <v>0.007604294184801081</v>
+        <v>0.007764866476683361</v>
       </c>
       <c r="DH4">
-        <v>0.00189603284607777</v>
+        <v>0.001567575451204107</v>
       </c>
       <c r="DI4">
-        <v>0.0001073928526098826</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.0001413469434350417</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.0001998634348571213</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.001372211333347755</v>
+        <v>0.0009988778798836</v>
       </c>
       <c r="DM4">
-        <v>0.005218689126825629</v>
+        <v>0.005174885405593196</v>
       </c>
       <c r="DN4">
-        <v>0.01111356627008411</v>
+        <v>0.0115747797076276</v>
       </c>
       <c r="DO4">
-        <v>0.01893182146008492</v>
+        <v>0.02006282884357259</v>
       </c>
       <c r="DP4">
-        <v>0.01858840945173925</v>
+        <v>0.01968999655172829</v>
       </c>
       <c r="DQ4">
-        <v>0.01488504686173939</v>
+        <v>0.01566936498263569</v>
       </c>
       <c r="DR4">
-        <v>0.01176348528587858</v>
+        <v>0.01228037761999861</v>
       </c>
       <c r="DS4">
-        <v>0.01229550829880791</v>
+        <v>0.01285797931826157</v>
       </c>
       <c r="DT4">
-        <v>0.01089913426487294</v>
+        <v>0.01134197720216839</v>
       </c>
       <c r="DU4">
-        <v>0.009782685237740776</v>
+        <v>0.01012988141227965</v>
       </c>
       <c r="DV4">
-        <v>0.006592314860207757</v>
+        <v>0.006666190362517321</v>
       </c>
       <c r="DW4">
-        <v>0.003885535594427065</v>
+        <v>0.003727519923940699</v>
       </c>
       <c r="DX4">
-        <v>0.001486557936126629</v>
+        <v>0.001123020614973239</v>
       </c>
       <c r="DY4">
-        <v>3.460145884089158E-06</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.002237702554381096</v>
+        <v>0.001938516179264727</v>
       </c>
       <c r="EA4">
-        <v>0.006831248966014381</v>
+        <v>0.006925594076140475</v>
       </c>
       <c r="EB4">
-        <v>0.007530800183015014</v>
+        <v>0.007685076205939168</v>
       </c>
       <c r="EC4">
-        <v>0.006969341169370326</v>
+        <v>0.007075516709629757</v>
       </c>
       <c r="ED4">
-        <v>0.00989085624036957</v>
+        <v>0.01024731948037596</v>
       </c>
       <c r="EE4">
-        <v>0.009844833239251111</v>
+        <v>0.01019735366506505</v>
       </c>
       <c r="EF4">
-        <v>0.009369393227696872</v>
+        <v>0.009681182463026525</v>
       </c>
       <c r="EG4">
-        <v>0.01455775935378558</v>
+        <v>0.01531403858543061</v>
       </c>
       <c r="EH4">
-        <v>0.01379848583533357</v>
+        <v>0.01448971771387795</v>
       </c>
       <c r="EI4">
-        <v>0.01511206936725654</v>
+        <v>0.01591583662304203</v>
       </c>
       <c r="EJ4">
-        <v>0.009042549219753844</v>
+        <v>0.009326337560706404</v>
       </c>
       <c r="EK4">
-        <v>0.002302625755958872</v>
+        <v>0.002009001384935658</v>
       </c>
       <c r="EL4">
-        <v>0.0008731489912194418</v>
+        <v>0.0004570606100530315</v>
       </c>
       <c r="EM4">
-        <v>0.0001302403331651267</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.0004486848309040287</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.002566050062360662</v>
+        <v>0.002294993387243323</v>
       </c>
       <c r="EP4">
-        <v>0.00473622751510075</v>
+        <v>0.004651091059283611</v>
       </c>
       <c r="EQ4">
-        <v>0.005246288127496345</v>
+        <v>0.005204848826855733</v>
       </c>
       <c r="ER4">
-        <v>0.006268895852347963</v>
+        <v>0.006315063881800307</v>
       </c>
       <c r="ES4">
-        <v>0.005301704728843091</v>
+        <v>0.005265012996961084</v>
       </c>
       <c r="ET4">
-        <v>0.008023383194985866</v>
+        <v>0.008219859058062972</v>
       </c>
       <c r="EU4">
-        <v>0.006407754655722537</v>
+        <v>0.00646581879032636</v>
       </c>
       <c r="EV4">
-        <v>0.008057595195817294</v>
+        <v>0.008257002018613499</v>
       </c>
       <c r="EW4">
-        <v>0.01094755526604968</v>
+        <v>0.01139454645543675</v>
       </c>
       <c r="EX4">
-        <v>0.008546729207704325</v>
+        <v>0.008788040393041208</v>
       </c>
       <c r="EY4">
-        <v>0.00614436874932168</v>
+        <v>0.006179868477767472</v>
       </c>
       <c r="EZ4">
-        <v>0.002535768061624743</v>
+        <v>0.002262117111919138</v>
       </c>
       <c r="FA4">
-        <v>0.0004568030511013193</v>
+        <v>5.04609896446842E-06</v>
       </c>
       <c r="FB4">
-        <v>0.0008885166815929104</v>
+        <v>0.0004737448583700753</v>
       </c>
       <c r="FC4">
-        <v>0.003993329697046698</v>
+        <v>0.003844548802810085</v>
       </c>
       <c r="FD4">
-        <v>0.004480973508897516</v>
+        <v>0.004373969310997516</v>
       </c>
       <c r="FE4">
-        <v>0.006392535455352678</v>
+        <v>0.006449295753227958</v>
       </c>
       <c r="FF4">
-        <v>0.01177536928616738</v>
+        <v>0.01229327972870849</v>
       </c>
       <c r="FG4">
-        <v>0.01107056926903919</v>
+        <v>0.01152809913137392</v>
       </c>
       <c r="FH4">
-        <v>0.005801134840980341</v>
+        <v>0.005807229543846536</v>
       </c>
       <c r="FI4">
-        <v>0.004935245119937317</v>
+        <v>0.0048671586047548</v>
       </c>
       <c r="FJ4">
-        <v>0.003451630083882206</v>
+        <v>0.003256441504989567</v>
       </c>
       <c r="FK4">
-        <v>0.002884634370102963</v>
+        <v>0.002640870976595505</v>
       </c>
       <c r="FL4">
-        <v>0.001656126240247512</v>
+        <v>0.001307115922979778</v>
       </c>
       <c r="FM4">
-        <v>0.002416465458725428</v>
+        <v>0.002132593793628037</v>
       </c>
       <c r="FN4">
-        <v>0.0006283039852691694</v>
+        <v>0.0001912396064287635</v>
       </c>
       <c r="FO4">
-        <v>5.626837136744524E-05</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.0009588915233031739</v>
+        <v>0.0005501487489894357</v>
       </c>
       <c r="FQ4">
-        <v>0.003717514090343772</v>
+        <v>0.003545103931127062</v>
       </c>
       <c r="FR4">
-        <v>0.008261920200782841</v>
+        <v>0.008478831651914275</v>
       </c>
       <c r="FS4">
-        <v>0.01117974427169239</v>
+        <v>0.01164662721269345</v>
       </c>
       <c r="FT4">
-        <v>0.007766709188748123</v>
+        <v>0.007941195657608582</v>
       </c>
       <c r="FU4">
-        <v>0.004388381406647324</v>
+        <v>0.004273444795693227</v>
       </c>
       <c r="FV4">
-        <v>0.001325173132204623</v>
+        <v>0.0009478098918394131</v>
       </c>
       <c r="FW4">
-        <v>1.460831835501428E-05</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>8.62223320953924E-06</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>7.918587192439093E-06</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>6.256839152054958E-05</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>4.540257710338253E-05</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>6.584815160025497E-05</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.001191820328963856</v>
+        <v>0.0008030326853124009</v>
       </c>
       <c r="GD4">
-        <v>0.00229478605576835</v>
+        <v>0.00200049005359496</v>
       </c>
       <c r="GE4">
-        <v>0.0052641077279294</v>
+        <v>0.005224195041629092</v>
       </c>
       <c r="GF4">
-        <v>0.007604294184801081</v>
+        <v>0.007764866476683361</v>
       </c>
       <c r="GG4">
-        <v>0.005570983135387148</v>
+        <v>0.005557360623183131</v>
       </c>
       <c r="GH4">
-        <v>0.00129069713136678</v>
+        <v>0.000910380314266049</v>
       </c>
       <c r="GI4">
-        <v>1.859882345199233E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0005999270545795476</v>
+        <v>0.0001604316094822235</v>
       </c>
       <c r="GK4">
-        <v>0.00202879034930407</v>
+        <v>0.00171170635805803</v>
       </c>
       <c r="GL4">
-        <v>0.001361128833078426</v>
+        <v>0.0009868459361123737</v>
       </c>
       <c r="GM4">
-        <v>0.001967878347823774</v>
+        <v>0.001645575994061373</v>
       </c>
       <c r="GN4">
-        <v>0.001455202135364614</v>
+        <v>0.001088978546622071</v>
       </c>
       <c r="GO4">
-        <v>0.001542769737492699</v>
+        <v>0.001184048110292836</v>
       </c>
       <c r="GP4">
-        <v>0.001316259431988</v>
+        <v>0.0009381325503376234</v>
       </c>
       <c r="GQ4">
-        <v>0.0009130380221888329</v>
+        <v>0.0005003669548352346</v>
       </c>
       <c r="GR4">
-        <v>0.001055738925656779</v>
+        <v>0.0006552931181470699</v>
       </c>
       <c r="GS4">
-        <v>0.00107799252619759</v>
+        <v>0.0006794531960994601</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001971790916383431</v>
+        <v>4.793832484196968E-05</v>
       </c>
       <c r="C5">
-        <v>3.94930483252417E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4.883389792912982E-06</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>7.04988370103976E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.000368571564370204</v>
+        <v>0.0002235012656412164</v>
       </c>
       <c r="G5">
-        <v>0.0005129068782494619</v>
+        <v>0.0003713486696836827</v>
       </c>
       <c r="H5">
-        <v>0.0007206778094386431</v>
+        <v>0.0005841752606696106</v>
       </c>
       <c r="I5">
-        <v>0.0006701887715797019</v>
+        <v>0.0005324576804086167</v>
       </c>
       <c r="J5">
-        <v>0.0006771980312824644</v>
+        <v>0.0005396374954064891</v>
       </c>
       <c r="K5">
-        <v>0.0004267910819013235</v>
+        <v>0.0002831374302099335</v>
       </c>
       <c r="L5">
-        <v>0.0005190409779893368</v>
+        <v>0.0003776320295787998</v>
       </c>
       <c r="M5">
-        <v>0.0006099588741338355</v>
+        <v>0.0004707622176435961</v>
       </c>
       <c r="N5">
-        <v>0.000493086619089968</v>
+        <v>0.0003510461270458396</v>
       </c>
       <c r="O5">
-        <v>0.0002287042503014744</v>
+        <v>8.023058059768765E-05</v>
       </c>
       <c r="P5">
-        <v>0.0002309372502067809</v>
+        <v>8.251791576434562E-05</v>
       </c>
       <c r="Q5">
-        <v>0.0001509822435973855</v>
+        <v>6.173756284354718E-07</v>
       </c>
       <c r="R5">
-        <v>0.0001503795336229442</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>4.053948328086614E-06</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0001209535248707955</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0002065965912389808</v>
+        <v>5.758497908827565E-05</v>
       </c>
       <c r="V5">
-        <v>0.0002961481674414201</v>
+        <v>0.000149315600746933</v>
       </c>
       <c r="W5">
-        <v>0.0002803117281129867</v>
+        <v>0.0001330938156476637</v>
       </c>
       <c r="X5">
-        <v>0.0004746939298699358</v>
+        <v>0.0003322058911988006</v>
       </c>
       <c r="Y5">
-        <v>0.000331357165948333</v>
+        <v>0.000185381334684622</v>
       </c>
       <c r="Z5">
-        <v>0.0003167741065667481</v>
+        <v>0.0001704434278438325</v>
       </c>
       <c r="AA5">
-        <v>0.0002953038074772264</v>
+        <v>0.0001484506950947523</v>
       </c>
       <c r="AB5">
-        <v>7.466892283355923E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0001866373220853817</v>
+        <v>3.714004394639437E-05</v>
       </c>
       <c r="AD5">
-        <v>0.000262120788884399</v>
+        <v>0.0001144602389452164</v>
       </c>
       <c r="AE5">
-        <v>0.0001737864426303413</v>
+        <v>2.397646591392631E-05</v>
       </c>
       <c r="AF5">
-        <v>7.940885263255584E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>1.731227626584856E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>1.383575541327532E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>2.243700404852726E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1.037227056014927E-06</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>3.244320662420017E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>2.683602886198042E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>7.638854676063616E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0001283699345562922</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0001063215414912854</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0002166166108140677</v>
+        <v>6.784881433978298E-05</v>
       </c>
       <c r="AQ5">
-        <v>0.0003775808239881537</v>
+        <v>0.0002327297462608154</v>
       </c>
       <c r="AR5">
-        <v>0.0002523017893007875</v>
+        <v>0.0001044023150753488</v>
       </c>
       <c r="AS5">
-        <v>9.003769618182476E-05</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>6.603695219961008E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>5.533755165333323E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>4.074632527209473E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0001223235848126962</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>6.268902234158378E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0001000872657556586</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>3.812583838322017E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>3.257193261874135E-06</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>5.792380554365949E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>1.793681523936411E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>6.769709712920932E-07</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>4.237160020317266E-07</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>8.468503240881201E-07</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>1.228590147899906E-08</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>5.383851771690188E-06</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>1.090518553755026E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>2.132586009564689E-06</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>8.468503240881201E-07</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>2.467447895364399E-06</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>4.657300602500613E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0001657897729694513</v>
+        <v>1.57852144552794E-05</v>
       </c>
       <c r="BO5">
-        <v>0.0002009893414767641</v>
+        <v>5.184128893456192E-05</v>
       </c>
       <c r="BP5">
-        <v>0.0002350366700329392</v>
+        <v>8.671708617585519E-05</v>
       </c>
       <c r="BQ5">
-        <v>0.000161393913155864</v>
+        <v>1.128239082531747E-05</v>
       </c>
       <c r="BR5">
-        <v>0.0001027921956409523</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0001793317723951838</v>
+        <v>2.965672937999135E-05</v>
       </c>
       <c r="BT5">
-        <v>0.0002645109687830401</v>
+        <v>0.0001169085787430859</v>
       </c>
       <c r="BU5">
-        <v>0.0002754011283212275</v>
+        <v>0.0001280637269466379</v>
       </c>
       <c r="BV5">
-        <v>0.000308095586934773</v>
+        <v>0.0001615537350580984</v>
       </c>
       <c r="BW5">
-        <v>2.386339898803898E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>1.360670742298842E-06</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>1.35333464260994E-07</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>9.595555093086981E-05</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.0002268517003800344</v>
+        <v>7.83329528489227E-05</v>
       </c>
       <c r="CB5">
-        <v>0.0005439419769333748</v>
+        <v>0.0004031389409021089</v>
       </c>
       <c r="CC5">
-        <v>0.0007339189988771318</v>
+        <v>0.0005977386460414867</v>
       </c>
       <c r="CD5">
-        <v>0.0006971473004364875</v>
+        <v>0.0005600721872202615</v>
       </c>
       <c r="CE5">
-        <v>0.0004187149622438026</v>
+        <v>0.0002748647955094634</v>
       </c>
       <c r="CF5">
-        <v>0.0004267910819013235</v>
+        <v>0.0002831374302099335</v>
       </c>
       <c r="CG5">
-        <v>0.0005252115477276651</v>
+        <v>0.0003839527468915291</v>
       </c>
       <c r="CH5">
-        <v>0.0005717720757532004</v>
+        <v>0.0004316462254617181</v>
       </c>
       <c r="CI5">
-        <v>0.0004720553199818297</v>
+        <v>0.0003295030764007283</v>
       </c>
       <c r="CJ5">
-        <v>0.000482244079549761</v>
+        <v>0.0003399397575707408</v>
       </c>
       <c r="CK5">
-        <v>0.0002754255883201902</v>
+        <v>0.0001280887821271916</v>
       </c>
       <c r="CL5">
-        <v>0.0002115876610273274</v>
+        <v>6.269749585059156E-05</v>
       </c>
       <c r="CM5">
-        <v>0.001194830249331542</v>
+        <v>0.0010698651827992</v>
       </c>
       <c r="CN5">
-        <v>0.1629005330919736</v>
+        <v>0.1667103293324589</v>
       </c>
       <c r="CO5">
-        <v>0.04683115101405913</v>
+        <v>0.04781664789155875</v>
       </c>
       <c r="CP5">
-        <v>0.08657706632857765</v>
+        <v>0.08852969477251159</v>
       </c>
       <c r="CQ5">
-        <v>0.002779405882135382</v>
+        <v>0.002692998063606017</v>
       </c>
       <c r="CR5">
-        <v>0.03682732443828547</v>
+        <v>0.03756939966125771</v>
       </c>
       <c r="CS5">
-        <v>0.03270485461310461</v>
+        <v>0.03334661837845773</v>
       </c>
       <c r="CT5">
-        <v>0.01958139516962338</v>
+        <v>0.01990382770840452</v>
       </c>
       <c r="CU5">
-        <v>3.647663845315681E-05</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.0001453052038381283</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.02062907912519487</v>
+        <v>0.02097700480502112</v>
       </c>
       <c r="CX5">
-        <v>0.003255138061961289</v>
+        <v>0.00318030616525024</v>
       </c>
       <c r="CY5">
-        <v>1.909230919036376E-05</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.02465531695445658</v>
+        <v>0.02510121249276609</v>
       </c>
       <c r="DA5">
-        <v>0.001990825915576225</v>
+        <v>0.001885229695615368</v>
       </c>
       <c r="DB5">
-        <v>0.03527059250430088</v>
+        <v>0.03597478799593674</v>
       </c>
       <c r="DC5">
-        <v>1.355773942506498E-05</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.0001403179740496188</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.003259341561783034</v>
+        <v>0.003184611948220704</v>
       </c>
       <c r="DF5">
-        <v>0.001797561823771861</v>
+        <v>0.001687262936823386</v>
       </c>
       <c r="DG5">
-        <v>0.00240709589792371</v>
+        <v>0.00231162871479347</v>
       </c>
       <c r="DH5">
-        <v>0.000107067050459671</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.008439226642122717</v>
+        <v>0.008490538417519639</v>
       </c>
       <c r="DJ5">
-        <v>0.0007173862695782255</v>
+        <v>0.0005808036282493413</v>
       </c>
       <c r="DK5">
-        <v>0.001466726637801392</v>
+        <v>0.001348377586474835</v>
       </c>
       <c r="DL5">
-        <v>4.227577820723612E-07</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.0004854516994137375</v>
+        <v>0.0003432254279815225</v>
       </c>
       <c r="DN5">
-        <v>6.044960743654931E-08</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.0008592335135629935</v>
+        <v>0.0007261024205550828</v>
       </c>
       <c r="DP5">
-        <v>0.002643907087881399</v>
+        <v>0.002554202196933401</v>
       </c>
       <c r="DQ5">
-        <v>0.001181291249905682</v>
+        <v>0.001055996740872921</v>
       </c>
       <c r="DR5">
-        <v>0.001891390919792906</v>
+        <v>0.001783375162567168</v>
       </c>
       <c r="DS5">
-        <v>1.258163746645796E-05</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.001503566436239149</v>
+        <v>0.00138611380236048</v>
       </c>
       <c r="DU5">
-        <v>0.005068646785056899</v>
+        <v>0.005037942731879726</v>
       </c>
       <c r="DV5">
-        <v>0.001685899528507058</v>
+        <v>0.001572883579196915</v>
       </c>
       <c r="DW5">
-        <v>0.005525849765668563</v>
+        <v>0.005506270766004898</v>
       </c>
       <c r="DX5">
-        <v>0.01229126547877159</v>
+        <v>0.01243630835394502</v>
       </c>
       <c r="DY5">
-        <v>0.001420093339778943</v>
+        <v>0.001300609567206</v>
       </c>
       <c r="DZ5">
-        <v>0.0006651140717949016</v>
+        <v>0.0005272594986933281</v>
       </c>
       <c r="EA5">
-        <v>0.001218657448321116</v>
+        <v>0.001094272165550204</v>
       </c>
       <c r="EB5">
-        <v>0.0003582477648079993</v>
+        <v>0.0002129262585684249</v>
       </c>
       <c r="EC5">
-        <v>0.01118769952556986</v>
+        <v>0.01130588949119176</v>
       </c>
       <c r="ED5">
-        <v>0.0123976404742606</v>
+        <v>0.01254527175670062</v>
       </c>
       <c r="EE5">
-        <v>0.002811856180759281</v>
+        <v>0.002726237970618377</v>
       </c>
       <c r="EF5">
-        <v>0.003309908859638656</v>
+        <v>0.003236409692767476</v>
       </c>
       <c r="EG5">
-        <v>0.0003963850131907356</v>
+        <v>0.0002519914950595246</v>
       </c>
       <c r="EH5">
-        <v>0.01695193328112941</v>
+        <v>0.01721038350688606</v>
       </c>
       <c r="EI5">
-        <v>0.01628420930944519</v>
+        <v>0.01652641190508512</v>
       </c>
       <c r="EJ5">
-        <v>0.01172916750260814</v>
+        <v>0.01186053292962434</v>
       </c>
       <c r="EK5">
-        <v>0.0001693042928204132</v>
+        <v>1.938525260571496E-05</v>
       </c>
       <c r="EL5">
-        <v>0.009145653612165686</v>
+        <v>0.009214154772099428</v>
       </c>
       <c r="EM5">
-        <v>0.007994070661000182</v>
+        <v>0.008034550520766936</v>
       </c>
       <c r="EN5">
-        <v>0.004094605826362476</v>
+        <v>0.004040200576453542</v>
       </c>
       <c r="EO5">
-        <v>0.01394970640844307</v>
+        <v>0.01413510388512611</v>
       </c>
       <c r="EP5">
-        <v>0.02008268514836547</v>
+        <v>0.02041731550316223</v>
       </c>
       <c r="EQ5">
-        <v>0.03886192835200523</v>
+        <v>0.0396535112955716</v>
       </c>
       <c r="ER5">
-        <v>0.01349248942783199</v>
+        <v>0.01366676151034158</v>
       </c>
       <c r="ES5">
-        <v>0.001797561823771861</v>
+        <v>0.001687262936823386</v>
       </c>
       <c r="ET5">
-        <v>0.001202428649009321</v>
+        <v>0.001077648473229264</v>
       </c>
       <c r="EU5">
-        <v>0.008769270628126737</v>
+        <v>0.008828613315748234</v>
       </c>
       <c r="EV5">
-        <v>0.0185842292119096</v>
+        <v>0.01888239785672712</v>
       </c>
       <c r="EW5">
-        <v>0.0148419173706076</v>
+        <v>0.01504902488663934</v>
       </c>
       <c r="EX5">
-        <v>0.01309042844488196</v>
+        <v>0.01325491723607304</v>
       </c>
       <c r="EY5">
-        <v>0.001589482132595773</v>
+        <v>0.001474120072838776</v>
       </c>
       <c r="EZ5">
-        <v>0.006711319315397058</v>
+        <v>0.006720586173565991</v>
       </c>
       <c r="FA5">
-        <v>0.0004172092823076531</v>
+        <v>0.0002733224780828027</v>
       </c>
       <c r="FB5">
-        <v>0.002796256581420804</v>
+        <v>0.002710258788502032</v>
       </c>
       <c r="FC5">
-        <v>0.01099379653379258</v>
+        <v>0.01110726828616692</v>
       </c>
       <c r="FD5">
-        <v>0.01708625327543338</v>
+        <v>0.01734797189004123</v>
       </c>
       <c r="FE5">
-        <v>0.005861097751451901</v>
+        <v>0.005849676292181227</v>
       </c>
       <c r="FF5">
-        <v>0.00531092407478279</v>
+        <v>0.005286115319597118</v>
       </c>
       <c r="FG5">
-        <v>0.004089894026562287</v>
+        <v>0.004035374125115316</v>
       </c>
       <c r="FH5">
-        <v>0.007324029689414212</v>
+        <v>0.007348205539843221</v>
       </c>
       <c r="FI5">
-        <v>0.005409779270590696</v>
+        <v>0.00538737594448158</v>
       </c>
       <c r="FJ5">
-        <v>0.001745896125962817</v>
+        <v>0.001634340065117161</v>
       </c>
       <c r="FK5">
-        <v>0.0007432595684810319</v>
+        <v>0.000607306498364653</v>
       </c>
       <c r="FL5">
-        <v>0.0004957831789756165</v>
+        <v>0.0003538083019303013</v>
       </c>
       <c r="FM5">
-        <v>0.0103922055593039</v>
+        <v>0.0104910388861468</v>
       </c>
       <c r="FN5">
-        <v>0.009856228582032753</v>
+        <v>0.009942020059178677</v>
       </c>
       <c r="FO5">
-        <v>0.0009409222000988697</v>
+        <v>0.0008097788259985305</v>
       </c>
       <c r="FP5">
-        <v>1.194275049355086E-06</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.003085137469170403</v>
+        <v>0.003006168972803778</v>
       </c>
       <c r="FR5">
-        <v>0.004133972124693094</v>
+        <v>0.004080524769185834</v>
       </c>
       <c r="FS5">
-        <v>0.0007279454991304465</v>
+        <v>0.0005916197939957943</v>
       </c>
       <c r="FT5">
-        <v>0.007702776673352914</v>
+        <v>0.007736168518959297</v>
       </c>
       <c r="FU5">
-        <v>0.0124196844733258</v>
+        <v>0.01256785214918329</v>
       </c>
       <c r="FV5">
-        <v>0.01108681352984807</v>
+        <v>0.011202548651235</v>
       </c>
       <c r="FW5">
-        <v>0.004203715821735513</v>
+        <v>0.004151965529446845</v>
       </c>
       <c r="FX5">
-        <v>0.002977014873755494</v>
+        <v>0.00289541544602792</v>
       </c>
       <c r="FY5">
-        <v>9.570804594136559E-09</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>4.552847606930089E-07</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>8.709667630654285E-07</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.002550080591860243</v>
+        <v>0.002458092634454928</v>
       </c>
       <c r="GC5">
-        <v>0.0007206381694403241</v>
+        <v>0.0005841346561169879</v>
       </c>
       <c r="GD5">
-        <v>8.565243136778809E-05</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.000380419703867767</v>
+        <v>0.0002356377041909193</v>
       </c>
       <c r="GF5">
-        <v>0.0008348980645949724</v>
+        <v>0.0007011748206529573</v>
       </c>
       <c r="GG5">
-        <v>0.005409672170595238</v>
+        <v>0.005387266238437536</v>
       </c>
       <c r="GH5">
-        <v>0.01923235418442495</v>
+        <v>0.01954629355976795</v>
       </c>
       <c r="GI5">
-        <v>0.01996783315323593</v>
+        <v>0.02029966883116895</v>
       </c>
       <c r="GJ5">
-        <v>0.01025501556512163</v>
+        <v>0.01035051066782445</v>
       </c>
       <c r="GK5">
-        <v>0.004270737318893373</v>
+        <v>0.004220617850930126</v>
       </c>
       <c r="GL5">
-        <v>0.00131653264417058</v>
+        <v>0.00119452894428002</v>
       </c>
       <c r="GM5">
-        <v>0.0006462182725962047</v>
+        <v>0.0005079039107658159</v>
       </c>
       <c r="GN5">
-        <v>0.0001712070327397248</v>
+        <v>2.133429161825716E-05</v>
       </c>
       <c r="GO5">
-        <v>0.0005931002748487481</v>
+        <v>0.0004534934005183746</v>
       </c>
       <c r="GP5">
-        <v>1.621282631247228E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.001073294754485425</v>
+        <v>0.0009453723824645127</v>
       </c>
       <c r="GR5">
-        <v>7.403386686048967E-05</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.003844071836986723</v>
+        <v>0.003783570380016695</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>8.956044363181372E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>3.488107136182916E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>6.084991286469977E-05</v>
+        <v>5.198169904015175E-05</v>
       </c>
       <c r="E6">
-        <v>1.948109987758366E-05</v>
+        <v>1.05428692045678E-05</v>
       </c>
       <c r="F6">
-        <v>4.162858101215249E-06</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>7.499816722830509E-05</v>
+        <v>6.615389936957846E-05</v>
       </c>
       <c r="H6">
-        <v>0.0004159910700931179</v>
+        <v>0.0004077239338145488</v>
       </c>
       <c r="I6">
-        <v>0.0007498182422672995</v>
+        <v>0.0007421161095467451</v>
       </c>
       <c r="J6">
-        <v>0.0007057359680186605</v>
+        <v>0.000697959225907763</v>
       </c>
       <c r="K6">
-        <v>0.0008837292251736073</v>
+        <v>0.0008762537372204831</v>
       </c>
       <c r="L6">
-        <v>0.0007959040367090371</v>
+        <v>0.0007882799043431691</v>
       </c>
       <c r="M6">
-        <v>0.0003741088760565223</v>
+        <v>0.0003657708540304149</v>
       </c>
       <c r="N6">
-        <v>0.0001431408137958767</v>
+        <v>0.0001344118775846983</v>
       </c>
       <c r="O6">
-        <v>0.0002418759633119464</v>
+        <v>0.0002333141366575317</v>
       </c>
       <c r="P6">
-        <v>0.0001211083016723886</v>
+        <v>0.0001123420753638802</v>
       </c>
       <c r="Q6">
-        <v>7.115166685758032E-05</v>
+        <v>6.230088878465749E-05</v>
       </c>
       <c r="R6">
-        <v>5.448183525094601E-05</v>
+        <v>4.560284343464239E-05</v>
       </c>
       <c r="S6">
-        <v>6.439842620670462E-06</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>8.232702293465841E-06</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1.179424463672642E-11</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0002468444837908111</v>
+        <v>0.000238291066373219</v>
       </c>
       <c r="W6">
-        <v>0.0005596754539413838</v>
+        <v>0.0005516515039426393</v>
       </c>
       <c r="X6">
-        <v>0.0005737710552999145</v>
+        <v>0.0005657709621516117</v>
       </c>
       <c r="Y6">
-        <v>0.0004532216436813916</v>
+        <v>0.0004450175202678546</v>
       </c>
       <c r="Z6">
-        <v>7.798505251618036E-05</v>
+        <v>6.914583997036921E-05</v>
       </c>
       <c r="AA6">
-        <v>8.635545832291802E-05</v>
+        <v>7.753041271574172E-05</v>
       </c>
       <c r="AB6">
-        <v>0.0002398249131142667</v>
+        <v>0.0002312596150508237</v>
       </c>
       <c r="AC6">
-        <v>0.0001469688541648223</v>
+        <v>0.000138246396924228</v>
       </c>
       <c r="AD6">
-        <v>1.637520657823842E-05</v>
+        <v>7.431719170866528E-06</v>
       </c>
       <c r="AE6">
-        <v>3.09407629820632E-05</v>
+        <v>2.202192782555221E-05</v>
       </c>
       <c r="AF6">
-        <v>1.479438342587907E-06</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>8.030092273938335E-06</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>7.830006754654143E-06</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1.768290370427395E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>3.8402213701196E-05</v>
+        <v>2.949600707392308E-05</v>
       </c>
       <c r="AK6">
-        <v>0.0001600478254253704</v>
+        <v>0.0001513475043855211</v>
       </c>
       <c r="AL6">
-        <v>0.0002534296244254854</v>
+        <v>0.0002448873523795069</v>
       </c>
       <c r="AM6">
-        <v>0.0003405398828211509</v>
+        <v>0.0003321450451664851</v>
       </c>
       <c r="AN6">
-        <v>0.0001336685128829387</v>
+        <v>0.0001249235447721293</v>
       </c>
       <c r="AO6">
-        <v>6.471155123688354E-05</v>
+        <v>5.584987324764767E-05</v>
       </c>
       <c r="AP6">
-        <v>6.357343612719229E-05</v>
+        <v>5.470983187448835E-05</v>
       </c>
       <c r="AQ6">
-        <v>3.552286942368549E-05</v>
+        <v>2.661178949700154E-05</v>
       </c>
       <c r="AR6">
-        <v>4.465561430389723E-05</v>
+        <v>3.575999157717142E-05</v>
       </c>
       <c r="AS6">
-        <v>0.0003453646332861592</v>
+        <v>0.0003369779615371071</v>
       </c>
       <c r="AT6">
-        <v>0.0002259400217760442</v>
+        <v>0.0002173512234895438</v>
       </c>
       <c r="AU6">
-        <v>3.289140617006571E-05</v>
+        <v>2.397587248339753E-05</v>
       </c>
       <c r="AV6">
-        <v>1.03976420021222E-05</v>
+        <v>1.444037547561576E-06</v>
       </c>
       <c r="AW6">
-        <v>1.289993724329281E-05</v>
+        <v>3.950567931441676E-06</v>
       </c>
       <c r="AX6">
-        <v>7.117955686026834E-06</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>8.468864816227127E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>8.193332789671416E-06</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>2.582825348932078E-06</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>2.442009735360303E-05</v>
+        <v>1.549022594963289E-05</v>
       </c>
       <c r="BC6">
-        <v>3.018497490922053E-06</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0001204367766076672</v>
+        <v>0.0001116694137408361</v>
       </c>
       <c r="BE6">
-        <v>0.0001607737354953335</v>
+        <v>0.0001520746430606023</v>
       </c>
       <c r="BF6">
-        <v>0.0002704547060663586</v>
+        <v>0.0002619412490255816</v>
       </c>
       <c r="BG6">
-        <v>0.0002296648521350425</v>
+        <v>0.0002210823581358537</v>
       </c>
       <c r="BH6">
-        <v>2.151794107389392E-05</v>
+        <v>1.258315776112597E-05</v>
       </c>
       <c r="BI6">
-        <v>5.196277500815959E-05</v>
+        <v>4.307951967432756E-05</v>
       </c>
       <c r="BJ6">
-        <v>0.0001860191579284811</v>
+        <v>0.0001773627934520687</v>
       </c>
       <c r="BK6">
-        <v>6.885699163642008E-05</v>
+        <v>6.000232981833655E-05</v>
       </c>
       <c r="BL6">
-        <v>1.058328102001405E-05</v>
+        <v>1.629990760085727E-06</v>
       </c>
       <c r="BM6">
-        <v>2.006878793422489E-05</v>
+        <v>1.113155192512701E-05</v>
       </c>
       <c r="BN6">
-        <v>9.574519922789897E-06</v>
+        <v>6.195223314738826E-07</v>
       </c>
       <c r="BO6">
-        <v>8.162188786669766E-07</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>3.167609305293413E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>3.869631872954177E-05</v>
+        <v>2.979060987597122E-05</v>
       </c>
       <c r="BR6">
-        <v>1.001928746565648E-05</v>
+        <v>1.065042644831178E-06</v>
       </c>
       <c r="BS6">
-        <v>7.673516739571673E-05</v>
+        <v>6.789383941533633E-05</v>
       </c>
       <c r="BT6">
-        <v>7.827604454422609E-07</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>2.818315171628529E-05</v>
+        <v>1.925964929387549E-05</v>
       </c>
       <c r="BV6">
-        <v>9.831577547565047E-05</v>
+        <v>8.95109727435591E-05</v>
       </c>
       <c r="BW6">
-        <v>0.0003097979298582489</v>
+        <v>0.0003013510613497397</v>
       </c>
       <c r="BX6">
-        <v>0.0002037297996354284</v>
+        <v>0.0001951034104768248</v>
       </c>
       <c r="BY6">
-        <v>4.386776422796443E-05</v>
+        <v>3.497080806246195E-05</v>
       </c>
       <c r="BZ6">
-        <v>1.539175348345345E-05</v>
+        <v>6.446601578569043E-06</v>
       </c>
       <c r="CA6">
-        <v>9.644600929544288E-05</v>
+        <v>8.763804197810342E-05</v>
       </c>
       <c r="CB6">
-        <v>0.0001167178312492361</v>
+        <v>0.0001079441740554757</v>
       </c>
       <c r="CC6">
-        <v>0.0001255798421033546</v>
+        <v>0.0001168211838913461</v>
       </c>
       <c r="CD6">
-        <v>0.0002150384707253554</v>
+        <v>0.0002064312215287885</v>
       </c>
       <c r="CE6">
-        <v>8.937020261347836E-05</v>
+        <v>8.055025947066879E-05</v>
       </c>
       <c r="CF6">
-        <v>7.747970746747533E-05</v>
+        <v>6.863963962355084E-05</v>
       </c>
       <c r="CG6">
-        <v>3.6804689547227E-05</v>
+        <v>2.789577910520729E-05</v>
       </c>
       <c r="CH6">
-        <v>8.030092273938335E-06</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>2.151794107389392E-05</v>
+        <v>1.258315776112597E-05</v>
       </c>
       <c r="CJ6">
-        <v>0.0001196582715326351</v>
+        <v>0.0001108895910434713</v>
       </c>
       <c r="CK6">
-        <v>6.671208642969463E-05</v>
+        <v>5.785379435267947E-05</v>
       </c>
       <c r="CL6">
-        <v>1.353885230487129E-05</v>
+        <v>4.590564358808055E-06</v>
       </c>
       <c r="CM6">
-        <v>9.532059918697611E-06</v>
+        <v>5.769904636886886E-07</v>
       </c>
       <c r="CN6">
-        <v>0.007226257396464927</v>
+        <v>0.007229516657754199</v>
       </c>
       <c r="CO6">
-        <v>0.116589587236876</v>
+        <v>0.1167779442841655</v>
       </c>
       <c r="CP6">
-        <v>0.1375119632533695</v>
+        <v>0.1377357314890726</v>
       </c>
       <c r="CQ6">
-        <v>0.04113094196419016</v>
+        <v>0.04119158501269295</v>
       </c>
       <c r="CR6">
-        <v>0.000501857598368913</v>
+        <v>0.0004937357914644454</v>
       </c>
       <c r="CS6">
-        <v>0.0449629243335157</v>
+        <v>0.04503005302445081</v>
       </c>
       <c r="CT6">
-        <v>0.00254945124571549</v>
+        <v>0.002544794997616749</v>
       </c>
       <c r="CU6">
-        <v>0.01198964865555942</v>
+        <v>0.01200096997180987</v>
       </c>
       <c r="CV6">
-        <v>0.0008530209822139544</v>
+        <v>0.0008454935204612752</v>
       </c>
       <c r="CW6">
-        <v>0.0114689676053763</v>
+        <v>0.0114794076672818</v>
       </c>
       <c r="CX6">
-        <v>0.01805105573975635</v>
+        <v>0.01807263600690898</v>
       </c>
       <c r="CY6">
-        <v>0.005177837499038717</v>
+        <v>0.005177629803091356</v>
       </c>
       <c r="CZ6">
-        <v>0.0006678768043698037</v>
+        <v>0.0006600359855031833</v>
       </c>
       <c r="DA6">
-        <v>0.04001735885686329</v>
+        <v>0.04007611716239057</v>
       </c>
       <c r="DB6">
-        <v>0.0007375464310845453</v>
+        <v>0.0007298235282842625</v>
       </c>
       <c r="DC6">
-        <v>0.04985528180503991</v>
+        <v>0.04993069082666377</v>
       </c>
       <c r="DD6">
-        <v>0.002847068274399746</v>
+        <v>0.002842915744075198</v>
       </c>
       <c r="DE6">
-        <v>0.004915383473743461</v>
+        <v>0.004914731573517757</v>
       </c>
       <c r="DF6">
-        <v>0.006735568149172417</v>
+        <v>0.006737996917339172</v>
       </c>
       <c r="DG6">
-        <v>0.002599418650531336</v>
+        <v>0.002594846972425272</v>
       </c>
       <c r="DH6">
-        <v>0.00482681486520724</v>
+        <v>0.004826013062327939</v>
       </c>
       <c r="DI6">
-        <v>0.01203226915966717</v>
+        <v>0.01204366261125732</v>
       </c>
       <c r="DJ6">
-        <v>0.002444807635629964</v>
+        <v>0.002439974277886024</v>
       </c>
       <c r="DK6">
-        <v>0.003980009783592373</v>
+        <v>0.003977774760400474</v>
       </c>
       <c r="DL6">
-        <v>0.0003118858400594813</v>
+        <v>0.0003034425053456743</v>
       </c>
       <c r="DM6">
-        <v>0.005781459557215663</v>
+        <v>0.005782273493534918</v>
       </c>
       <c r="DN6">
-        <v>0.01009352897281186</v>
+        <v>0.01010164110042678</v>
       </c>
       <c r="DO6">
-        <v>0.002357098227176553</v>
+        <v>0.002352116420977908</v>
       </c>
       <c r="DP6">
-        <v>0.000955540142094726</v>
+        <v>0.0009481861943484714</v>
       </c>
       <c r="DQ6">
-        <v>0.002385932929955635</v>
+        <v>0.002380999926583789</v>
       </c>
       <c r="DR6">
-        <v>1.285064473854201E-05</v>
+        <v>3.901191998968722E-06</v>
       </c>
       <c r="DS6">
-        <v>0.0005125254493970779</v>
+        <v>0.0005044216978646403</v>
       </c>
       <c r="DT6">
-        <v>0.0001692924463163647</v>
+        <v>0.00016060777182698</v>
       </c>
       <c r="DU6">
-        <v>0.0001907587883852855</v>
+        <v>0.0001821104457486003</v>
       </c>
       <c r="DV6">
-        <v>0.01269208322325989</v>
+        <v>0.01270459341226578</v>
       </c>
       <c r="DW6">
-        <v>0.0006678768043698037</v>
+        <v>0.0006600359855031833</v>
       </c>
       <c r="DX6">
-        <v>0.01000094096388825</v>
+        <v>0.01000889638600155</v>
       </c>
       <c r="DY6">
-        <v>0.003465040333959743</v>
+        <v>0.003461933723325108</v>
       </c>
       <c r="DZ6">
-        <v>0.008911044858844332</v>
+        <v>0.008917155628309357</v>
       </c>
       <c r="EA6">
-        <v>0.003457487933231845</v>
+        <v>0.00345436854013479</v>
       </c>
       <c r="EB6">
-        <v>3.167609305293413E-06</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.0003575390444595259</v>
+        <v>0.0003491729779403743</v>
       </c>
       <c r="ED6">
-        <v>0.007474834720422748</v>
+        <v>0.007478514699628909</v>
       </c>
       <c r="EE6">
-        <v>0.003746586361095081</v>
+        <v>0.003743956268013047</v>
       </c>
       <c r="EF6">
-        <v>4.169907701894688E-05</v>
+        <v>3.279845034339774E-05</v>
       </c>
       <c r="EG6">
-        <v>0.0005647296544285065</v>
+        <v>0.000556714258680273</v>
       </c>
       <c r="EH6">
-        <v>8.969518864480042E-08</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.02018205194514125</v>
+        <v>0.02020723893019619</v>
       </c>
       <c r="EJ6">
-        <v>0.01981029690931159</v>
+        <v>0.01983485469777781</v>
       </c>
       <c r="EK6">
-        <v>0.01370686332106415</v>
+        <v>0.0137210910286355</v>
       </c>
       <c r="EL6">
-        <v>0.0003464305833888952</v>
+        <v>0.0003380457157638058</v>
       </c>
       <c r="EM6">
-        <v>0.02265032018303234</v>
+        <v>0.02267968471998475</v>
       </c>
       <c r="EN6">
-        <v>0.01043908600611657</v>
+        <v>0.01044778299011703</v>
       </c>
       <c r="EO6">
-        <v>0.005012165483071288</v>
+        <v>0.005011677386706323</v>
       </c>
       <c r="EP6">
-        <v>0.00709199168352443</v>
+        <v>0.007095023699664553</v>
       </c>
       <c r="EQ6">
-        <v>0.01258291921273869</v>
+        <v>0.01259524464130717</v>
       </c>
       <c r="ER6">
-        <v>0.02468887537950779</v>
+        <v>0.02472169017765889</v>
       </c>
       <c r="ES6">
-        <v>0.00333054982099758</v>
+        <v>0.003327215584739039</v>
       </c>
       <c r="ET6">
-        <v>0.0005187534199973282</v>
+        <v>0.000510660209325077</v>
       </c>
       <c r="EU6">
-        <v>0.003480393035439433</v>
+        <v>0.00347731240930122</v>
       </c>
       <c r="EV6">
-        <v>0.01703606664193195</v>
+        <v>0.01705592903678593</v>
       </c>
       <c r="EW6">
-        <v>0.02844832274184241</v>
+        <v>0.02848750041669421</v>
       </c>
       <c r="EX6">
-        <v>0.0147216174188659</v>
+        <v>0.01473756260099762</v>
       </c>
       <c r="EY6">
-        <v>0.01037867700029436</v>
+        <v>0.01038727174185901</v>
       </c>
       <c r="EZ6">
-        <v>0.0007371733710485899</v>
+        <v>0.0007294498368430015</v>
       </c>
       <c r="FA6">
-        <v>0.005135318494940744</v>
+        <v>0.005135038835442777</v>
       </c>
       <c r="FB6">
-        <v>0.0004016252387085426</v>
+        <v>0.0003933337882143472</v>
       </c>
       <c r="FC6">
-        <v>0.00102364379865854</v>
+        <v>0.001016405116569127</v>
       </c>
       <c r="FD6">
-        <v>0.007287633402380331</v>
+        <v>0.007290996542756177</v>
       </c>
       <c r="FE6">
-        <v>0.01339920929141252</v>
+        <v>0.0134129162935534</v>
       </c>
       <c r="FF6">
-        <v>0.001350062230118669</v>
+        <v>0.001343376012269885</v>
       </c>
       <c r="FG6">
-        <v>0.01383192833311788</v>
+        <v>0.01384636771362266</v>
       </c>
       <c r="FH6">
-        <v>0.006226570000115299</v>
+        <v>0.006228137287284666</v>
       </c>
       <c r="FI6">
-        <v>0.01220848317665063</v>
+        <v>0.01222017487102887</v>
       </c>
       <c r="FJ6">
-        <v>0.008311126801024376</v>
+        <v>0.008316222207255253</v>
       </c>
       <c r="FK6">
-        <v>0.00431085371547903</v>
+        <v>0.004309178646701405</v>
       </c>
       <c r="FL6">
-        <v>0.002650382955443263</v>
+        <v>0.00264589753458648</v>
       </c>
       <c r="FM6">
-        <v>8.78533784672872E-06</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.009042137871479046</v>
+        <v>0.009048470516287791</v>
       </c>
       <c r="FO6">
-        <v>0.006751944950750809</v>
+        <v>0.006754401436706684</v>
       </c>
       <c r="FP6">
-        <v>0.0009965455960468216</v>
+        <v>0.0009892610501627045</v>
       </c>
       <c r="FQ6">
-        <v>4.161042401040252E-05</v>
+        <v>3.27096472893525E-05</v>
       </c>
       <c r="FR6">
-        <v>0.002879487277524282</v>
+        <v>0.002875389616466347</v>
       </c>
       <c r="FS6">
-        <v>0.000943861930969183</v>
+        <v>0.0009364882178131979</v>
       </c>
       <c r="FT6">
-        <v>7.437408216815591E-06</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.007384152711682838</v>
+        <v>0.00738767921129879</v>
       </c>
       <c r="FV6">
-        <v>0.007514983224292252</v>
+        <v>0.00751873115496979</v>
       </c>
       <c r="FW6">
-        <v>0.005064280688094139</v>
+        <v>0.00506388079688058</v>
       </c>
       <c r="FX6">
-        <v>0.0006832666658530747</v>
+        <v>0.0006754518943763021</v>
       </c>
       <c r="FY6">
-        <v>0.0008802122848346455</v>
+        <v>0.0008727308444487343</v>
       </c>
       <c r="FZ6">
-        <v>0.0003575390444595259</v>
+        <v>0.0003491729779403743</v>
       </c>
       <c r="GA6">
-        <v>5.883458167046264E-05</v>
+        <v>4.99629568914141E-05</v>
       </c>
       <c r="GB6">
-        <v>0.000281073557089801</v>
+        <v>0.0002725780724883889</v>
       </c>
       <c r="GC6">
-        <v>0.004402178724280913</v>
+        <v>0.004400658223373161</v>
       </c>
       <c r="GD6">
-        <v>0.0005066442488302492</v>
+        <v>0.0004985305433470171</v>
       </c>
       <c r="GE6">
-        <v>6.048096282914046E-05</v>
+        <v>5.161212455547567E-05</v>
       </c>
       <c r="GF6">
-        <v>0.001138866309763657</v>
+        <v>0.0011318226421433</v>
       </c>
       <c r="GG6">
-        <v>0.001092196505265633</v>
+        <v>0.001085073848851699</v>
       </c>
       <c r="GH6">
-        <v>0.006910504666032755</v>
+        <v>0.006913229514814546</v>
       </c>
       <c r="GI6">
-        <v>0.01621162256247223</v>
+        <v>0.01623008958308137</v>
       </c>
       <c r="GJ6">
-        <v>0.01053367601523313</v>
+        <v>0.01054253309312695</v>
       </c>
       <c r="GK6">
-        <v>0.004246436409270507</v>
+        <v>0.004244652313995822</v>
       </c>
       <c r="GL6">
-        <v>0.001374539132477747</v>
+        <v>0.001367894341864595</v>
       </c>
       <c r="GM6">
-        <v>0.0001998338492599377</v>
+        <v>0.0001912008661928465</v>
       </c>
       <c r="GN6">
-        <v>0.0006013259579556493</v>
+        <v>0.0005933725015683382</v>
       </c>
       <c r="GO6">
-        <v>4.729225955801645E-05</v>
+        <v>3.840109936182733E-05</v>
       </c>
       <c r="GP6">
-        <v>0.001887116681879846</v>
+        <v>0.001881339430410631</v>
       </c>
       <c r="GQ6">
-        <v>0.0001154419511262671</v>
+        <v>0.0001066661345013125</v>
       </c>
       <c r="GR6">
-        <v>9.19454888616838E-05</v>
+        <v>8.312990439909691E-05</v>
       </c>
       <c r="GS6">
-        <v>0.0005786491057700598</v>
+        <v>0.0005706572687378</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0003121588477968134</v>
+        <v>0.0001113520074531394</v>
       </c>
       <c r="C2">
-        <v>0.0006214868257949806</v>
+        <v>0.0002197967869027668</v>
       </c>
       <c r="D2">
-        <v>0.0007295067581117554</v>
+        <v>0.0002197967869027668</v>
       </c>
       <c r="E2">
-        <v>0.0007469658448699282</v>
+        <v>0.0002197967869027668</v>
       </c>
       <c r="F2">
-        <v>0.0007474469131357108</v>
+        <v>0.0002197967869027668</v>
       </c>
       <c r="G2">
-        <v>0.0007587994433282298</v>
+        <v>0.0002197967869027668</v>
       </c>
       <c r="H2">
-        <v>0.0007830755666015214</v>
+        <v>0.0002197967869027668</v>
       </c>
       <c r="I2">
-        <v>0.000922703306670101</v>
+        <v>0.0002197967869027668</v>
       </c>
       <c r="J2">
-        <v>0.001138056891352464</v>
+        <v>0.0002317323634242376</v>
       </c>
       <c r="K2">
-        <v>0.001346862406500578</v>
+        <v>0.0002369432466630933</v>
       </c>
       <c r="L2">
-        <v>0.001482346616863878</v>
+        <v>0.0002369432466630933</v>
       </c>
       <c r="M2">
-        <v>0.001686078112372895</v>
+        <v>0.0002369432466630933</v>
       </c>
       <c r="N2">
-        <v>0.001803514674019885</v>
+        <v>0.0002369432466630933</v>
       </c>
       <c r="O2">
-        <v>0.002003595189788589</v>
+        <v>0.0002369432466630933</v>
       </c>
       <c r="P2">
-        <v>0.002307647308162017</v>
+        <v>0.0003399698585760242</v>
       </c>
       <c r="Q2">
-        <v>0.002714360479233385</v>
+        <v>0.0005484266416032125</v>
       </c>
       <c r="R2">
-        <v>0.002956917371980835</v>
+        <v>0.0005882992921055498</v>
       </c>
       <c r="S2">
-        <v>0.0031925217952228</v>
+        <v>0.0006210319413087896</v>
       </c>
       <c r="T2">
-        <v>0.003321725126032845</v>
+        <v>0.0006210319413087896</v>
       </c>
       <c r="U2">
-        <v>0.003408423649866166</v>
+        <v>0.0006210319413087896</v>
       </c>
       <c r="V2">
-        <v>0.003422281780880467</v>
+        <v>0.0006210319413087896</v>
       </c>
       <c r="W2">
-        <v>0.003423114100061266</v>
+        <v>0.0006210319413087896</v>
       </c>
       <c r="X2">
-        <v>0.003423703591919337</v>
+        <v>0.0006210319413087896</v>
       </c>
       <c r="Y2">
-        <v>0.003431227905584148</v>
+        <v>0.0006210319413087896</v>
       </c>
       <c r="Z2">
-        <v>0.003431366594524283</v>
+        <v>0.0006210319413087896</v>
       </c>
       <c r="AA2">
-        <v>0.003433194532094266</v>
+        <v>0.0006210319413087896</v>
       </c>
       <c r="AB2">
-        <v>0.003458814888271946</v>
+        <v>0.0006210319413087896</v>
       </c>
       <c r="AC2">
-        <v>0.003511547856521163</v>
+        <v>0.0006210319413087896</v>
       </c>
       <c r="AD2">
-        <v>0.003584042071364806</v>
+        <v>0.0006210319413087896</v>
       </c>
       <c r="AE2">
-        <v>0.003691062883752646</v>
+        <v>0.0006210319413087896</v>
       </c>
       <c r="AF2">
-        <v>0.003838142603291182</v>
+        <v>0.0006210319413087896</v>
       </c>
       <c r="AG2">
-        <v>0.004052263088061253</v>
+        <v>0.0006317011570114553</v>
       </c>
       <c r="AH2">
-        <v>0.004329160608366129</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AI2">
-        <v>0.004528052604219369</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AJ2">
-        <v>0.004719318830615014</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AK2">
-        <v>0.004851599631206166</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AL2">
-        <v>0.005030630698472072</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AM2">
-        <v>0.005109265972878915</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AN2">
-        <v>0.005113772453558378</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AO2">
-        <v>0.005121778217988946</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AP2">
-        <v>0.005133389767163042</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AQ2">
-        <v>0.005133691233281599</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AR2">
-        <v>0.005146841260346266</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AS2">
-        <v>0.005152324218356276</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AT2">
-        <v>0.005154404344508321</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AU2">
-        <v>0.005196665638502366</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AV2">
-        <v>0.00529637954540993</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AW2">
-        <v>0.005444481564875752</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AX2">
-        <v>0.005470529628023009</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AY2">
-        <v>0.005487142998841336</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="AZ2">
-        <v>0.005496434341180463</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BA2">
-        <v>0.005496783780675608</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BB2">
-        <v>0.0055014276571453</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BC2">
-        <v>0.005509433421575867</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BD2">
-        <v>0.005522583448640535</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BE2">
-        <v>0.005562986465766755</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BF2">
-        <v>0.005613098634202385</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BG2">
-        <v>0.005645931921867024</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BH2">
-        <v>0.005703097111800987</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BI2">
-        <v>0.005737986017319414</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BJ2">
-        <v>0.005747874052616099</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BK2">
-        <v>0.005774416203728213</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BL2">
-        <v>0.005782940839621874</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BM2">
-        <v>0.005794293369814393</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BN2">
-        <v>0.00580358471215352</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BO2">
-        <v>0.005805186492439589</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BP2">
-        <v>0.005806928613415675</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BQ2">
-        <v>0.005809295960647291</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BR2">
-        <v>0.005815668172194049</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BS2">
-        <v>0.005815806861134185</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BT2">
-        <v>0.005821470272731358</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BU2">
-        <v>0.005850966185633378</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BV2">
-        <v>0.00590895511650875</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BW2">
-        <v>0.006015975928896591</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BX2">
-        <v>0.006068708897145808</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BY2">
-        <v>0.006164102420360672</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="BZ2">
-        <v>0.00633255095837929</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="CA2">
-        <v>0.006468177268732483</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="CB2">
-        <v>0.006527642971502815</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="CC2">
-        <v>0.006578985820850909</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="CD2">
-        <v>0.006620081827927838</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="CE2">
-        <v>0.006659547165120754</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="CF2">
-        <v>0.006689043078022774</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="CG2">
-        <v>0.006721946335682435</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="CH2">
-        <v>0.006722118132970216</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="CI2">
-        <v>0.006722337872674586</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="CJ2">
-        <v>0.006731925240992658</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="CK2">
-        <v>0.006790556743822325</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="CL2">
-        <v>0.006866823398397642</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="CM2">
-        <v>0.006866928525080165</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="CN2">
-        <v>0.2113118839833508</v>
+        <v>0.2104571464587764</v>
       </c>
       <c r="CO2">
-        <v>0.2479685013760445</v>
+        <v>0.2478932909044859</v>
       </c>
       <c r="CP2">
-        <v>0.3136446417046421</v>
+        <v>0.3151317137058296</v>
       </c>
       <c r="CQ2">
-        <v>0.3138154411024935</v>
+        <v>0.3151317137058296</v>
       </c>
       <c r="CR2">
-        <v>0.3396160862673492</v>
+        <v>0.341419063360196</v>
       </c>
       <c r="CS2">
-        <v>0.3758312936914395</v>
+        <v>0.378401891506312</v>
       </c>
       <c r="CT2">
-        <v>0.4310965077605439</v>
+        <v>0.4349485698909504</v>
       </c>
       <c r="CU2">
-        <v>0.4334498609931549</v>
+        <v>0.4371561742512955</v>
       </c>
       <c r="CV2">
-        <v>0.4337572826912887</v>
+        <v>0.437262661332017</v>
       </c>
       <c r="CW2">
-        <v>0.469125577175618</v>
+        <v>0.4733757324104689</v>
       </c>
       <c r="CX2">
-        <v>0.4776575485687573</v>
+        <v>0.4819286133172254</v>
       </c>
       <c r="CY2">
-        <v>0.4793461082486537</v>
+        <v>0.4834534923774065</v>
       </c>
       <c r="CZ2">
-        <v>0.5033658205401833</v>
+        <v>0.507911871330194</v>
       </c>
       <c r="DA2">
-        <v>0.5128371908665051</v>
+        <v>0.5174294899604317</v>
       </c>
       <c r="DB2">
-        <v>0.5358199322317923</v>
+        <v>0.5408229273475417</v>
       </c>
       <c r="DC2">
-        <v>0.5374821990135588</v>
+        <v>0.5423208043005353</v>
       </c>
       <c r="DD2">
-        <v>0.5381525044658814</v>
+        <v>0.5427999633468491</v>
       </c>
       <c r="DE2">
-        <v>0.5381525639712131</v>
+        <v>0.5427999633468491</v>
       </c>
       <c r="DF2">
-        <v>0.5397363974585585</v>
+        <v>0.5442172913922039</v>
       </c>
       <c r="DG2">
-        <v>0.5502278407123248</v>
+        <v>0.5547824977927124</v>
       </c>
       <c r="DH2">
-        <v>0.5503560893032027</v>
+        <v>0.5547824977927124</v>
       </c>
       <c r="DI2">
-        <v>0.5521220649775926</v>
+        <v>0.5563868810205591</v>
       </c>
       <c r="DJ2">
-        <v>0.5573680856044545</v>
+        <v>0.561565177871754</v>
       </c>
       <c r="DK2">
-        <v>0.5586542357129735</v>
+        <v>0.5626767930031774</v>
       </c>
       <c r="DL2">
-        <v>0.5610300475439871</v>
+        <v>0.5649074617468534</v>
       </c>
       <c r="DM2">
-        <v>0.5632172033884194</v>
+        <v>0.5669443858091308</v>
       </c>
       <c r="DN2">
-        <v>0.5633928129759287</v>
+        <v>0.5669443858091308</v>
       </c>
       <c r="DO2">
-        <v>0.5634441558252767</v>
+        <v>0.5669443858091308</v>
       </c>
       <c r="DP2">
-        <v>0.5709592882907415</v>
+        <v>0.5744530001773804</v>
       </c>
       <c r="DQ2">
-        <v>0.5713956715297025</v>
+        <v>0.5746919273311312</v>
       </c>
       <c r="DR2">
-        <v>0.5792931569679713</v>
+        <v>0.5825932080347571</v>
       </c>
       <c r="DS2">
-        <v>0.5799942595181035</v>
+        <v>0.5831039948815516</v>
       </c>
       <c r="DT2">
-        <v>0.581536192608429</v>
+        <v>0.5844782923334003</v>
       </c>
       <c r="DU2">
-        <v>0.590292117985639</v>
+        <v>0.5932611680263175</v>
       </c>
       <c r="DV2">
-        <v>0.5991384363564194</v>
+        <v>0.6021368749198625</v>
       </c>
       <c r="DW2">
-        <v>0.5992389150392725</v>
+        <v>0.6021368749198625</v>
       </c>
       <c r="DX2">
-        <v>0.600707335234827</v>
+        <v>0.6034356765836675</v>
       </c>
       <c r="DY2">
-        <v>0.6082436993987816</v>
+        <v>0.6109660953416638</v>
       </c>
       <c r="DZ2">
-        <v>0.6120659478269134</v>
+        <v>0.6146822160063207</v>
       </c>
       <c r="EA2">
-        <v>0.6123415748773086</v>
+        <v>0.6147560508293115</v>
       </c>
       <c r="EB2">
-        <v>0.6169360081505164</v>
+        <v>0.6192651847955927</v>
       </c>
       <c r="EC2">
-        <v>0.6191201605951624</v>
+        <v>0.6212990244461573</v>
       </c>
       <c r="ED2">
-        <v>0.6269077980412445</v>
+        <v>0.6290874941829321</v>
       </c>
       <c r="EE2">
-        <v>0.6328823636162866</v>
+        <v>0.6350139873221298</v>
       </c>
       <c r="EF2">
-        <v>0.6402727240906262</v>
+        <v>0.6423944641734838</v>
       </c>
       <c r="EG2">
-        <v>0.6403026787894955</v>
+        <v>0.6423944641734838</v>
       </c>
       <c r="EH2">
-        <v>0.6594600054268761</v>
+        <v>0.6618593023620948</v>
       </c>
       <c r="EI2">
-        <v>0.6685190487825259</v>
+        <v>0.670953472158227</v>
       </c>
       <c r="EJ2">
-        <v>0.6725894380930079</v>
+        <v>0.6749244269103893</v>
       </c>
       <c r="EK2">
-        <v>0.672803558577778</v>
+        <v>0.674935096126092</v>
       </c>
       <c r="EL2">
-        <v>0.6908370772950926</v>
+        <v>0.6932458134655751</v>
       </c>
       <c r="EM2">
-        <v>0.7129469557224646</v>
+        <v>0.7157428438269899</v>
       </c>
       <c r="EN2">
-        <v>0.7131494878980589</v>
+        <v>0.7157428438269899</v>
       </c>
       <c r="EO2">
-        <v>0.7145904927955633</v>
+        <v>0.7170134907087369</v>
       </c>
       <c r="EP2">
-        <v>0.723521598160313</v>
+        <v>0.7259762715903965</v>
       </c>
       <c r="EQ2">
-        <v>0.7501732582646379</v>
+        <v>0.7531375909570451</v>
       </c>
       <c r="ER2">
-        <v>0.7570127327781608</v>
+        <v>0.7599523225760351</v>
       </c>
       <c r="ES2">
-        <v>0.7570430400810051</v>
+        <v>0.7599523225760351</v>
       </c>
       <c r="ET2">
-        <v>0.7610692473946297</v>
+        <v>0.7638779035923314</v>
       </c>
       <c r="EU2">
-        <v>0.7765357562945302</v>
+        <v>0.7795523701123509</v>
       </c>
       <c r="EV2">
-        <v>0.7941789160396102</v>
+        <v>0.7974621991679415</v>
       </c>
       <c r="EW2">
-        <v>0.8070230231260366</v>
+        <v>0.8104435287615511</v>
       </c>
       <c r="EX2">
-        <v>0.81776265036215</v>
+        <v>0.8212636135121157</v>
       </c>
       <c r="EY2">
-        <v>0.8178164663753222</v>
+        <v>0.8212636135121157</v>
       </c>
       <c r="EZ2">
-        <v>0.8421007246480352</v>
+        <v>0.845993674152659</v>
       </c>
       <c r="FA2">
-        <v>0.8497462226042274</v>
+        <v>0.8536361704131509</v>
       </c>
       <c r="FB2">
-        <v>0.8498579456822808</v>
+        <v>0.8536361704131509</v>
       </c>
       <c r="FC2">
-        <v>0.853235972442009</v>
+        <v>0.8568960872372896</v>
       </c>
       <c r="FD2">
-        <v>0.8601296873516739</v>
+        <v>0.8637665223007336</v>
       </c>
       <c r="FE2">
-        <v>0.8613098422677321</v>
+        <v>0.8647692831881691</v>
       </c>
       <c r="FF2">
-        <v>0.8739314983699809</v>
+        <v>0.8775221615365399</v>
       </c>
       <c r="FG2">
-        <v>0.8827446187431226</v>
+        <v>0.8863637749693254</v>
       </c>
       <c r="FH2">
-        <v>0.89525466385331</v>
+        <v>0.8990020317968563</v>
       </c>
       <c r="FI2">
-        <v>0.9074683199845789</v>
+        <v>0.9113359050247403</v>
       </c>
       <c r="FJ2">
-        <v>0.9099097354109262</v>
+        <v>0.9136339469162652</v>
       </c>
       <c r="FK2">
-        <v>0.9103314828009282</v>
+        <v>0.9138578434423378</v>
       </c>
       <c r="FL2">
-        <v>0.9118595737922384</v>
+        <v>0.9152179254265926</v>
       </c>
       <c r="FM2">
-        <v>0.9323755043329844</v>
+        <v>0.9360780136953851</v>
       </c>
       <c r="FN2">
-        <v>0.9491133551424572</v>
+        <v>0.9530581145484686</v>
       </c>
       <c r="FO2">
-        <v>0.9541863540816257</v>
+        <v>0.9580587227274688</v>
       </c>
       <c r="FP2">
-        <v>0.9562258819365584</v>
+        <v>0.9599440367703168</v>
       </c>
       <c r="FQ2">
-        <v>0.9562561892394027</v>
+        <v>0.9599440367703168</v>
       </c>
       <c r="FR2">
-        <v>0.9568332123983603</v>
+        <v>0.9603273973819473</v>
       </c>
       <c r="FS2">
-        <v>0.9571192701480136</v>
+        <v>0.9604119442556986</v>
       </c>
       <c r="FT2">
-        <v>0.9589273349194098</v>
+        <v>0.9620595518669196</v>
       </c>
       <c r="FU2">
-        <v>0.962182584387871</v>
+        <v>0.9651933796778731</v>
       </c>
       <c r="FV2">
-        <v>0.9651634995758449</v>
+        <v>0.9680454734779805</v>
       </c>
       <c r="FW2">
-        <v>0.9662083302015284</v>
+        <v>0.9689092599178026</v>
       </c>
       <c r="FX2">
-        <v>0.9666131024927378</v>
+        <v>0.9691157234688244</v>
       </c>
       <c r="FY2">
-        <v>0.9677712932103582</v>
+        <v>0.9700959277085458</v>
       </c>
       <c r="FZ2">
-        <v>0.9682980621728902</v>
+        <v>0.9704276785968283</v>
       </c>
       <c r="GA2">
-        <v>0.9683300507076149</v>
+        <v>0.9704276785968283</v>
       </c>
       <c r="GB2">
-        <v>0.9696104480165431</v>
+        <v>0.9715333857560529</v>
       </c>
       <c r="GC2">
-        <v>0.9696170344180746</v>
+        <v>0.9715333857560529</v>
       </c>
       <c r="GD2">
-        <v>0.9701956015769223</v>
+        <v>0.9719183320145118</v>
       </c>
       <c r="GE2">
-        <v>0.9703448785363046</v>
+        <v>0.9719183320145118</v>
       </c>
       <c r="GF2">
-        <v>0.9703669897257319</v>
+        <v>0.9719183320145118</v>
       </c>
       <c r="GG2">
-        <v>0.9714478177488549</v>
+        <v>0.9728190868242462</v>
       </c>
       <c r="GH2">
-        <v>0.9797159831607581</v>
+        <v>0.9811010460035146</v>
       </c>
       <c r="GI2">
-        <v>0.9884460215398093</v>
+        <v>0.9898573364377208</v>
       </c>
       <c r="GJ2">
-        <v>0.9909135006643028</v>
+        <v>0.9921821450541448</v>
       </c>
       <c r="GK2">
-        <v>0.9912319328416535</v>
+        <v>0.9922999396042267</v>
       </c>
       <c r="GL2">
-        <v>0.9912571677398585</v>
+        <v>0.9922999396042267</v>
       </c>
       <c r="GM2">
-        <v>0.9919918294876036</v>
+        <v>0.9928451908545493</v>
       </c>
       <c r="GN2">
-        <v>0.9931682580039267</v>
+        <v>0.9938441248285511</v>
       </c>
       <c r="GO2">
-        <v>0.9963216968796293</v>
+        <v>0.9968733958681325</v>
       </c>
       <c r="GP2">
-        <v>0.9971386320915225</v>
+        <v>0.9975031397782841</v>
       </c>
       <c r="GQ2">
-        <v>0.9974203605714838</v>
+        <v>0.9975832406071874</v>
       </c>
       <c r="GR2">
-        <v>0.9974429851818745</v>
+        <v>0.9975832406071874</v>
       </c>
       <c r="GS2">
         <v>0.9999999999999996</v>
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0001072710605831823</v>
+        <v>4.395401775626515E-05</v>
       </c>
       <c r="C3">
-        <v>0.0003829449466626042</v>
+        <v>0.0002582015817926656</v>
       </c>
       <c r="D3">
-        <v>0.0005830447565582557</v>
+        <v>0.0003960265715506627</v>
       </c>
       <c r="E3">
-        <v>0.0006599305166757907</v>
+        <v>0.000409254141838871</v>
       </c>
       <c r="F3">
-        <v>0.0009204866235186081</v>
+        <v>0.0006082141937418183</v>
       </c>
       <c r="G3">
-        <v>0.001078163425556475</v>
+        <v>0.0007031398768481373</v>
       </c>
       <c r="H3">
-        <v>0.001091879739863848</v>
+        <v>0.0007031398768481373</v>
       </c>
       <c r="I3">
-        <v>0.001310442498827185</v>
+        <v>0.0008596351060291408</v>
       </c>
       <c r="J3">
-        <v>0.001365359063054088</v>
+        <v>0.0008596351060291408</v>
       </c>
       <c r="K3">
-        <v>0.001380048567312319</v>
+        <v>0.0008596351060291408</v>
       </c>
       <c r="L3">
-        <v>0.001383034455761542</v>
+        <v>0.0008596351060291408</v>
       </c>
       <c r="M3">
-        <v>0.001492997130208807</v>
+        <v>0.0009063109573934869</v>
       </c>
       <c r="N3">
-        <v>0.001665503761497819</v>
+        <v>0.001016232969726851</v>
       </c>
       <c r="O3">
-        <v>0.001708031044350338</v>
+        <v>0.001016232969726851</v>
       </c>
       <c r="P3">
-        <v>0.001771836096128403</v>
+        <v>0.001016232969726851</v>
       </c>
       <c r="Q3">
-        <v>0.002004474034380992</v>
+        <v>0.001186961405438876</v>
       </c>
       <c r="R3">
-        <v>0.002165410596254252</v>
+        <v>0.001285183446909462</v>
       </c>
       <c r="S3">
-        <v>0.002400124264402023</v>
+        <v>0.001458010917503643</v>
       </c>
       <c r="T3">
-        <v>0.002778361725302339</v>
+        <v>0.001775973575535352</v>
       </c>
       <c r="U3">
-        <v>0.002953733696446661</v>
+        <v>0.001888793097953958</v>
       </c>
       <c r="V3">
-        <v>0.002983125387962482</v>
+        <v>0.001888793097953958</v>
       </c>
       <c r="W3">
-        <v>0.003028716705660278</v>
+        <v>0.001888793097953958</v>
       </c>
       <c r="X3">
-        <v>0.003076723023236125</v>
+        <v>0.001888793097953958</v>
       </c>
       <c r="Y3">
-        <v>0.003211908516409725</v>
+        <v>0.001960974953955884</v>
       </c>
       <c r="Z3">
-        <v>0.003311857955362624</v>
+        <v>0.001997525147528865</v>
       </c>
       <c r="AA3">
-        <v>0.003380075365917881</v>
+        <v>0.002001987045489389</v>
       </c>
       <c r="AB3">
-        <v>0.003532514078220253</v>
+        <v>0.002091615828890122</v>
       </c>
       <c r="AC3">
-        <v>0.003588748620380603</v>
+        <v>0.002091615828890122</v>
       </c>
       <c r="AD3">
-        <v>0.003596069147010942</v>
+        <v>0.002091615828890122</v>
       </c>
       <c r="AE3">
-        <v>0.00359613750843749</v>
+        <v>0.002091615828890122</v>
       </c>
       <c r="AF3">
-        <v>0.003608009369838002</v>
+        <v>0.002091615828890122</v>
       </c>
       <c r="AG3">
-        <v>0.003888665555665835</v>
+        <v>0.002310901630796269</v>
       </c>
       <c r="AH3">
-        <v>0.004243247837760655</v>
+        <v>0.002604943524584219</v>
       </c>
       <c r="AI3">
-        <v>0.004561481381690962</v>
+        <v>0.002862228579485392</v>
       </c>
       <c r="AJ3">
-        <v>0.004866768736275006</v>
+        <v>0.003106422093386036</v>
       </c>
       <c r="AK3">
-        <v>0.004987070614200177</v>
+        <v>0.003163553230288354</v>
       </c>
       <c r="AL3">
-        <v>0.005024698562300096</v>
+        <v>0.003163553230288354</v>
       </c>
       <c r="AM3">
-        <v>0.005065558268236823</v>
+        <v>0.003163553230288354</v>
       </c>
       <c r="AN3">
-        <v>0.005072408259890922</v>
+        <v>0.003163553230288354</v>
       </c>
       <c r="AO3">
-        <v>0.005083543335328639</v>
+        <v>0.003163553230288354</v>
       </c>
       <c r="AP3">
-        <v>0.005191659879869128</v>
+        <v>0.003208362224562907</v>
       </c>
       <c r="AQ3">
-        <v>0.005365771771077079</v>
+        <v>0.003319907519661819</v>
       </c>
       <c r="AR3">
-        <v>0.00538125122829542</v>
+        <v>0.003319907519661819</v>
       </c>
       <c r="AS3">
-        <v>0.005386753408017579</v>
+        <v>0.003319907519661819</v>
       </c>
       <c r="AT3">
-        <v>0.005386758499803022</v>
+        <v>0.003319907519661819</v>
       </c>
       <c r="AU3">
-        <v>0.005396704627300777</v>
+        <v>0.003319907519661819</v>
       </c>
       <c r="AV3">
-        <v>0.005430363390601126</v>
+        <v>0.003319907519661819</v>
       </c>
       <c r="AW3">
-        <v>0.00574546053468981</v>
+        <v>0.003574020961200755</v>
       </c>
       <c r="AX3">
-        <v>0.006120535615749815</v>
+        <v>0.003888785734184488</v>
       </c>
       <c r="AY3">
-        <v>0.006183907552549751</v>
+        <v>0.003888785734184488</v>
       </c>
       <c r="AZ3">
-        <v>0.006234198410010237</v>
+        <v>0.003888785734184488</v>
       </c>
       <c r="BA3">
-        <v>0.006495416896819607</v>
+        <v>0.004088415602838768</v>
       </c>
       <c r="BB3">
-        <v>0.006741924934371803</v>
+        <v>0.004273169862583304</v>
       </c>
       <c r="BC3">
-        <v>0.007441073529067217</v>
+        <v>0.004915646642356791</v>
       </c>
       <c r="BD3">
-        <v>0.008172174922149123</v>
+        <v>0.005590434966397876</v>
       </c>
       <c r="BE3">
-        <v>0.008375557321879015</v>
+        <v>0.005731579400839825</v>
       </c>
       <c r="BF3">
-        <v>0.008612774009900393</v>
+        <v>0.005906937993637152</v>
       </c>
       <c r="BG3">
-        <v>0.008795412610677775</v>
+        <v>0.006027105730826334</v>
       </c>
       <c r="BH3">
-        <v>0.008930598103851375</v>
+        <v>0.00609928758682826</v>
       </c>
       <c r="BI3">
-        <v>0.009030547542804274</v>
+        <v>0.006135837780401242</v>
       </c>
       <c r="BJ3">
-        <v>0.009096319904482997</v>
+        <v>0.00613782717801751</v>
       </c>
       <c r="BK3">
-        <v>0.00909733656343166</v>
+        <v>0.00613782717801751</v>
       </c>
       <c r="BL3">
-        <v>0.009142651407143418</v>
+        <v>0.00613782717801751</v>
       </c>
       <c r="BM3">
-        <v>0.009183511113080144</v>
+        <v>0.00613782717801751</v>
       </c>
       <c r="BN3">
-        <v>0.009248512674797791</v>
+        <v>0.006139037121616556</v>
       </c>
       <c r="BO3">
-        <v>0.00934297105002797</v>
+        <v>0.006170034601264241</v>
       </c>
       <c r="BP3">
-        <v>0.009563949428869326</v>
+        <v>0.00632897257138074</v>
       </c>
       <c r="BQ3">
-        <v>0.009940335279863141</v>
+        <v>0.00664506283079695</v>
       </c>
       <c r="BR3">
-        <v>0.010464928553373</v>
+        <v>0.007111024492257171</v>
       </c>
       <c r="BS3">
-        <v>0.01079984717646076</v>
+        <v>0.007385181955868329</v>
       </c>
       <c r="BT3">
-        <v>0.01121181001565806</v>
+        <v>0.007737248639488142</v>
       </c>
       <c r="BU3">
-        <v>0.01154128386902077</v>
+        <v>0.008005900202931493</v>
       </c>
       <c r="BV3">
-        <v>0.01159400895635834</v>
+        <v>0.008005900202931493</v>
       </c>
       <c r="BW3">
-        <v>0.01162244997492216</v>
+        <v>0.008005900202931493</v>
       </c>
       <c r="BX3">
-        <v>0.01170839899058203</v>
+        <v>0.008028292785282887</v>
       </c>
       <c r="BY3">
-        <v>0.01180128033589185</v>
+        <v>0.00805769552911223</v>
       </c>
       <c r="BZ3">
-        <v>0.01180646861092986</v>
+        <v>0.00805769552911223</v>
       </c>
       <c r="CA3">
-        <v>0.01180671097027762</v>
+        <v>0.00805769552911223</v>
       </c>
       <c r="CB3">
-        <v>0.01182171439352</v>
+        <v>0.00805769552911223</v>
       </c>
       <c r="CC3">
-        <v>0.01199031971500601</v>
+        <v>0.008163672430195043</v>
       </c>
       <c r="CD3">
-        <v>0.01242491489306046</v>
+        <v>0.008538625554308</v>
       </c>
       <c r="CE3">
-        <v>0.01317895715498393</v>
+        <v>0.009236612312806853</v>
       </c>
       <c r="CF3">
-        <v>0.013896173168767</v>
+        <v>0.009897359361261999</v>
       </c>
       <c r="CG3">
-        <v>0.01453836649633846</v>
+        <v>0.01048224141606998</v>
       </c>
       <c r="CH3">
-        <v>0.01497466179430705</v>
+        <v>0.01085891374797193</v>
       </c>
       <c r="CI3">
-        <v>0.01552094046672187</v>
+        <v>0.01134680427832816</v>
       </c>
       <c r="CJ3">
-        <v>0.01596980471405578</v>
+        <v>0.01173618667583695</v>
       </c>
       <c r="CK3">
-        <v>0.01651608338647059</v>
+        <v>0.01222407720619319</v>
       </c>
       <c r="CL3">
-        <v>0.01677249595352264</v>
+        <v>0.01241884719725219</v>
       </c>
       <c r="CM3">
-        <v>0.01678813717273282</v>
+        <v>0.01241884719725219</v>
       </c>
       <c r="CN3">
-        <v>0.02882370106497845</v>
+        <v>0.02452501740043152</v>
       </c>
       <c r="CO3">
-        <v>0.1654518441657296</v>
+        <v>0.1626226137633747</v>
       </c>
       <c r="CP3">
-        <v>0.2868924380333995</v>
+        <v>0.285362144662842</v>
       </c>
       <c r="CQ3">
-        <v>0.3257595260707459</v>
+        <v>0.3246010864528753</v>
       </c>
       <c r="CR3">
-        <v>0.3268860261138616</v>
+        <v>0.3256757127137812</v>
       </c>
       <c r="CS3">
-        <v>0.3798209864408291</v>
+        <v>0.379140471996818</v>
       </c>
       <c r="CT3">
-        <v>0.3913772428572782</v>
+        <v>0.3907619533619599</v>
       </c>
       <c r="CU3">
-        <v>0.4182670924994337</v>
+        <v>0.4178891838731038</v>
       </c>
       <c r="CV3">
-        <v>0.4213255207449937</v>
+        <v>0.4209174288086571</v>
       </c>
       <c r="CW3">
-        <v>0.4284527578850928</v>
+        <v>0.4280601646605325</v>
       </c>
       <c r="CX3">
-        <v>0.4476257719169219</v>
+        <v>0.4473839197948771</v>
       </c>
       <c r="CY3">
-        <v>0.4477615896600636</v>
+        <v>0.4474567409993512</v>
       </c>
       <c r="CZ3">
-        <v>0.4509100486010774</v>
+        <v>0.4505760274382624</v>
       </c>
       <c r="DA3">
-        <v>0.4757946603444905</v>
+        <v>0.4756755065033962</v>
       </c>
       <c r="DB3">
-        <v>0.485230721868002</v>
+        <v>0.4851529887636573</v>
       </c>
       <c r="DC3">
-        <v>0.5059706008207099</v>
+        <v>0.5060612005906501</v>
       </c>
       <c r="DD3">
-        <v>0.5060095732817419</v>
+        <v>0.5060612005906501</v>
       </c>
       <c r="DE3">
-        <v>0.5065757062531542</v>
+        <v>0.5065691683315592</v>
       </c>
       <c r="DF3">
-        <v>0.511336351312758</v>
+        <v>0.511318741498673</v>
       </c>
       <c r="DG3">
-        <v>0.5116073154690752</v>
+        <v>0.5115282264550699</v>
       </c>
       <c r="DH3">
-        <v>0.5154932025728514</v>
+        <v>0.5153932204353695</v>
       </c>
       <c r="DI3">
-        <v>0.5155070711831511</v>
+        <v>0.5153932204353695</v>
       </c>
       <c r="DJ3">
-        <v>0.520645958523655</v>
+        <v>0.5205252825493151</v>
       </c>
       <c r="DK3">
-        <v>0.5211058213704336</v>
+        <v>0.5209257870316109</v>
       </c>
       <c r="DL3">
-        <v>0.5224984581001103</v>
+        <v>0.5222695379940541</v>
       </c>
       <c r="DM3">
-        <v>0.5236204052434559</v>
+        <v>0.5233395602381009</v>
       </c>
       <c r="DN3">
-        <v>0.5260243111220669</v>
+        <v>0.525705934242101</v>
       </c>
       <c r="DO3">
-        <v>0.5260243598410315</v>
+        <v>0.525705934242101</v>
       </c>
       <c r="DP3">
-        <v>0.5262816428680396</v>
+        <v>0.5259015844660918</v>
       </c>
       <c r="DQ3">
-        <v>0.5289592300328306</v>
+        <v>0.5285447124772576</v>
       </c>
       <c r="DR3">
-        <v>0.5303016542650428</v>
+        <v>0.5298376871879628</v>
       </c>
       <c r="DS3">
-        <v>0.5312849124153917</v>
+        <v>0.5307674633264122</v>
       </c>
       <c r="DT3">
-        <v>0.5316349071477181</v>
+        <v>0.5310568661643145</v>
       </c>
       <c r="DU3">
-        <v>0.5325069555336827</v>
+        <v>0.5318741839452383</v>
       </c>
       <c r="DV3">
-        <v>0.5415812050754645</v>
+        <v>0.5409857920268812</v>
       </c>
       <c r="DW3">
-        <v>0.5427008880189244</v>
+        <v>0.5420535246500331</v>
       </c>
       <c r="DX3">
-        <v>0.5537119554629035</v>
+        <v>0.5531236960045435</v>
       </c>
       <c r="DY3">
-        <v>0.5583303152296923</v>
+        <v>0.5577293863892538</v>
       </c>
       <c r="DZ3">
-        <v>0.5628742486002394</v>
+        <v>0.5622598147650549</v>
       </c>
       <c r="EA3">
-        <v>0.5635813185045347</v>
+        <v>0.5629103017899</v>
       </c>
       <c r="EB3">
-        <v>0.5635855084623231</v>
+        <v>0.5629103017899</v>
       </c>
       <c r="EC3">
-        <v>0.5640849088371052</v>
+        <v>0.563350787702644</v>
       </c>
       <c r="ED3">
-        <v>0.5763344112185477</v>
+        <v>0.5756732983615359</v>
       </c>
       <c r="EE3">
-        <v>0.5841432223242297</v>
+        <v>0.5835052604618979</v>
       </c>
       <c r="EF3">
-        <v>0.5862806578162966</v>
+        <v>0.5856021723178044</v>
       </c>
       <c r="EG3">
-        <v>0.5893435934616289</v>
+        <v>0.5886349752593739</v>
       </c>
       <c r="EH3">
-        <v>0.5905588328002636</v>
+        <v>0.5897993371246784</v>
       </c>
       <c r="EI3">
-        <v>0.6125389646903429</v>
+        <v>0.611961726667318</v>
       </c>
       <c r="EJ3">
-        <v>0.626316735994613</v>
+        <v>0.6258296646892672</v>
       </c>
       <c r="EK3">
-        <v>0.636458024482513</v>
+        <v>0.636020291757783</v>
       </c>
       <c r="EL3">
-        <v>0.6367283140088643</v>
+        <v>0.6362290945098938</v>
       </c>
       <c r="EM3">
-        <v>0.653389126167551</v>
+        <v>0.6530124423518525</v>
       </c>
       <c r="EN3">
-        <v>0.6602113044230545</v>
+        <v>0.6598466943102483</v>
       </c>
       <c r="EO3">
-        <v>0.664474142207796</v>
+        <v>0.664092871136175</v>
       </c>
       <c r="EP3">
-        <v>0.6747526346887677</v>
+        <v>0.6744222426377199</v>
       </c>
       <c r="EQ3">
-        <v>0.7003665233953549</v>
+        <v>0.7002591865281222</v>
       </c>
       <c r="ER3">
-        <v>0.7302336418871687</v>
+        <v>0.7303971127870581</v>
       </c>
       <c r="ES3">
-        <v>0.735646700313828</v>
+        <v>0.73580642420731</v>
       </c>
       <c r="ET3">
-        <v>0.7364240376745751</v>
+        <v>0.7365279676073198</v>
       </c>
       <c r="EU3">
-        <v>0.7400225677928618</v>
+        <v>0.7401023783390119</v>
       </c>
       <c r="EV3">
-        <v>0.7535227941111471</v>
+        <v>0.7536896552748044</v>
       </c>
       <c r="EW3">
-        <v>0.7731858381182314</v>
+        <v>0.7735089421321106</v>
       </c>
       <c r="EX3">
-        <v>0.7865538604431925</v>
+        <v>0.7869625307714673</v>
       </c>
       <c r="EY3">
-        <v>0.7980459778628803</v>
+        <v>0.7985191530276178</v>
       </c>
       <c r="EZ3">
-        <v>0.7980487337227412</v>
+        <v>0.7985191530276178</v>
       </c>
       <c r="FA3">
-        <v>0.8074071582501732</v>
+        <v>0.8079181266325401</v>
       </c>
       <c r="FB3">
-        <v>0.8075234753992996</v>
+        <v>0.8079712283026202</v>
       </c>
       <c r="FC3">
-        <v>0.8113755779047818</v>
+        <v>0.8118020583724499</v>
       </c>
       <c r="FD3">
-        <v>0.8228735193241755</v>
+        <v>0.8233645700165043</v>
       </c>
       <c r="FE3">
-        <v>0.8384993005351276</v>
+        <v>0.8391012662356057</v>
       </c>
       <c r="FF3">
-        <v>0.8396876989751175</v>
+        <v>0.8402384858495727</v>
       </c>
       <c r="FG3">
-        <v>0.8504086314337475</v>
+        <v>0.8510152647659844</v>
       </c>
       <c r="FH3">
-        <v>0.8554121444810874</v>
+        <v>0.8560104326895259</v>
       </c>
       <c r="FI3">
-        <v>0.8656219199655291</v>
+        <v>0.8662703156834146</v>
       </c>
       <c r="FJ3">
-        <v>0.8718594216505567</v>
+        <v>0.8725133266913107</v>
       </c>
       <c r="FK3">
-        <v>0.8742308288308088</v>
+        <v>0.8748468371220499</v>
       </c>
       <c r="FL3">
-        <v>0.8752545186791161</v>
+        <v>0.8758174989000792</v>
       </c>
       <c r="FM3">
-        <v>0.8756106368011334</v>
+        <v>0.8761130938772322</v>
       </c>
       <c r="FN3">
-        <v>0.8906180190433125</v>
+        <v>0.8912244481337032</v>
       </c>
       <c r="FO3">
-        <v>0.8957170550858288</v>
+        <v>0.8963162115244048</v>
       </c>
       <c r="FP3">
-        <v>0.8961795365824751</v>
+        <v>0.8967193640571186</v>
       </c>
       <c r="FQ3">
-        <v>0.8962061974161288</v>
+        <v>0.8967193640571186</v>
       </c>
       <c r="FR3">
-        <v>0.9011560667661775</v>
+        <v>0.9016602860057462</v>
       </c>
       <c r="FS3">
-        <v>0.9031497436655037</v>
+        <v>0.9036118252380408</v>
       </c>
       <c r="FT3">
-        <v>0.9038793771286597</v>
+        <v>0.9042851291511641</v>
       </c>
       <c r="FU3">
-        <v>0.9152916015523819</v>
+        <v>0.9157609614231451</v>
       </c>
       <c r="FV3">
-        <v>0.9242010391024861</v>
+        <v>0.9247059071079454</v>
       </c>
       <c r="FW3">
-        <v>0.9310985907541836</v>
+        <v>0.9316163787075213</v>
       </c>
       <c r="FX3">
-        <v>0.9332757720442434</v>
+        <v>0.9337534826021898</v>
       </c>
       <c r="FY3">
-        <v>0.9341458245003087</v>
+        <v>0.9345687820441716</v>
       </c>
       <c r="FZ3">
-        <v>0.9349326479605768</v>
+        <v>0.9352999180476488</v>
       </c>
       <c r="GA3">
-        <v>0.9350505786696217</v>
+        <v>0.9353546513936811</v>
       </c>
       <c r="GB3">
-        <v>0.9354413245798904</v>
+        <v>0.9356852629380669</v>
       </c>
       <c r="GC3">
-        <v>0.9392984853851171</v>
+        <v>0.9395212080990425</v>
       </c>
       <c r="GD3">
-        <v>0.9398318230081854</v>
+        <v>0.9399960122861066</v>
       </c>
       <c r="GE3">
-        <v>0.940192052889995</v>
+        <v>0.9402957651872994</v>
       </c>
       <c r="GF3">
-        <v>0.9418623099056528</v>
+        <v>0.9419202533813166</v>
       </c>
       <c r="GG3">
-        <v>0.9434590313250238</v>
+        <v>0.9434703803677198</v>
       </c>
       <c r="GH3">
-        <v>0.952410789872991</v>
+        <v>0.952458122203873</v>
       </c>
       <c r="GI3">
-        <v>0.9723298098671493</v>
+        <v>0.9725362589853001</v>
       </c>
       <c r="GJ3">
-        <v>0.9876717290924355</v>
+        <v>0.9879859061952727</v>
       </c>
       <c r="GK3">
-        <v>0.994093942468136</v>
+        <v>0.9944157027202845</v>
       </c>
       <c r="GL3">
-        <v>0.9958100151814803</v>
+        <v>0.996086521001765</v>
       </c>
       <c r="GM3">
-        <v>0.9958661459026459</v>
+        <v>0.996086521001765</v>
       </c>
       <c r="GN3">
-        <v>0.9958711502600932</v>
+        <v>0.996086521001765</v>
       </c>
       <c r="GO3">
-        <v>0.9961612153754459</v>
+        <v>0.9963153213707264</v>
       </c>
       <c r="GP3">
-        <v>0.9986898789477571</v>
+        <v>0.9988078537691794</v>
       </c>
       <c r="GQ3">
-        <v>0.9987697725837227</v>
+        <v>0.9988241229858499</v>
       </c>
       <c r="GR3">
-        <v>0.9987733733619408</v>
+        <v>0.9988241229858499</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>3.007985073100656E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.001842770894783387</v>
+        <v>0.001477093714105726</v>
       </c>
       <c r="D4">
-        <v>0.002116204701428431</v>
+        <v>0.001477093714105726</v>
       </c>
       <c r="E4">
-        <v>0.002960603621949182</v>
+        <v>0.001902941220106528</v>
       </c>
       <c r="F4">
-        <v>0.004957628170481274</v>
+        <v>0.003580160384891558</v>
       </c>
       <c r="G4">
-        <v>0.005014306145858673</v>
+        <v>0.003580160384891558</v>
       </c>
       <c r="H4">
-        <v>0.00502759371518159</v>
+        <v>0.003580160384891558</v>
       </c>
       <c r="I4">
-        <v>0.006652811454677957</v>
+        <v>0.004853719859953181</v>
       </c>
       <c r="J4">
-        <v>0.009834541732001004</v>
+        <v>0.00781713910304649</v>
       </c>
       <c r="K4">
-        <v>0.009949111218785294</v>
+        <v>0.00781713910304649</v>
       </c>
       <c r="L4">
-        <v>0.01055774743357649</v>
+        <v>0.007987025990978036</v>
       </c>
       <c r="M4">
-        <v>0.01058693715528587</v>
+        <v>0.007987025990978036</v>
       </c>
       <c r="N4">
-        <v>0.01260349520429267</v>
+        <v>0.009685452101276736</v>
       </c>
       <c r="O4">
-        <v>0.01305565034528103</v>
+        <v>0.009685452101276736</v>
       </c>
       <c r="P4">
-        <v>0.01569538990943251</v>
+        <v>0.01206044800785503</v>
       </c>
       <c r="Q4">
-        <v>0.01570667133970667</v>
+        <v>0.01206044800785503</v>
       </c>
       <c r="R4">
-        <v>0.01761935428618908</v>
+        <v>0.01364609998213473</v>
       </c>
       <c r="S4">
-        <v>0.01782660513122573</v>
+        <v>0.01364609998213473</v>
       </c>
       <c r="T4">
-        <v>0.0196848307763847</v>
+        <v>0.01517262927005912</v>
       </c>
       <c r="U4">
-        <v>0.01992847051230568</v>
+        <v>0.01517262927005912</v>
       </c>
       <c r="V4">
-        <v>0.01993850682204959</v>
+        <v>0.01517262927005912</v>
       </c>
       <c r="W4">
-        <v>0.02157362786178663</v>
+        <v>0.01645694046618996</v>
       </c>
       <c r="X4">
-        <v>0.02358040731055578</v>
+        <v>0.01814475023853591</v>
       </c>
       <c r="Y4">
-        <v>0.02547288185654708</v>
+        <v>0.01970846254825379</v>
       </c>
       <c r="Z4">
-        <v>0.02717929229801661</v>
+        <v>0.02107017054585401</v>
       </c>
       <c r="AA4">
-        <v>0.02806292535949084</v>
+        <v>0.02153861340185639</v>
       </c>
       <c r="AB4">
-        <v>0.03453848681686122</v>
+        <v>0.02807804803742586</v>
       </c>
       <c r="AC4">
-        <v>0.04127988968069215</v>
+        <v>0.03490609884956778</v>
       </c>
       <c r="AD4">
-        <v>0.0463132222030132</v>
+        <v>0.03987974805495112</v>
       </c>
       <c r="AE4">
-        <v>0.04648203204711566</v>
+        <v>0.03987974805495112</v>
       </c>
       <c r="AF4">
-        <v>0.04878727410313811</v>
+        <v>0.04189158987972334</v>
       </c>
       <c r="AG4">
-        <v>0.05052535194537723</v>
+        <v>0.04328767824061532</v>
       </c>
       <c r="AH4">
-        <v>0.05053944614071975</v>
+        <v>0.04328767824061532</v>
       </c>
       <c r="AI4">
-        <v>0.05273989299419545</v>
+        <v>0.04518574700390372</v>
       </c>
       <c r="AJ4">
-        <v>0.06015755477446096</v>
+        <v>0.05274799218190095</v>
       </c>
       <c r="AK4">
-        <v>0.07129699404517384</v>
+        <v>0.06435086144343723</v>
       </c>
       <c r="AL4">
-        <v>0.07598271715904723</v>
+        <v>0.06894712136344724</v>
       </c>
       <c r="AM4">
-        <v>0.07649653107153404</v>
+        <v>0.06901406247363384</v>
       </c>
       <c r="AN4">
-        <v>0.08050882756904167</v>
+        <v>0.07287920297246198</v>
       </c>
       <c r="AO4">
-        <v>0.08930685578285311</v>
+        <v>0.08194007128679941</v>
       </c>
       <c r="AP4">
-        <v>0.1005126060551775</v>
+        <v>0.0936149324475835</v>
       </c>
       <c r="AQ4">
-        <v>0.1143110918905111</v>
+        <v>0.1081046501614615</v>
       </c>
       <c r="AR4">
-        <v>0.1254132251603173</v>
+        <v>0.1196670173977932</v>
       </c>
       <c r="AS4">
-        <v>0.1283759582323183</v>
+        <v>0.1223926778322733</v>
       </c>
       <c r="AT4">
-        <v>0.1286208757882703</v>
+        <v>0.1223926778322733</v>
       </c>
       <c r="AU4">
-        <v>0.1290941336997715</v>
+        <v>0.1224155884879969</v>
       </c>
       <c r="AV4">
-        <v>0.1294267999478561</v>
+        <v>0.1224155884879969</v>
       </c>
       <c r="AW4">
-        <v>0.1325947096248432</v>
+        <v>0.1253640031128105</v>
       </c>
       <c r="AX4">
-        <v>0.1371471132354767</v>
+        <v>0.1298155219791226</v>
       </c>
       <c r="AY4">
-        <v>0.138343642264555</v>
+        <v>0.1306236667613116</v>
       </c>
       <c r="AZ4">
-        <v>0.1408302463249849</v>
+        <v>0.1328324079667504</v>
       </c>
       <c r="BA4">
-        <v>0.1434198188879172</v>
+        <v>0.1351529390392956</v>
       </c>
       <c r="BB4">
-        <v>0.1535259001335172</v>
+        <v>0.1456339219618699</v>
       </c>
       <c r="BC4">
-        <v>0.1606830073074507</v>
+        <v>0.1529132906863111</v>
       </c>
       <c r="BD4">
-        <v>0.1642410883939199</v>
+        <v>0.1562853029060664</v>
       </c>
       <c r="BE4">
-        <v>0.165825887932434</v>
+        <v>0.1575149815320656</v>
       </c>
       <c r="BF4">
-        <v>0.1658987701392052</v>
+        <v>0.1575149815320656</v>
       </c>
       <c r="BG4">
-        <v>0.1683758972994048</v>
+        <v>0.1597134339463538</v>
       </c>
       <c r="BH4">
-        <v>0.1715576275767279</v>
+        <v>0.1626768531894472</v>
       </c>
       <c r="BI4">
-        <v>0.1731982633165989</v>
+        <v>0.1639671515329107</v>
       </c>
       <c r="BJ4">
-        <v>0.173202753686208</v>
+        <v>0.1639671515329107</v>
       </c>
       <c r="BK4">
-        <v>0.174305945913018</v>
+        <v>0.1646739633009436</v>
       </c>
       <c r="BL4">
-        <v>0.1760270002548434</v>
+        <v>0.16605156974938</v>
       </c>
       <c r="BM4">
-        <v>0.1772490986845431</v>
+        <v>0.1668874744759014</v>
       </c>
       <c r="BN4">
-        <v>0.1805974097659144</v>
+        <v>0.1700317455862599</v>
       </c>
       <c r="BO4">
-        <v>0.1844507358595587</v>
+        <v>0.1737242966049085</v>
       </c>
       <c r="BP4">
-        <v>0.189538351483199</v>
+        <v>0.1787568793728389</v>
       </c>
       <c r="BQ4">
-        <v>0.1920440178440922</v>
+        <v>0.1809863159558324</v>
       </c>
       <c r="BR4">
-        <v>0.1928891929646318</v>
+        <v>0.1814130061593072</v>
       </c>
       <c r="BS4">
-        <v>0.1929000213528949</v>
+        <v>0.1814130061593072</v>
       </c>
       <c r="BT4">
-        <v>0.1935324307682639</v>
+        <v>0.1816087029101453</v>
       </c>
       <c r="BU4">
-        <v>0.1946311196949644</v>
+        <v>0.1823106255780306</v>
       </c>
       <c r="BV4">
-        <v>0.1971532104562568</v>
+        <v>0.1845578936482586</v>
       </c>
       <c r="BW4">
-        <v>0.1992426204070341</v>
+        <v>0.1863354129202471</v>
       </c>
       <c r="BX4">
-        <v>0.2016926940665762</v>
+        <v>0.188504494146553</v>
       </c>
       <c r="BY4">
-        <v>0.2038171303182047</v>
+        <v>0.1903200404406136</v>
       </c>
       <c r="BZ4">
-        <v>0.2057693475656479</v>
+        <v>0.1919486136397645</v>
       </c>
       <c r="CA4">
-        <v>0.2118796257141411</v>
+        <v>0.1980914709573851</v>
       </c>
       <c r="CB4">
-        <v>0.2223590059688131</v>
+        <v>0.2089777336072641</v>
       </c>
       <c r="CC4">
-        <v>0.2349219412741201</v>
+        <v>0.222126050541308</v>
       </c>
       <c r="CD4">
-        <v>0.2461190385462342</v>
+        <v>0.2337915173949003</v>
       </c>
       <c r="CE4">
-        <v>0.2493687670252097</v>
+        <v>0.2368287602805783</v>
       </c>
       <c r="CF4">
-        <v>0.2501887945951382</v>
+        <v>0.2372281485298384</v>
       </c>
       <c r="CG4">
-        <v>0.2503324252286288</v>
+        <v>0.2372281485298384</v>
       </c>
       <c r="CH4">
-        <v>0.2505112951329757</v>
+        <v>0.2372281485298384</v>
       </c>
       <c r="CI4">
-        <v>0.2519200903672125</v>
+        <v>0.2382667444722288</v>
       </c>
       <c r="CJ4">
-        <v>0.2526264940843797</v>
+        <v>0.2385427746547829</v>
       </c>
       <c r="CK4">
-        <v>0.2530075148936394</v>
+        <v>0.2385427746547829</v>
       </c>
       <c r="CL4">
-        <v>0.2540676859194039</v>
+        <v>0.2392028795733349</v>
       </c>
       <c r="CM4">
-        <v>0.2603906426730656</v>
+        <v>0.2455766357816881</v>
       </c>
       <c r="CN4">
-        <v>0.2747255980214366</v>
+        <v>0.2606487826278898</v>
       </c>
       <c r="CO4">
-        <v>0.294064563491416</v>
+        <v>0.2811536357182291</v>
       </c>
       <c r="CP4">
-        <v>0.3239209742169925</v>
+        <v>0.3130769690122199</v>
       </c>
       <c r="CQ4">
-        <v>0.3554241009825878</v>
+        <v>0.3467880933568923</v>
       </c>
       <c r="CR4">
-        <v>0.3827151876458212</v>
+        <v>0.3759263299558253</v>
       </c>
       <c r="CS4">
-        <v>0.3993126510491761</v>
+        <v>0.393454815086525</v>
       </c>
       <c r="CT4">
-        <v>0.4024073312243837</v>
+        <v>0.3963237266004526</v>
       </c>
       <c r="CU4">
-        <v>0.4028800083458707</v>
+        <v>0.3963460067095826</v>
       </c>
       <c r="CV4">
-        <v>0.4072359880517306</v>
+        <v>0.4005842739341058</v>
       </c>
       <c r="CW4">
-        <v>0.4148521692368206</v>
+        <v>0.4083620457765107</v>
       </c>
       <c r="CX4">
-        <v>0.4215088533985926</v>
+        <v>0.4150981199917863</v>
       </c>
       <c r="CY4">
-        <v>0.4262263805132389</v>
+        <v>0.419728908577684</v>
       </c>
       <c r="CZ4">
-        <v>0.4314904882411683</v>
+        <v>0.424953103619313</v>
       </c>
       <c r="DA4">
-        <v>0.4416240389874359</v>
+        <v>0.4354639093688147</v>
       </c>
       <c r="DB4">
-        <v>0.460012417434314</v>
+        <v>0.4549367381565456</v>
       </c>
       <c r="DC4">
-        <v>0.4858249540616154</v>
+        <v>0.4824697565770037</v>
       </c>
       <c r="DD4">
-        <v>0.511628732688704</v>
+        <v>0.5099932666948634</v>
       </c>
       <c r="DE4">
-        <v>0.5274388300729241</v>
+        <v>0.526666931754336</v>
       </c>
       <c r="DF4">
-        <v>0.544265363481846</v>
+        <v>0.5444441114358749</v>
       </c>
       <c r="DG4">
-        <v>0.5518696576666471</v>
+        <v>0.5522089779125583</v>
       </c>
       <c r="DH4">
-        <v>0.5537656905127248</v>
+        <v>0.5537765533637624</v>
       </c>
       <c r="DI4">
-        <v>0.5538730833653347</v>
+        <v>0.5537765533637624</v>
       </c>
       <c r="DJ4">
-        <v>0.5540144303087697</v>
+        <v>0.5537765533637624</v>
       </c>
       <c r="DK4">
-        <v>0.5542142937436269</v>
+        <v>0.5537765533637624</v>
       </c>
       <c r="DL4">
-        <v>0.5555865050769746</v>
+        <v>0.554775431243646</v>
       </c>
       <c r="DM4">
-        <v>0.5608051942038003</v>
+        <v>0.5599503166492392</v>
       </c>
       <c r="DN4">
-        <v>0.5719187604738843</v>
+        <v>0.5715250963568668</v>
       </c>
       <c r="DO4">
-        <v>0.5908505819339692</v>
+        <v>0.5915879252004393</v>
       </c>
       <c r="DP4">
-        <v>0.6094389913857085</v>
+        <v>0.6112779217521677</v>
       </c>
       <c r="DQ4">
-        <v>0.6243240382474479</v>
+        <v>0.6269472867348034</v>
       </c>
       <c r="DR4">
-        <v>0.6360875235333264</v>
+        <v>0.6392276643548019</v>
       </c>
       <c r="DS4">
-        <v>0.6483830318321343</v>
+        <v>0.6520856436730635</v>
       </c>
       <c r="DT4">
-        <v>0.6592821660970073</v>
+        <v>0.6634276208752319</v>
       </c>
       <c r="DU4">
-        <v>0.669064851334748</v>
+        <v>0.6735575022875115</v>
       </c>
       <c r="DV4">
-        <v>0.6756571661949557</v>
+        <v>0.6802236926500289</v>
       </c>
       <c r="DW4">
-        <v>0.6795427017893828</v>
+        <v>0.6839512125739696</v>
       </c>
       <c r="DX4">
-        <v>0.6810292597255094</v>
+        <v>0.6850742331889429</v>
       </c>
       <c r="DY4">
-        <v>0.6810327198713935</v>
+        <v>0.6850742331889429</v>
       </c>
       <c r="DZ4">
-        <v>0.6832704224257745</v>
+        <v>0.6870127493682077</v>
       </c>
       <c r="EA4">
-        <v>0.6901016713917889</v>
+        <v>0.6939383434443481</v>
       </c>
       <c r="EB4">
-        <v>0.6976324715748039</v>
+        <v>0.7016234196502873</v>
       </c>
       <c r="EC4">
-        <v>0.7046018127441742</v>
+        <v>0.7086989363599171</v>
       </c>
       <c r="ED4">
-        <v>0.7144926689845438</v>
+        <v>0.718946255840293</v>
       </c>
       <c r="EE4">
-        <v>0.7243375022237949</v>
+        <v>0.7291436095053581</v>
       </c>
       <c r="EF4">
-        <v>0.7337068954514918</v>
+        <v>0.7388247919683846</v>
       </c>
       <c r="EG4">
-        <v>0.7482646548052774</v>
+        <v>0.7541388305538151</v>
       </c>
       <c r="EH4">
-        <v>0.762063140640611</v>
+        <v>0.7686285482676931</v>
       </c>
       <c r="EI4">
-        <v>0.7771752100078675</v>
+        <v>0.7845443848907352</v>
       </c>
       <c r="EJ4">
-        <v>0.7862177592276214</v>
+        <v>0.7938707224514416</v>
       </c>
       <c r="EK4">
-        <v>0.7885203849835802</v>
+        <v>0.7958797238363773</v>
       </c>
       <c r="EL4">
-        <v>0.7893935339747997</v>
+        <v>0.7963367844464303</v>
       </c>
       <c r="EM4">
-        <v>0.7895237743079648</v>
+        <v>0.7963367844464303</v>
       </c>
       <c r="EN4">
-        <v>0.7899724591388688</v>
+        <v>0.7963367844464303</v>
       </c>
       <c r="EO4">
-        <v>0.7925385092012295</v>
+        <v>0.7986317778336737</v>
       </c>
       <c r="EP4">
-        <v>0.7972747367163302</v>
+        <v>0.8032828688929573</v>
       </c>
       <c r="EQ4">
-        <v>0.8025210248438266</v>
+        <v>0.808487717719813</v>
       </c>
       <c r="ER4">
-        <v>0.8087899206961745</v>
+        <v>0.8148027816016132</v>
       </c>
       <c r="ES4">
-        <v>0.8140916254250176</v>
+        <v>0.8200677945985744</v>
       </c>
       <c r="ET4">
-        <v>0.8221150086200034</v>
+        <v>0.8282876536566374</v>
       </c>
       <c r="EU4">
-        <v>0.8285227632757259</v>
+        <v>0.8347534724469637</v>
       </c>
       <c r="EV4">
-        <v>0.8365803584715432</v>
+        <v>0.8430104744655772</v>
       </c>
       <c r="EW4">
-        <v>0.847527913737593</v>
+        <v>0.854405020921014</v>
       </c>
       <c r="EX4">
-        <v>0.8560746429452972</v>
+        <v>0.8631930613140553</v>
       </c>
       <c r="EY4">
-        <v>0.8622190116946189</v>
+        <v>0.8693729297918228</v>
       </c>
       <c r="EZ4">
-        <v>0.8647547797562436</v>
+        <v>0.8716350469037419</v>
       </c>
       <c r="FA4">
-        <v>0.8652115828073449</v>
+        <v>0.8716400930027064</v>
       </c>
       <c r="FB4">
-        <v>0.8661000994889378</v>
+        <v>0.8721138378610764</v>
       </c>
       <c r="FC4">
-        <v>0.8700934291859845</v>
+        <v>0.8759583866638865</v>
       </c>
       <c r="FD4">
-        <v>0.8745744026948821</v>
+        <v>0.880332355974884</v>
       </c>
       <c r="FE4">
-        <v>0.8809669381502347</v>
+        <v>0.886781651728112</v>
       </c>
       <c r="FF4">
-        <v>0.8927423074364021</v>
+        <v>0.8990749314568205</v>
       </c>
       <c r="FG4">
-        <v>0.9038128767054413</v>
+        <v>0.9106030305881944</v>
       </c>
       <c r="FH4">
-        <v>0.9096140115464216</v>
+        <v>0.9164102601320409</v>
       </c>
       <c r="FI4">
-        <v>0.914549256666359</v>
+        <v>0.9212774187367957</v>
       </c>
       <c r="FJ4">
-        <v>0.9180008867502412</v>
+        <v>0.9245338602417853</v>
       </c>
       <c r="FK4">
-        <v>0.9208855211203442</v>
+        <v>0.9271747312183808</v>
       </c>
       <c r="FL4">
-        <v>0.9225416473605916</v>
+        <v>0.9284818471413606</v>
       </c>
       <c r="FM4">
-        <v>0.9249581128193171</v>
+        <v>0.9306144409349887</v>
       </c>
       <c r="FN4">
-        <v>0.9255864168045862</v>
+        <v>0.9308056805414174</v>
       </c>
       <c r="FO4">
-        <v>0.9256426851759536</v>
+        <v>0.9308056805414174</v>
       </c>
       <c r="FP4">
-        <v>0.9266015766992568</v>
+        <v>0.9313558292904068</v>
       </c>
       <c r="FQ4">
-        <v>0.9303190907896006</v>
+        <v>0.9349009332215339</v>
       </c>
       <c r="FR4">
-        <v>0.9385810109903835</v>
+        <v>0.9433797648734482</v>
       </c>
       <c r="FS4">
-        <v>0.9497607552620759</v>
+        <v>0.9550263920861417</v>
       </c>
       <c r="FT4">
-        <v>0.957527464450824</v>
+        <v>0.9629675877437502</v>
       </c>
       <c r="FU4">
-        <v>0.9619158458574714</v>
+        <v>0.9672410325394435</v>
       </c>
       <c r="FV4">
-        <v>0.963241018989676</v>
+        <v>0.9681888424312829</v>
       </c>
       <c r="FW4">
-        <v>0.9632556273080309</v>
+        <v>0.9681888424312829</v>
       </c>
       <c r="FX4">
-        <v>0.9632642495412405</v>
+        <v>0.9681888424312829</v>
       </c>
       <c r="FY4">
-        <v>0.9632721681284329</v>
+        <v>0.9681888424312829</v>
       </c>
       <c r="FZ4">
-        <v>0.9633347365199534</v>
+        <v>0.9681888424312829</v>
       </c>
       <c r="GA4">
-        <v>0.9633801390970568</v>
+        <v>0.9681888424312829</v>
       </c>
       <c r="GB4">
-        <v>0.963445987248657</v>
+        <v>0.9681888424312829</v>
       </c>
       <c r="GC4">
-        <v>0.9646378075776209</v>
+        <v>0.9689918751165953</v>
       </c>
       <c r="GD4">
-        <v>0.9669325936333892</v>
+        <v>0.9709923651701903</v>
       </c>
       <c r="GE4">
-        <v>0.9721967013613186</v>
+        <v>0.9762165602118194</v>
       </c>
       <c r="GF4">
-        <v>0.9798009955461198</v>
+        <v>0.9839814266885027</v>
       </c>
       <c r="GG4">
-        <v>0.9853719786815069</v>
+        <v>0.9895387873116859</v>
       </c>
       <c r="GH4">
-        <v>0.9866626758128737</v>
+        <v>0.9904491676259519</v>
       </c>
       <c r="GI4">
-        <v>0.9866812746363257</v>
+        <v>0.9904491676259519</v>
       </c>
       <c r="GJ4">
-        <v>0.9872812016909053</v>
+        <v>0.9906095992354341</v>
       </c>
       <c r="GK4">
-        <v>0.9893099920402093</v>
+        <v>0.9923213055934922</v>
       </c>
       <c r="GL4">
-        <v>0.9906711208732877</v>
+        <v>0.9933081515296046</v>
       </c>
       <c r="GM4">
-        <v>0.9926389992211114</v>
+        <v>0.994953727523666</v>
       </c>
       <c r="GN4">
-        <v>0.9940942013564761</v>
+        <v>0.996042706070288</v>
       </c>
       <c r="GO4">
-        <v>0.9956369710939688</v>
+        <v>0.9972267541805808</v>
       </c>
       <c r="GP4">
-        <v>0.9969532305259567</v>
+        <v>0.9981648867309184</v>
       </c>
       <c r="GQ4">
-        <v>0.9978662685481455</v>
+        <v>0.9986652536857537</v>
       </c>
       <c r="GR4">
-        <v>0.9989220074738023</v>
+        <v>0.9993205468039007</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0001971790916383431</v>
+        <v>4.793832484196968E-05</v>
       </c>
       <c r="C5">
-        <v>0.0002366721399635848</v>
+        <v>4.793832484196968E-05</v>
       </c>
       <c r="D5">
-        <v>0.0002415555297564978</v>
+        <v>4.793832484196968E-05</v>
       </c>
       <c r="E5">
-        <v>0.0003120543667668954</v>
+        <v>4.793832484196968E-05</v>
       </c>
       <c r="F5">
-        <v>0.0006806259311370994</v>
+        <v>0.0002714395904831861</v>
       </c>
       <c r="G5">
-        <v>0.001193532809386561</v>
+        <v>0.0006427882601668688</v>
       </c>
       <c r="H5">
-        <v>0.001914210618825205</v>
+        <v>0.001226963520836479</v>
       </c>
       <c r="I5">
-        <v>0.002584399390404907</v>
+        <v>0.001759421201245096</v>
       </c>
       <c r="J5">
-        <v>0.003261597421687371</v>
+        <v>0.002299058696651585</v>
       </c>
       <c r="K5">
-        <v>0.003688388503588695</v>
+        <v>0.002582196126861518</v>
       </c>
       <c r="L5">
-        <v>0.004207429481578031</v>
+        <v>0.002959828156440318</v>
       </c>
       <c r="M5">
-        <v>0.004817388355711867</v>
+        <v>0.003430590374083914</v>
       </c>
       <c r="N5">
-        <v>0.005310474974801835</v>
+        <v>0.003781636501129754</v>
       </c>
       <c r="O5">
-        <v>0.005539179225103309</v>
+        <v>0.003861867081727441</v>
       </c>
       <c r="P5">
-        <v>0.00577011647531009</v>
+        <v>0.003944384997491787</v>
       </c>
       <c r="Q5">
-        <v>0.005921098718907476</v>
+        <v>0.003945002373120222</v>
       </c>
       <c r="R5">
-        <v>0.00607147825253042</v>
+        <v>0.003945002373120222</v>
       </c>
       <c r="S5">
-        <v>0.006075532200858507</v>
+        <v>0.003945002373120222</v>
       </c>
       <c r="T5">
-        <v>0.006196485725729302</v>
+        <v>0.003945002373120222</v>
       </c>
       <c r="U5">
-        <v>0.006403082316968282</v>
+        <v>0.004002587352208498</v>
       </c>
       <c r="V5">
-        <v>0.006699230484409703</v>
+        <v>0.004151902952955431</v>
       </c>
       <c r="W5">
-        <v>0.00697954221252269</v>
+        <v>0.004284996768603094</v>
       </c>
       <c r="X5">
-        <v>0.007454236142392625</v>
+        <v>0.004617202659801895</v>
       </c>
       <c r="Y5">
-        <v>0.007785593308340958</v>
+        <v>0.004802583994486517</v>
       </c>
       <c r="Z5">
-        <v>0.008102367414907706</v>
+        <v>0.00497302742233035</v>
       </c>
       <c r="AA5">
-        <v>0.008397671222384932</v>
+        <v>0.005121478117425102</v>
       </c>
       <c r="AB5">
-        <v>0.008472340145218492</v>
+        <v>0.005121478117425102</v>
       </c>
       <c r="AC5">
-        <v>0.008658977467303873</v>
+        <v>0.005158618161371496</v>
       </c>
       <c r="AD5">
-        <v>0.008921098256188271</v>
+        <v>0.005273078400316713</v>
       </c>
       <c r="AE5">
-        <v>0.009094884698818612</v>
+        <v>0.005297054866230639</v>
       </c>
       <c r="AF5">
-        <v>0.009174293551451168</v>
+        <v>0.005297054866230639</v>
       </c>
       <c r="AG5">
-        <v>0.009191605827717017</v>
+        <v>0.005297054866230639</v>
       </c>
       <c r="AH5">
-        <v>0.009205441583130292</v>
+        <v>0.005297054866230639</v>
       </c>
       <c r="AI5">
-        <v>0.009207685283535145</v>
+        <v>0.005297054866230639</v>
       </c>
       <c r="AJ5">
-        <v>0.00920872251059116</v>
+        <v>0.005297054866230639</v>
       </c>
       <c r="AK5">
-        <v>0.009241165717215361</v>
+        <v>0.005297054866230639</v>
       </c>
       <c r="AL5">
-        <v>0.009268001746077342</v>
+        <v>0.005297054866230639</v>
       </c>
       <c r="AM5">
-        <v>0.009344390292837979</v>
+        <v>0.005297054866230639</v>
       </c>
       <c r="AN5">
-        <v>0.00947276022739427</v>
+        <v>0.005297054866230639</v>
       </c>
       <c r="AO5">
-        <v>0.009579081768885556</v>
+        <v>0.005297054866230639</v>
       </c>
       <c r="AP5">
-        <v>0.009795698379699623</v>
+        <v>0.005364903680570422</v>
       </c>
       <c r="AQ5">
-        <v>0.01017327920368778</v>
+        <v>0.005597633426831237</v>
       </c>
       <c r="AR5">
-        <v>0.01042558099298856</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="AS5">
-        <v>0.01051561868917039</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="AT5">
-        <v>0.01058165564137</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="AU5">
-        <v>0.01063699319302333</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="AV5">
-        <v>0.01067773951829543</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="AW5">
-        <v>0.01080006310310812</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="AX5">
-        <v>0.01086275212544971</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="AY5">
-        <v>0.01096283939120537</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="AZ5">
-        <v>0.01100096522958859</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="BA5">
-        <v>0.01100422242285046</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="BB5">
-        <v>0.01106214622839412</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="BC5">
-        <v>0.01108008304363348</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="BD5">
-        <v>0.01108076001460478</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="BE5">
-        <v>0.01108118373060681</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="BF5">
-        <v>0.0110820305809309</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="BG5">
-        <v>0.01108204286683238</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="BH5">
-        <v>0.01108742671860407</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="BI5">
-        <v>0.01109833190414162</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="BJ5">
-        <v>0.01110046449015118</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="BK5">
-        <v>0.01110131134047527</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="BL5">
-        <v>0.01110377878837063</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="BM5">
-        <v>0.01115035179439564</v>
+        <v>0.005702035741906586</v>
       </c>
       <c r="BN5">
-        <v>0.01131614156736509</v>
+        <v>0.005717820956361865</v>
       </c>
       <c r="BO5">
-        <v>0.01151713090884185</v>
+        <v>0.005769662245296426</v>
       </c>
       <c r="BP5">
-        <v>0.01175216757887479</v>
+        <v>0.005856379331472282</v>
       </c>
       <c r="BQ5">
-        <v>0.01191356149203066</v>
+        <v>0.0058676617222976</v>
       </c>
       <c r="BR5">
-        <v>0.01201635368767161</v>
+        <v>0.0058676617222976</v>
       </c>
       <c r="BS5">
-        <v>0.01219568546006679</v>
+        <v>0.005897318451677592</v>
       </c>
       <c r="BT5">
-        <v>0.01246019642884984</v>
+        <v>0.006014227030420678</v>
       </c>
       <c r="BU5">
-        <v>0.01273559755717106</v>
+        <v>0.006142290757367315</v>
       </c>
       <c r="BV5">
-        <v>0.01304369314410584</v>
+        <v>0.006303844492425414</v>
       </c>
       <c r="BW5">
-        <v>0.01306755654309388</v>
+        <v>0.006303844492425414</v>
       </c>
       <c r="BX5">
-        <v>0.01306891721383618</v>
+        <v>0.006303844492425414</v>
       </c>
       <c r="BY5">
-        <v>0.01306905254730044</v>
+        <v>0.006303844492425414</v>
       </c>
       <c r="BZ5">
-        <v>0.01316500809823131</v>
+        <v>0.006303844492425414</v>
       </c>
       <c r="CA5">
-        <v>0.01339185979861134</v>
+        <v>0.006382177445274337</v>
       </c>
       <c r="CB5">
-        <v>0.01393580177554472</v>
+        <v>0.006785316386176445</v>
       </c>
       <c r="CC5">
-        <v>0.01466972077442185</v>
+        <v>0.007383055032217932</v>
       </c>
       <c r="CD5">
-        <v>0.01536686807485834</v>
+        <v>0.007943127219438193</v>
       </c>
       <c r="CE5">
-        <v>0.01578558303710214</v>
+        <v>0.008217992014947656</v>
       </c>
       <c r="CF5">
-        <v>0.01621237411900346</v>
+        <v>0.008501129445157589</v>
       </c>
       <c r="CG5">
-        <v>0.01673758566673113</v>
+        <v>0.008885082192049119</v>
       </c>
       <c r="CH5">
-        <v>0.01730935774248433</v>
+        <v>0.009316728417510836</v>
       </c>
       <c r="CI5">
-        <v>0.01778141306246616</v>
+        <v>0.009646231493911564</v>
       </c>
       <c r="CJ5">
-        <v>0.01826365714201592</v>
+        <v>0.009986171251482306</v>
       </c>
       <c r="CK5">
-        <v>0.01853908273033611</v>
+        <v>0.0101142600336095</v>
       </c>
       <c r="CL5">
-        <v>0.01875067039136344</v>
+        <v>0.01017695752946009</v>
       </c>
       <c r="CM5">
-        <v>0.01994550064069498</v>
+        <v>0.01124682271225929</v>
       </c>
       <c r="CN5">
-        <v>0.1828460337326686</v>
+        <v>0.1779571520447182</v>
       </c>
       <c r="CO5">
-        <v>0.2296771847467277</v>
+        <v>0.2257737999362769</v>
       </c>
       <c r="CP5">
-        <v>0.3162542510753054</v>
+        <v>0.3143034947087885</v>
       </c>
       <c r="CQ5">
-        <v>0.3190336569574407</v>
+        <v>0.3169964927723946</v>
       </c>
       <c r="CR5">
-        <v>0.3558609813957262</v>
+        <v>0.3545658924336523</v>
       </c>
       <c r="CS5">
-        <v>0.3885658360088308</v>
+        <v>0.38791251081211</v>
       </c>
       <c r="CT5">
-        <v>0.4081472311784542</v>
+        <v>0.4078163385205145</v>
       </c>
       <c r="CU5">
-        <v>0.4081837078169073</v>
+        <v>0.4078163385205145</v>
       </c>
       <c r="CV5">
-        <v>0.4083290130207455</v>
+        <v>0.4078163385205145</v>
       </c>
       <c r="CW5">
-        <v>0.4289580921459403</v>
+        <v>0.4287933433255356</v>
       </c>
       <c r="CX5">
-        <v>0.4322132302079016</v>
+        <v>0.4319736494907859</v>
       </c>
       <c r="CY5">
-        <v>0.432232322517092</v>
+        <v>0.4319736494907859</v>
       </c>
       <c r="CZ5">
-        <v>0.4568876394715485</v>
+        <v>0.457074861983552</v>
       </c>
       <c r="DA5">
-        <v>0.4588784653871247</v>
+        <v>0.4589600916791673</v>
       </c>
       <c r="DB5">
-        <v>0.4941490578914256</v>
+        <v>0.4949348796751041</v>
       </c>
       <c r="DC5">
-        <v>0.4941626156308507</v>
+        <v>0.4949348796751041</v>
       </c>
       <c r="DD5">
-        <v>0.4943029336049003</v>
+        <v>0.4949348796751041</v>
       </c>
       <c r="DE5">
-        <v>0.4975622751666833</v>
+        <v>0.4981194916233248</v>
       </c>
       <c r="DF5">
-        <v>0.4993598369904552</v>
+        <v>0.4998067545601482</v>
       </c>
       <c r="DG5">
-        <v>0.5017669328883789</v>
+        <v>0.5021183832749416</v>
       </c>
       <c r="DH5">
-        <v>0.5018739999388386</v>
+        <v>0.5021183832749416</v>
       </c>
       <c r="DI5">
-        <v>0.5103132265809613</v>
+        <v>0.5106089216924613</v>
       </c>
       <c r="DJ5">
-        <v>0.5110306128505395</v>
+        <v>0.5111897253207106</v>
       </c>
       <c r="DK5">
-        <v>0.5124973394883409</v>
+        <v>0.5125381029071855</v>
       </c>
       <c r="DL5">
-        <v>0.512497762246123</v>
+        <v>0.5125381029071855</v>
       </c>
       <c r="DM5">
-        <v>0.5129832139455367</v>
+        <v>0.512881328335167</v>
       </c>
       <c r="DN5">
-        <v>0.5129832743951441</v>
+        <v>0.512881328335167</v>
       </c>
       <c r="DO5">
-        <v>0.5138425079087071</v>
+        <v>0.513607430755722</v>
       </c>
       <c r="DP5">
-        <v>0.5164864149965885</v>
+        <v>0.5161616329526554</v>
       </c>
       <c r="DQ5">
-        <v>0.5176677062464943</v>
+        <v>0.5172176296935282</v>
       </c>
       <c r="DR5">
-        <v>0.5195590971662872</v>
+        <v>0.5190010048560955</v>
       </c>
       <c r="DS5">
-        <v>0.5195716788037537</v>
+        <v>0.5190010048560955</v>
       </c>
       <c r="DT5">
-        <v>0.5210752452399928</v>
+        <v>0.520387118658456</v>
       </c>
       <c r="DU5">
-        <v>0.5261438920250497</v>
+        <v>0.5254250613903357</v>
       </c>
       <c r="DV5">
-        <v>0.5278297915535568</v>
+        <v>0.5269979449695327</v>
       </c>
       <c r="DW5">
-        <v>0.5333556413192254</v>
+        <v>0.5325042157355375</v>
       </c>
       <c r="DX5">
-        <v>0.545646906797997</v>
+        <v>0.5449405240894826</v>
       </c>
       <c r="DY5">
-        <v>0.547067000137776</v>
+        <v>0.5462411336566886</v>
       </c>
       <c r="DZ5">
-        <v>0.5477321142095709</v>
+        <v>0.5467683931553819</v>
       </c>
       <c r="EA5">
-        <v>0.5489507716578921</v>
+        <v>0.5478626653209322</v>
       </c>
       <c r="EB5">
-        <v>0.5493090194227001</v>
+        <v>0.5480755915795006</v>
       </c>
       <c r="EC5">
-        <v>0.5604967189482699</v>
+        <v>0.5593814810706923</v>
       </c>
       <c r="ED5">
-        <v>0.5728943594225305</v>
+        <v>0.5719267528273929</v>
       </c>
       <c r="EE5">
-        <v>0.5757062156032898</v>
+        <v>0.5746529907980112</v>
       </c>
       <c r="EF5">
-        <v>0.5790161244629285</v>
+        <v>0.5778894004907787</v>
       </c>
       <c r="EG5">
-        <v>0.5794125094761192</v>
+        <v>0.5781413919858382</v>
       </c>
       <c r="EH5">
-        <v>0.5963644427572486</v>
+        <v>0.5953517754927243</v>
       </c>
       <c r="EI5">
-        <v>0.6126486520666938</v>
+        <v>0.6118781873978094</v>
       </c>
       <c r="EJ5">
-        <v>0.6243778195693019</v>
+        <v>0.6237387203274337</v>
       </c>
       <c r="EK5">
-        <v>0.6245471238621223</v>
+        <v>0.6237581055800394</v>
       </c>
       <c r="EL5">
-        <v>0.633692777474288</v>
+        <v>0.6329722603521388</v>
       </c>
       <c r="EM5">
-        <v>0.6416868481352882</v>
+        <v>0.6410068108729058</v>
       </c>
       <c r="EN5">
-        <v>0.6457814539616507</v>
+        <v>0.6450470114493593</v>
       </c>
       <c r="EO5">
-        <v>0.6597311603700937</v>
+        <v>0.6591821153344853</v>
       </c>
       <c r="EP5">
-        <v>0.6798138455184591</v>
+        <v>0.6795994308376476</v>
       </c>
       <c r="EQ5">
-        <v>0.7186757738704643</v>
+        <v>0.7192529421332192</v>
       </c>
       <c r="ER5">
-        <v>0.7321682632982963</v>
+        <v>0.7329197036435608</v>
       </c>
       <c r="ES5">
-        <v>0.7339658251220682</v>
+        <v>0.7346069665803843</v>
       </c>
       <c r="ET5">
-        <v>0.7351682537710775</v>
+        <v>0.7356846150536135</v>
       </c>
       <c r="EU5">
-        <v>0.7439375243992042</v>
+        <v>0.7445132283693617</v>
       </c>
       <c r="EV5">
-        <v>0.7625217536111139</v>
+        <v>0.7633956262260888</v>
       </c>
       <c r="EW5">
-        <v>0.7773636709817214</v>
+        <v>0.7784446511127282</v>
       </c>
       <c r="EX5">
-        <v>0.7904540994266034</v>
+        <v>0.7916995683488013</v>
       </c>
       <c r="EY5">
-        <v>0.7920435815591992</v>
+        <v>0.79317368842164</v>
       </c>
       <c r="EZ5">
-        <v>0.7987549008745962</v>
+        <v>0.799894274595206</v>
       </c>
       <c r="FA5">
-        <v>0.7991721101569039</v>
+        <v>0.8001675970732888</v>
       </c>
       <c r="FB5">
-        <v>0.8019683667383247</v>
+        <v>0.8028778558617908</v>
       </c>
       <c r="FC5">
-        <v>0.8129621632721173</v>
+        <v>0.8139851241479578</v>
       </c>
       <c r="FD5">
-        <v>0.8300484165475507</v>
+        <v>0.831333096037999</v>
       </c>
       <c r="FE5">
-        <v>0.8359095142990026</v>
+        <v>0.8371827723301802</v>
       </c>
       <c r="FF5">
-        <v>0.8412204383737855</v>
+        <v>0.8424688876497773</v>
       </c>
       <c r="FG5">
-        <v>0.8453103324003477</v>
+        <v>0.8465042617748927</v>
       </c>
       <c r="FH5">
-        <v>0.852634362089762</v>
+        <v>0.8538524673147359</v>
       </c>
       <c r="FI5">
-        <v>0.8580441413603527</v>
+        <v>0.8592398432592174</v>
       </c>
       <c r="FJ5">
-        <v>0.8597900374863154</v>
+        <v>0.8608741833243346</v>
       </c>
       <c r="FK5">
-        <v>0.8605332970547964</v>
+        <v>0.8614814898226992</v>
       </c>
       <c r="FL5">
-        <v>0.861029080233772</v>
+        <v>0.8618352981246296</v>
       </c>
       <c r="FM5">
-        <v>0.8714212857930759</v>
+        <v>0.8723263370107763</v>
       </c>
       <c r="FN5">
-        <v>0.8812775143751086</v>
+        <v>0.882268357069955</v>
       </c>
       <c r="FO5">
-        <v>0.8822184365752075</v>
+        <v>0.8830781358959535</v>
       </c>
       <c r="FP5">
-        <v>0.8822196308502569</v>
+        <v>0.8830781358959535</v>
       </c>
       <c r="FQ5">
-        <v>0.8853047683194273</v>
+        <v>0.8860843048687573</v>
       </c>
       <c r="FR5">
-        <v>0.8894387404441204</v>
+        <v>0.8901648296379432</v>
       </c>
       <c r="FS5">
-        <v>0.8901666859432509</v>
+        <v>0.890756449431939</v>
       </c>
       <c r="FT5">
-        <v>0.8978694626166038</v>
+        <v>0.8984926179508983</v>
       </c>
       <c r="FU5">
-        <v>0.9102891470899296</v>
+        <v>0.9110604701000816</v>
       </c>
       <c r="FV5">
-        <v>0.9213759606197777</v>
+        <v>0.9222630187513167</v>
       </c>
       <c r="FW5">
-        <v>0.9255796764415132</v>
+        <v>0.9264149842807635</v>
       </c>
       <c r="FX5">
-        <v>0.9285566913152686</v>
+        <v>0.9293103997267914</v>
       </c>
       <c r="FY5">
-        <v>0.9285567008860732</v>
+        <v>0.9293103997267914</v>
       </c>
       <c r="FZ5">
-        <v>0.9285571561708339</v>
+        <v>0.9293103997267914</v>
       </c>
       <c r="GA5">
-        <v>0.9285580271375969</v>
+        <v>0.9293103997267914</v>
       </c>
       <c r="GB5">
-        <v>0.9311081077294572</v>
+        <v>0.9317684923612464</v>
       </c>
       <c r="GC5">
-        <v>0.9318287458988975</v>
+        <v>0.9323526270173633</v>
       </c>
       <c r="GD5">
-        <v>0.9319143983302653</v>
+        <v>0.9323526270173633</v>
       </c>
       <c r="GE5">
-        <v>0.9322948180341332</v>
+        <v>0.9325882647215542</v>
       </c>
       <c r="GF5">
-        <v>0.9331297160987282</v>
+        <v>0.9332894395422071</v>
       </c>
       <c r="GG5">
-        <v>0.9385393882693235</v>
+        <v>0.9386767057806447</v>
       </c>
       <c r="GH5">
-        <v>0.9577717424537484</v>
+        <v>0.9582229993404127</v>
       </c>
       <c r="GI5">
-        <v>0.9777395756069843</v>
+        <v>0.9785226681715816</v>
       </c>
       <c r="GJ5">
-        <v>0.987994591172106</v>
+        <v>0.9888731788394061</v>
       </c>
       <c r="GK5">
-        <v>0.9922653284909994</v>
+        <v>0.9930937966903362</v>
       </c>
       <c r="GL5">
-        <v>0.9935818611351699</v>
+        <v>0.9942883256346162</v>
       </c>
       <c r="GM5">
-        <v>0.9942280794077661</v>
+        <v>0.994796229545382</v>
       </c>
       <c r="GN5">
-        <v>0.9943992864405059</v>
+        <v>0.9948175638370003</v>
       </c>
       <c r="GO5">
-        <v>0.9949923867153546</v>
+        <v>0.9952710572375186</v>
       </c>
       <c r="GP5">
-        <v>0.9950085995416671</v>
+        <v>0.9952710572375186</v>
       </c>
       <c r="GQ5">
-        <v>0.9960818942961526</v>
+        <v>0.9962164296199831</v>
       </c>
       <c r="GR5">
-        <v>0.996155928163013</v>
+        <v>0.9962164296199831</v>
       </c>
       <c r="GS5">
         <v>0.9999999999999998</v>
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>8.956044363181372E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.244415149936429E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>7.329406436406405E-05</v>
+        <v>5.198169904015175E-05</v>
       </c>
       <c r="E6">
-        <v>9.277516424164771E-05</v>
+        <v>6.252456824471955E-05</v>
       </c>
       <c r="F6">
-        <v>9.693802234286296E-05</v>
+        <v>6.252456824471955E-05</v>
       </c>
       <c r="G6">
-        <v>0.000171936189571168</v>
+        <v>0.000128678467614298</v>
       </c>
       <c r="H6">
-        <v>0.000587927259664286</v>
+        <v>0.0005364024014288468</v>
       </c>
       <c r="I6">
-        <v>0.001337745501931585</v>
+        <v>0.001278518510975592</v>
       </c>
       <c r="J6">
-        <v>0.002043481469950246</v>
+        <v>0.001976477736883355</v>
       </c>
       <c r="K6">
-        <v>0.002927210695123853</v>
+        <v>0.002852731474103838</v>
       </c>
       <c r="L6">
-        <v>0.003723114731832891</v>
+        <v>0.003641011378447007</v>
       </c>
       <c r="M6">
-        <v>0.004097223607889413</v>
+        <v>0.004006782232477422</v>
       </c>
       <c r="N6">
-        <v>0.00424036442168529</v>
+        <v>0.004141194110062121</v>
       </c>
       <c r="O6">
-        <v>0.004482240384997237</v>
+        <v>0.004374508246719653</v>
       </c>
       <c r="P6">
-        <v>0.004603348686669625</v>
+        <v>0.004486850322083533</v>
       </c>
       <c r="Q6">
-        <v>0.004674500353527206</v>
+        <v>0.004549151210868191</v>
       </c>
       <c r="R6">
-        <v>0.004728982188778152</v>
+        <v>0.004594754054302833</v>
       </c>
       <c r="S6">
-        <v>0.004735422031398822</v>
+        <v>0.004594754054302833</v>
       </c>
       <c r="T6">
-        <v>0.004743654733692288</v>
+        <v>0.004594754054302833</v>
       </c>
       <c r="U6">
-        <v>0.004743654745486533</v>
+        <v>0.004594754054302833</v>
       </c>
       <c r="V6">
-        <v>0.004990499229277343</v>
+        <v>0.004833045120676052</v>
       </c>
       <c r="W6">
-        <v>0.005550174683218727</v>
+        <v>0.005384696624618691</v>
       </c>
       <c r="X6">
-        <v>0.006123945738518642</v>
+        <v>0.005950467586770303</v>
       </c>
       <c r="Y6">
-        <v>0.006577167382200033</v>
+        <v>0.006395485107038158</v>
       </c>
       <c r="Z6">
-        <v>0.006655152434716214</v>
+        <v>0.006464630947008527</v>
       </c>
       <c r="AA6">
-        <v>0.006741507893039132</v>
+        <v>0.006542161359724269</v>
       </c>
       <c r="AB6">
-        <v>0.006981332806153399</v>
+        <v>0.006773420974775093</v>
       </c>
       <c r="AC6">
-        <v>0.007128301660318221</v>
+        <v>0.00691166737169932</v>
       </c>
       <c r="AD6">
-        <v>0.00714467686689646</v>
+        <v>0.006919099090870187</v>
       </c>
       <c r="AE6">
-        <v>0.007175617629878523</v>
+        <v>0.006941121018695739</v>
       </c>
       <c r="AF6">
-        <v>0.007177097068221111</v>
+        <v>0.006941121018695739</v>
       </c>
       <c r="AG6">
-        <v>0.00718512716049505</v>
+        <v>0.006941121018695739</v>
       </c>
       <c r="AH6">
-        <v>0.007192957167249704</v>
+        <v>0.006941121018695739</v>
       </c>
       <c r="AI6">
-        <v>0.007194725457620132</v>
+        <v>0.006941121018695739</v>
       </c>
       <c r="AJ6">
-        <v>0.007233127671321328</v>
+        <v>0.006970617025769663</v>
       </c>
       <c r="AK6">
-        <v>0.007393175496746699</v>
+        <v>0.007121964530155183</v>
       </c>
       <c r="AL6">
-        <v>0.007646605121172184</v>
+        <v>0.00736685188253469</v>
       </c>
       <c r="AM6">
-        <v>0.007987145003993334</v>
+        <v>0.007698996927701175</v>
       </c>
       <c r="AN6">
-        <v>0.008120813516876274</v>
+        <v>0.007823920472473305</v>
       </c>
       <c r="AO6">
-        <v>0.008185525068113157</v>
+        <v>0.007879770345720953</v>
       </c>
       <c r="AP6">
-        <v>0.008249098504240349</v>
+        <v>0.007934480177595441</v>
       </c>
       <c r="AQ6">
-        <v>0.008284621373664034</v>
+        <v>0.007961091967092443</v>
       </c>
       <c r="AR6">
-        <v>0.008329276987967931</v>
+        <v>0.007996851958669613</v>
       </c>
       <c r="AS6">
-        <v>0.00867464162125409</v>
+        <v>0.008333829920206721</v>
       </c>
       <c r="AT6">
-        <v>0.008900581643030134</v>
+        <v>0.008551181143696265</v>
       </c>
       <c r="AU6">
-        <v>0.0089334730492002</v>
+        <v>0.008575157016179662</v>
       </c>
       <c r="AV6">
-        <v>0.008943870691202322</v>
+        <v>0.008576601053727224</v>
       </c>
       <c r="AW6">
-        <v>0.008956770628445616</v>
+        <v>0.008580551621658666</v>
       </c>
       <c r="AX6">
-        <v>0.008963888584131642</v>
+        <v>0.008580551621658666</v>
       </c>
       <c r="AY6">
-        <v>0.008964735470613265</v>
+        <v>0.008580551621658666</v>
       </c>
       <c r="AZ6">
-        <v>0.008972928803402936</v>
+        <v>0.008580551621658666</v>
       </c>
       <c r="BA6">
-        <v>0.008975511628751869</v>
+        <v>0.008580551621658666</v>
       </c>
       <c r="BB6">
-        <v>0.008999931726105472</v>
+        <v>0.008596041847608298</v>
       </c>
       <c r="BC6">
-        <v>0.009002950223596394</v>
+        <v>0.008596041847608298</v>
       </c>
       <c r="BD6">
-        <v>0.009123387000204061</v>
+        <v>0.008707711261349135</v>
       </c>
       <c r="BE6">
-        <v>0.009284160735699395</v>
+        <v>0.008859785904409737</v>
       </c>
       <c r="BF6">
-        <v>0.009554615441765753</v>
+        <v>0.009121727153435318</v>
       </c>
       <c r="BG6">
-        <v>0.009784280293900795</v>
+        <v>0.009342809511571171</v>
       </c>
       <c r="BH6">
-        <v>0.00980579823497469</v>
+        <v>0.009355392669332297</v>
       </c>
       <c r="BI6">
-        <v>0.009857761009982849</v>
+        <v>0.009398472189006624</v>
       </c>
       <c r="BJ6">
-        <v>0.01004378016791133</v>
+        <v>0.009575834982458693</v>
       </c>
       <c r="BK6">
-        <v>0.01011263715954775</v>
+        <v>0.009635837312277028</v>
       </c>
       <c r="BL6">
-        <v>0.01012322044056777</v>
+        <v>0.009637467303037115</v>
       </c>
       <c r="BM6">
-        <v>0.01014328922850199</v>
+        <v>0.009648598854962241</v>
       </c>
       <c r="BN6">
-        <v>0.01015286374842478</v>
+        <v>0.009649218377293715</v>
       </c>
       <c r="BO6">
-        <v>0.01015367996730345</v>
+        <v>0.009649218377293715</v>
       </c>
       <c r="BP6">
-        <v>0.01015684757660874</v>
+        <v>0.009649218377293715</v>
       </c>
       <c r="BQ6">
-        <v>0.01019554389533828</v>
+        <v>0.009679008987169686</v>
       </c>
       <c r="BR6">
-        <v>0.01020556318280394</v>
+        <v>0.009680074029814517</v>
       </c>
       <c r="BS6">
-        <v>0.01028229835019966</v>
+        <v>0.009747967869229855</v>
       </c>
       <c r="BT6">
-        <v>0.0102830811106451</v>
+        <v>0.009747967869229855</v>
       </c>
       <c r="BU6">
-        <v>0.01031126426236138</v>
+        <v>0.009767227518523731</v>
       </c>
       <c r="BV6">
-        <v>0.01040958003783704</v>
+        <v>0.009856738491267289</v>
       </c>
       <c r="BW6">
-        <v>0.01071937796769528</v>
+        <v>0.01015808955261703</v>
       </c>
       <c r="BX6">
-        <v>0.01092310776733071</v>
+        <v>0.01035319296309385</v>
       </c>
       <c r="BY6">
-        <v>0.01096697553155868</v>
+        <v>0.01038816377115631</v>
       </c>
       <c r="BZ6">
-        <v>0.01098236728504213</v>
+        <v>0.01039461037273488</v>
       </c>
       <c r="CA6">
-        <v>0.01107881329433757</v>
+        <v>0.01048224841471299</v>
       </c>
       <c r="CB6">
-        <v>0.01119553112558681</v>
+        <v>0.01059019258876846</v>
       </c>
       <c r="CC6">
-        <v>0.01132111096769016</v>
+        <v>0.01070701377265981</v>
       </c>
       <c r="CD6">
-        <v>0.01153614943841552</v>
+        <v>0.0109134449941886</v>
       </c>
       <c r="CE6">
-        <v>0.011625519641029</v>
+        <v>0.01099399525365927</v>
       </c>
       <c r="CF6">
-        <v>0.01170299934849647</v>
+        <v>0.01106263489328282</v>
       </c>
       <c r="CG6">
-        <v>0.0117398040380437</v>
+        <v>0.01109053067238802</v>
       </c>
       <c r="CH6">
-        <v>0.01174783413031764</v>
+        <v>0.01109053067238802</v>
       </c>
       <c r="CI6">
-        <v>0.01176935207139153</v>
+        <v>0.01110311383014915</v>
       </c>
       <c r="CJ6">
-        <v>0.01188901034292417</v>
+        <v>0.01121400342119262</v>
       </c>
       <c r="CK6">
-        <v>0.01195572242935386</v>
+        <v>0.0112718572155453</v>
       </c>
       <c r="CL6">
-        <v>0.01196926128165873</v>
+        <v>0.01127644777990411</v>
       </c>
       <c r="CM6">
-        <v>0.01197879334157743</v>
+        <v>0.0112770247703678</v>
       </c>
       <c r="CN6">
-        <v>0.01920505073804236</v>
+        <v>0.018506541428122</v>
       </c>
       <c r="CO6">
-        <v>0.1357946379749184</v>
+        <v>0.1352844857122875</v>
       </c>
       <c r="CP6">
-        <v>0.2733066012282879</v>
+        <v>0.2730202172013602</v>
       </c>
       <c r="CQ6">
-        <v>0.314437543192478</v>
+        <v>0.3142118022140531</v>
       </c>
       <c r="CR6">
-        <v>0.3149394007908469</v>
+        <v>0.3147055380055175</v>
       </c>
       <c r="CS6">
-        <v>0.3599023251243626</v>
+        <v>0.3597355910299683</v>
       </c>
       <c r="CT6">
-        <v>0.3624517763700781</v>
+        <v>0.3622803860275851</v>
       </c>
       <c r="CU6">
-        <v>0.3744414250256375</v>
+        <v>0.3742813559993949</v>
       </c>
       <c r="CV6">
-        <v>0.3752944460078514</v>
+        <v>0.3751268495198562</v>
       </c>
       <c r="CW6">
-        <v>0.3867634136132277</v>
+        <v>0.386606257187138</v>
       </c>
       <c r="CX6">
-        <v>0.4048144693529841</v>
+        <v>0.404678893194047</v>
       </c>
       <c r="CY6">
-        <v>0.4099923068520228</v>
+        <v>0.4098565229971383</v>
       </c>
       <c r="CZ6">
-        <v>0.4106601836563926</v>
+        <v>0.4105165589826415</v>
       </c>
       <c r="DA6">
-        <v>0.4506775425132559</v>
+        <v>0.4505926761450321</v>
       </c>
       <c r="DB6">
-        <v>0.4514150889443405</v>
+        <v>0.4513224996733163</v>
       </c>
       <c r="DC6">
-        <v>0.5012703707493804</v>
+        <v>0.5012531904999801</v>
       </c>
       <c r="DD6">
-        <v>0.5041174390237801</v>
+        <v>0.5040961062440553</v>
       </c>
       <c r="DE6">
-        <v>0.5090328224975236</v>
+        <v>0.5090108378175731</v>
       </c>
       <c r="DF6">
-        <v>0.515768390646696</v>
+        <v>0.5157488347349122</v>
       </c>
       <c r="DG6">
-        <v>0.5183678092972274</v>
+        <v>0.5183436817073375</v>
       </c>
       <c r="DH6">
-        <v>0.5231946241624346</v>
+        <v>0.5231696947696655</v>
       </c>
       <c r="DI6">
-        <v>0.5352268933221017</v>
+        <v>0.5352133573809228</v>
       </c>
       <c r="DJ6">
-        <v>0.5376717009577316</v>
+        <v>0.5376533316588088</v>
       </c>
       <c r="DK6">
-        <v>0.541651710741324</v>
+        <v>0.5416311064192093</v>
       </c>
       <c r="DL6">
-        <v>0.5419635965813835</v>
+        <v>0.5419345489245549</v>
       </c>
       <c r="DM6">
-        <v>0.5477450561385991</v>
+        <v>0.5477168224180898</v>
       </c>
       <c r="DN6">
-        <v>0.557838585111411</v>
+        <v>0.5578184635185166</v>
       </c>
       <c r="DO6">
-        <v>0.5601956833385876</v>
+        <v>0.5601705799394945</v>
       </c>
       <c r="DP6">
-        <v>0.5611512234806824</v>
+        <v>0.5611187661338429</v>
       </c>
       <c r="DQ6">
-        <v>0.563537156410638</v>
+        <v>0.5634997660604267</v>
       </c>
       <c r="DR6">
-        <v>0.5635500070553765</v>
+        <v>0.5635036672524257</v>
       </c>
       <c r="DS6">
-        <v>0.5640625325047736</v>
+        <v>0.5640080889502904</v>
       </c>
       <c r="DT6">
-        <v>0.5642318249510899</v>
+        <v>0.5641686967221174</v>
       </c>
       <c r="DU6">
-        <v>0.5644225837394752</v>
+        <v>0.564350807167866</v>
       </c>
       <c r="DV6">
-        <v>0.5771146669627351</v>
+        <v>0.5770554005801318</v>
       </c>
       <c r="DW6">
-        <v>0.5777825437671048</v>
+        <v>0.5777154365656351</v>
       </c>
       <c r="DX6">
-        <v>0.5877834847309931</v>
+        <v>0.5877243329516366</v>
       </c>
       <c r="DY6">
-        <v>0.5912485250649528</v>
+        <v>0.5911862666749618</v>
       </c>
       <c r="DZ6">
-        <v>0.6001595699237972</v>
+        <v>0.6001034223032711</v>
       </c>
       <c r="EA6">
-        <v>0.603617057857029</v>
+        <v>0.6035577908434059</v>
       </c>
       <c r="EB6">
-        <v>0.6036202254663343</v>
+        <v>0.6035577908434059</v>
       </c>
       <c r="EC6">
-        <v>0.6039777645107939</v>
+        <v>0.6039069638213462</v>
       </c>
       <c r="ED6">
-        <v>0.6114525992312166</v>
+        <v>0.6113854785209751</v>
       </c>
       <c r="EE6">
-        <v>0.6151991855923117</v>
+        <v>0.6151294347889882</v>
       </c>
       <c r="EF6">
-        <v>0.6152408846693306</v>
+        <v>0.6151622332393316</v>
       </c>
       <c r="EG6">
-        <v>0.6158056143237591</v>
+        <v>0.6157189474980119</v>
       </c>
       <c r="EH6">
-        <v>0.6158057040189477</v>
+        <v>0.6157189474980119</v>
       </c>
       <c r="EI6">
-        <v>0.635987755964089</v>
+        <v>0.6359261864282081</v>
       </c>
       <c r="EJ6">
-        <v>0.6557980528734005</v>
+        <v>0.6557610411259859</v>
       </c>
       <c r="EK6">
-        <v>0.6695049161944647</v>
+        <v>0.6694821321546214</v>
       </c>
       <c r="EL6">
-        <v>0.6698513467778536</v>
+        <v>0.6698201778703852</v>
       </c>
       <c r="EM6">
-        <v>0.692501666960886</v>
+        <v>0.6924998625903699</v>
       </c>
       <c r="EN6">
-        <v>0.7029407529670025</v>
+        <v>0.7029476455804869</v>
       </c>
       <c r="EO6">
-        <v>0.7079529184500738</v>
+        <v>0.7079593229671932</v>
       </c>
       <c r="EP6">
-        <v>0.7150449101335983</v>
+        <v>0.7150543466668577</v>
       </c>
       <c r="EQ6">
-        <v>0.727627829346337</v>
+        <v>0.7276495913081649</v>
       </c>
       <c r="ER6">
-        <v>0.7523167047258448</v>
+        <v>0.7523712814858238</v>
       </c>
       <c r="ES6">
-        <v>0.7556472545468423</v>
+        <v>0.7556984970705628</v>
       </c>
       <c r="ET6">
-        <v>0.7561660079668396</v>
+        <v>0.7562091572798879</v>
       </c>
       <c r="EU6">
-        <v>0.7596464010022791</v>
+        <v>0.7596864696891892</v>
       </c>
       <c r="EV6">
-        <v>0.776682467644211</v>
+        <v>0.7767423987259751</v>
       </c>
       <c r="EW6">
-        <v>0.8051307903860534</v>
+        <v>0.8052298991426693</v>
       </c>
       <c r="EX6">
-        <v>0.8198524078049193</v>
+        <v>0.8199674617436669</v>
       </c>
       <c r="EY6">
-        <v>0.8302310848052137</v>
+        <v>0.8303547334855259</v>
       </c>
       <c r="EZ6">
-        <v>0.8309682581762623</v>
+        <v>0.8310841833223689</v>
       </c>
       <c r="FA6">
-        <v>0.8361035766712031</v>
+        <v>0.8362192221578116</v>
       </c>
       <c r="FB6">
-        <v>0.8365052019099116</v>
+        <v>0.836612555946026</v>
       </c>
       <c r="FC6">
-        <v>0.8375288457085701</v>
+        <v>0.8376289610625951</v>
       </c>
       <c r="FD6">
-        <v>0.8448164791109505</v>
+        <v>0.8449199576053513</v>
       </c>
       <c r="FE6">
-        <v>0.858215688402363</v>
+        <v>0.8583328738989047</v>
       </c>
       <c r="FF6">
-        <v>0.8595657506324816</v>
+        <v>0.8596762499111745</v>
       </c>
       <c r="FG6">
-        <v>0.8733976789655995</v>
+        <v>0.8735226176247972</v>
       </c>
       <c r="FH6">
-        <v>0.8796242489657148</v>
+        <v>0.8797507549120819</v>
       </c>
       <c r="FI6">
-        <v>0.8918327321423655</v>
+        <v>0.8919709297831108</v>
       </c>
       <c r="FJ6">
-        <v>0.9001438589433899</v>
+        <v>0.900287151990366</v>
       </c>
       <c r="FK6">
-        <v>0.9044547126588689</v>
+        <v>0.9045963306370675</v>
       </c>
       <c r="FL6">
-        <v>0.9071050956143122</v>
+        <v>0.9072422281716539</v>
       </c>
       <c r="FM6">
-        <v>0.9071138809521589</v>
+        <v>0.9072422281716539</v>
       </c>
       <c r="FN6">
-        <v>0.916156018823638</v>
+        <v>0.9162906986879417</v>
       </c>
       <c r="FO6">
-        <v>0.9229079637743888</v>
+        <v>0.9230451001246484</v>
       </c>
       <c r="FP6">
-        <v>0.9239045093704356</v>
+        <v>0.9240343611748111</v>
       </c>
       <c r="FQ6">
-        <v>0.923946119794446</v>
+        <v>0.9240670708221004</v>
       </c>
       <c r="FR6">
-        <v>0.9268256070719703</v>
+        <v>0.9269424604385668</v>
       </c>
       <c r="FS6">
-        <v>0.9277694690029394</v>
+        <v>0.92787894865638</v>
       </c>
       <c r="FT6">
-        <v>0.9277769064111563</v>
+        <v>0.92787894865638</v>
       </c>
       <c r="FU6">
-        <v>0.9351610591228391</v>
+        <v>0.9352666278676788</v>
       </c>
       <c r="FV6">
-        <v>0.9426760423471313</v>
+        <v>0.9427853590226486</v>
       </c>
       <c r="FW6">
-        <v>0.9477403230352255</v>
+        <v>0.9478492398195292</v>
       </c>
       <c r="FX6">
-        <v>0.9484235897010785</v>
+        <v>0.9485246917139055</v>
       </c>
       <c r="FY6">
-        <v>0.9493038019859131</v>
+        <v>0.9493974225583542</v>
       </c>
       <c r="FZ6">
-        <v>0.9496613410303727</v>
+        <v>0.9497465955362946</v>
       </c>
       <c r="GA6">
-        <v>0.9497201756120431</v>
+        <v>0.949796558493186</v>
       </c>
       <c r="GB6">
-        <v>0.950001249169133</v>
+        <v>0.9500691365656744</v>
       </c>
       <c r="GC6">
-        <v>0.9544034278934139</v>
+        <v>0.9544697947890476</v>
       </c>
       <c r="GD6">
-        <v>0.9549100721422442</v>
+        <v>0.9549683253323946</v>
       </c>
       <c r="GE6">
-        <v>0.9549705531050734</v>
+        <v>0.9550199374569501</v>
       </c>
       <c r="GF6">
-        <v>0.9561094194148371</v>
+        <v>0.9561517600990934</v>
       </c>
       <c r="GG6">
-        <v>0.9572016159201027</v>
+        <v>0.9572368339479451</v>
       </c>
       <c r="GH6">
-        <v>0.9641121205861354</v>
+        <v>0.9641500634627597</v>
       </c>
       <c r="GI6">
-        <v>0.9803237431486076</v>
+        <v>0.980380153045841</v>
       </c>
       <c r="GJ6">
-        <v>0.9908574191638407</v>
+        <v>0.9909226861389679</v>
       </c>
       <c r="GK6">
-        <v>0.9951038555731112</v>
+        <v>0.9951673384529638</v>
       </c>
       <c r="GL6">
-        <v>0.996478394705589</v>
+        <v>0.9965352327948284</v>
       </c>
       <c r="GM6">
-        <v>0.9966782285548489</v>
+        <v>0.9967264336610212</v>
       </c>
       <c r="GN6">
-        <v>0.9972795545128046</v>
+        <v>0.9973198061625895</v>
       </c>
       <c r="GO6">
-        <v>0.9973268467723626</v>
+        <v>0.9973582072619513</v>
       </c>
       <c r="GP6">
-        <v>0.9992139634542424</v>
+        <v>0.9992395466923619</v>
       </c>
       <c r="GQ6">
-        <v>0.9993294054053686</v>
+        <v>0.9993462128268632</v>
       </c>
       <c r="GR6">
-        <v>0.9994213508942303</v>
+        <v>0.9994293427312623</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>103</v>
       </c>
       <c r="E2">
-        <v>0.006731925240992658</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="F2">
-        <v>0.5033658205401833</v>
+        <v>0.507911871330194</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>106</v>
       </c>
       <c r="E3">
-        <v>0.01651608338647059</v>
+        <v>0.01241884719725219</v>
       </c>
       <c r="F3">
-        <v>0.5059706008207099</v>
+        <v>0.5060612005906501</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>107</v>
       </c>
       <c r="E4">
-        <v>0.06015755477446096</v>
+        <v>0.07287920297246198</v>
       </c>
       <c r="F4">
-        <v>0.511628732688704</v>
+        <v>0.5099932666948634</v>
       </c>
       <c r="G4">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>110</v>
       </c>
       <c r="E5">
-        <v>0.01826365714201592</v>
+        <v>0.01017695752946009</v>
       </c>
       <c r="F5">
-        <v>0.5017669328883789</v>
+        <v>0.5021183832749416</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>106</v>
       </c>
       <c r="E6">
-        <v>0.01195572242935386</v>
+        <v>0.0112770247703678</v>
       </c>
       <c r="F6">
-        <v>0.5012703707493804</v>
+        <v>0.5012531904999801</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>142</v>
       </c>
       <c r="E2">
-        <v>0.006731925240992658</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="F2">
-        <v>0.7129469557224646</v>
+        <v>0.7157428438269899</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>146</v>
       </c>
       <c r="E3">
-        <v>0.01651608338647059</v>
+        <v>0.01241884719725219</v>
       </c>
       <c r="F3">
-        <v>0.7003665233953549</v>
+        <v>0.7002591865281222</v>
       </c>
       <c r="G3">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4">
-        <v>0.06015755477446096</v>
+        <v>0.07287920297246198</v>
       </c>
       <c r="F4">
-        <v>0.7046018127441742</v>
+        <v>0.7016234196502873</v>
       </c>
       <c r="G4">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>146</v>
       </c>
       <c r="E5">
-        <v>0.01826365714201592</v>
+        <v>0.01017695752946009</v>
       </c>
       <c r="F5">
-        <v>0.7186757738704643</v>
+        <v>0.7192529421332192</v>
       </c>
       <c r="G5">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>143</v>
       </c>
       <c r="E6">
-        <v>0.01195572242935386</v>
+        <v>0.0112770247703678</v>
       </c>
       <c r="F6">
-        <v>0.7029407529670025</v>
+        <v>0.7029476455804869</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>152</v>
       </c>
       <c r="E2">
-        <v>0.006731925240992658</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="F2">
-        <v>0.8070230231260366</v>
+        <v>0.8104435287615511</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>156</v>
       </c>
       <c r="E3">
-        <v>0.01651608338647059</v>
+        <v>0.01241884719725219</v>
       </c>
       <c r="F3">
-        <v>0.8074071582501732</v>
+        <v>0.8079181266325401</v>
       </c>
       <c r="G3">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4">
-        <v>0.06015755477446096</v>
+        <v>0.07287920297246198</v>
       </c>
       <c r="F4">
-        <v>0.8025210248438266</v>
+        <v>0.8032828688929573</v>
       </c>
       <c r="G4">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5">
-        <v>0.01826365714201592</v>
+        <v>0.01017695752946009</v>
       </c>
       <c r="F5">
-        <v>0.8019683667383247</v>
+        <v>0.8001675970732888</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>152</v>
       </c>
       <c r="E6">
-        <v>0.01195572242935386</v>
+        <v>0.0112770247703678</v>
       </c>
       <c r="F6">
-        <v>0.8051307903860534</v>
+        <v>0.8052298991426693</v>
       </c>
       <c r="G6">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>164</v>
       </c>
       <c r="E2">
-        <v>0.006731925240992658</v>
+        <v>0.0007068407188146443</v>
       </c>
       <c r="F2">
-        <v>0.9074683199845789</v>
+        <v>0.9113359050247403</v>
       </c>
       <c r="G2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>173</v>
       </c>
       <c r="E3">
-        <v>0.01651608338647059</v>
+        <v>0.01241884719725219</v>
       </c>
       <c r="F3">
-        <v>0.9011560667661775</v>
+        <v>0.9016602860057462</v>
       </c>
       <c r="G3">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>162</v>
       </c>
       <c r="E4">
-        <v>0.06015755477446096</v>
+        <v>0.07287920297246198</v>
       </c>
       <c r="F4">
-        <v>0.9038128767054413</v>
+        <v>0.9106030305881944</v>
       </c>
       <c r="G4">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>176</v>
       </c>
       <c r="E5">
-        <v>0.01826365714201592</v>
+        <v>0.01017695752946009</v>
       </c>
       <c r="F5">
-        <v>0.9102891470899296</v>
+        <v>0.9110604701000816</v>
       </c>
       <c r="G5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>165</v>
       </c>
       <c r="E6">
-        <v>0.01195572242935386</v>
+        <v>0.0112770247703678</v>
       </c>
       <c r="F6">
-        <v>0.9001438589433899</v>
+        <v>0.900287151990366</v>
       </c>
       <c r="G6">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <v>24</v>

--- a/on_trucks/Processed_Stand_Alone/24_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/24_455-55R22.xlsx
@@ -1994,10 +1994,10 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001113520074531394</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0001084447794496275</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2018,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.193557652147075E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5.210883238855729E-06</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2036,16 +2036,16 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001030266119129308</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0002084567830271883</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>3.987265050233739E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>3.273264920323974E-05</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.066921570266573E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>7.513956180318899E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -2264,82 +2264,82 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.2097503057399618</v>
+        <v>0.6878027500447378</v>
       </c>
       <c r="CO2">
-        <v>0.03743614444570946</v>
+        <v>0.02624575607051943</v>
       </c>
       <c r="CP2">
-        <v>0.06723842280134372</v>
+        <v>0.1406641273433741</v>
       </c>
       <c r="CQ2">
         <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.02628734965436638</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.03698282814611598</v>
+        <v>0.02450536186132574</v>
       </c>
       <c r="CT2">
-        <v>0.05654667838463848</v>
+        <v>0.09961585688475744</v>
       </c>
       <c r="CU2">
-        <v>0.002207604360345135</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.0001064870807214857</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.03611307107845187</v>
+        <v>0.02116614779528548</v>
       </c>
       <c r="CX2">
-        <v>0.008552880906756537</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.001524879060181049</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.02445837895278754</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.00951761863023769</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.02339343738710993</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.001497876952993669</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.0004791590463137808</v>
+        <v>0</v>
       </c>
       <c r="DE2">
         <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.001417328045354727</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.01056520640050846</v>
+        <v>0</v>
       </c>
       <c r="DH2">
         <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.001604383227846777</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.005178296851194813</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.001111615131423447</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.002230668743675938</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.002036924062277448</v>
+        <v>0</v>
       </c>
       <c r="DN2">
         <v>0</v>
@@ -2348,205 +2348,205 @@
         <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.007508614368249624</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.0002389271537507323</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.007901280703625954</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.0005107868467945367</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.001374297451848719</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.008782875692917155</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.008875706893545035</v>
+        <v>0</v>
       </c>
       <c r="DW2">
         <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.001298801663804983</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.007530418757996297</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.003716120664656901</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>7.383482299087271E-05</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.004509133966281156</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.00203383965056453</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.007788469736774853</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.005926493139197651</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.007380476851354043</v>
+        <v>0</v>
       </c>
       <c r="EG2">
         <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.01946483818861104</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.009094169796132253</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.003970954752162386</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>1.066921570266573E-05</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.01831071733948313</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.02249703036141485</v>
+        <v>0</v>
       </c>
       <c r="EN2">
         <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.00127064688174693</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.00896278088165956</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.02716131936664872</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.006814731618989905</v>
+        <v>0</v>
       </c>
       <c r="ES2">
         <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.003925581016296322</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.01567446652001945</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.01790982905559058</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.01298132959360966</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.01082008475056467</v>
+        <v>0</v>
       </c>
       <c r="EY2">
         <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.02473006064054327</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.007642496260491879</v>
+        <v>0</v>
       </c>
       <c r="FB2">
         <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.00325991682413873</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.006870435063443973</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.00100276088743561</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.01275287834837083</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.008841613432785415</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.01263825682753096</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.01233387322788389</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.002298041891524901</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.000223896526072598</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.001360081984254866</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.02086008826879251</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.01698010085308344</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.005000608179000315</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.001885314042847923</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
         <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.0003833606116304501</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>8.454687375132153E-05</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.001647607611221009</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.003133827810953531</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.002852093800107452</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.0008637864398221034</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.0002064635510216719</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.0009802042397213963</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.0003317508882824725</v>
+        <v>0</v>
       </c>
       <c r="GA2">
         <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.001105707159224581</v>
+        <v>0</v>
       </c>
       <c r="GC2">
         <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.0003849462584589595</v>
+        <v>0</v>
       </c>
       <c r="GE2">
         <v>0</v>
@@ -2555,43 +2555,43 @@
         <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.0009007548097343989</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.008281959179268356</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.008756290434206259</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.002324808616424008</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.0001177945500818265</v>
+        <v>0</v>
       </c>
       <c r="GL2">
         <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.000545251250322589</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.0009989339740018295</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.003029271039581356</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0006297439101515807</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>8.010082890335459E-05</v>
+        <v>0</v>
       </c>
       <c r="GR2">
         <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.002416759392812201</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,28 +2767,28 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>4.395401775626515E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0002142475640364005</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.000137824989757997</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.322757028820835E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001989600519029473</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>9.492568310631891E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001564952291810036</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.667585136434599E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0001099220123333647</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -2812,19 +2812,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0001707284357120245</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>9.822204147058571E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0001728274705941813</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0003179626580317092</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0001128195224186066</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -2836,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>7.218185600192544E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>3.655019357298176E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>4.461897960524063E-06</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>8.962878340073251E-05</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0002192858019061475</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0002940418937879498</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0002572850549011731</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0002441935139006433</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>5.713113690231837E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -2887,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>4.480899427455293E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0001115452950989127</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2908,10 +2908,10 @@
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0002541134415389359</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0003147647729837332</v>
+        <v>0</v>
       </c>
       <c r="AY3">
         <v>0</v>
@@ -2920,34 +2920,34 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0001996298686542796</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0001847542597445352</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0006424767797734874</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.000674788324041085</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0001411444344419488</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0001753585927973273</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0001201677371891824</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>7.218185600192544E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>3.655019357298176E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1.989397616267975E-06</v>
+        <v>0</v>
       </c>
       <c r="BK3">
         <v>0</v>
@@ -2959,28 +2959,28 @@
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>1.209943599046821E-06</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>3.099747964768531E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.0001589379701164989</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0003160902594162099</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0004659616614602213</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0002741574636111582</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0003520666836198127</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0002686515634433516</v>
+        <v>0</v>
       </c>
       <c r="BV3">
         <v>0</v>
@@ -2989,10 +2989,10 @@
         <v>0</v>
       </c>
       <c r="BX3">
-        <v>2.239258235139438E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>2.940274382934298E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
         <v>0</v>
@@ -3004,346 +3004,346 @@
         <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.0001059769010828132</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0003749531241129564</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0006979867584988542</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0006607470484551454</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0005848820548079763</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.0003766723319019523</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.0004878905303562355</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.0003893823975087919</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0004878905303562355</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0001947699910589974</v>
+        <v>0</v>
       </c>
       <c r="CM3">
         <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.01210617020317933</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.1380975963629432</v>
+        <v>0.4638612207567321</v>
       </c>
       <c r="CP3">
-        <v>0.1227395308994673</v>
+        <v>0.3977912797196512</v>
       </c>
       <c r="CQ3">
-        <v>0.03923894179003328</v>
+        <v>0.03857422779720113</v>
       </c>
       <c r="CR3">
-        <v>0.001074626260905906</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.05346475928303679</v>
+        <v>0.09977327172641565</v>
       </c>
       <c r="CT3">
-        <v>0.01162148136514192</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.02712723051114387</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.003028244935553349</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.007142735851875375</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.0193237551343446</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>7.282120447414664E-05</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.003119286438911202</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.02509947906513384</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.009477482260260996</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.0209082118269928</v>
+        <v>0</v>
       </c>
       <c r="DD3">
         <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.0005079677409090561</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.004749573167113742</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.0002094849563969</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.00386499398029959</v>
+        <v>0</v>
       </c>
       <c r="DI3">
         <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.005132062113945569</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.0004005044822957777</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.001343750962443248</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.001070022244046791</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.002366374004000111</v>
+        <v>0</v>
       </c>
       <c r="DO3">
         <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.000195650223990796</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.002643128011165796</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.001292974710705161</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.000929776138449508</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0002894028379022429</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.0008173177809238964</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.00911160808164291</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.001067732623151886</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.01107017135451039</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.004605690384710372</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.004530428375801045</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.0006504870248450419</v>
+        <v>0</v>
       </c>
       <c r="EB3">
         <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.0004404859127440161</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.01232251065889193</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.007831962100362007</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.002096911855906533</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.003032802941569465</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.001164361865304445</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.02216238954263965</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.01386793802194923</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.01019062706851583</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.0002088027521109141</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.01678334784195872</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.006834251958395783</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.004246176825926638</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.01032937150154491</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.02583694389040238</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.03013792625893581</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.005409311420251932</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.0007215434000097114</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.003574410731692142</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.01358727693579244</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.01981928685730631</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.01345358863935666</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.01155662225615056</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
         <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.009398973604922388</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>5.310167008007178E-05</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.003830830069829676</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.01156251164405442</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.01573669621910138</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.001137219613967093</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.01077677891641171</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.00499516792354144</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.01025988299388873</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.00624301100789603</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.002333510430739258</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.0009706617780292705</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.0002955949771530367</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.01511135425647093</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.005091763390701554</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.00040315253271378</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
         <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.004940921948627575</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.001951539232294584</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.0006733039131232082</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.01147583227198106</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.008944945684800337</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.006910471599575879</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.002137103894668428</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.0008152994419817685</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.0007311360034772278</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>5.473334603236469E-05</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.0003306115443857699</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.003835945160975641</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.0004748041870641236</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0002997529011927997</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.001624488194017124</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.001550126986403258</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.008987741836153239</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.02007813678142696</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.01544964720997264</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.006429796525011689</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.001670818281480538</v>
+        <v>0</v>
       </c>
       <c r="GM3">
         <v>0</v>
@@ -3352,19 +3352,19 @@
         <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.0002288003689614831</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.002492532398452981</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>1.626921667054244E-05</v>
+        <v>0</v>
       </c>
       <c r="GR3">
         <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.001175877014150193</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3543,16 +3543,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.001477093714105726</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0004258475060008026</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.00167721916478503</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3561,40 +3561,40 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001273559475061623</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.00296341924309331</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0001698868879315457</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0016984261102987</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.002374995906578292</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001585651974279704</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001526529287924385</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -3603,190 +3603,190 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001284311196130839</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001687809772345953</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001563712309717876</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001361707997600225</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0004684428560023752</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.006539434635569474</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.006828050812141919</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.00497364920538334</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002011841824772217</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.001396088360891986</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.001898068763288397</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.00756224517799723</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.01160286926153628</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.004596259920010024</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>6.69411101865993E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.00386514049882814</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.009060868314337436</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.01167486116078409</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.01448971771387795</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.01156236723633174</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.002725660434480087</v>
+        <v>0</v>
       </c>
       <c r="AT4">
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>2.29106557236296E-05</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.002948414624813625</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.004451518866312028</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0008081447821890597</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.002208741205438779</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.002320531072545256</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.01048098292257422</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.007279368724441227</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.003372012219755264</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.00122967862599921</v>
+        <v>0</v>
       </c>
       <c r="BF4">
         <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.002198452414288268</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.00296341924309331</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.001290298343463587</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
         <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0007068117680328485</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.00137760644843636</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0008359047265214755</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.003144271110358451</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.003692551018648633</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.005032582767930407</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.002229436582993505</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0004266902034747685</v>
+        <v>0</v>
       </c>
       <c r="BS4">
         <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0001956967508381211</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.0007019226678853219</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.002247268070227986</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.001777519271988482</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.002169081226305875</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.001815546294060588</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.001628573199150878</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.006142857317620631</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.01088626264987898</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.01314831693404391</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.01166546685359235</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.003037242885677981</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0003993882492600962</v>
+        <v>0</v>
       </c>
       <c r="CG4">
         <v>0</v>
@@ -3795,82 +3795,82 @@
         <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.001038595942390451</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.0002760301825540034</v>
+        <v>0</v>
       </c>
       <c r="CK4">
         <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.0006601049185520734</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.006373756208353152</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.01507214684620171</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.02050485309033931</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.03192333329399076</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.03371112434467238</v>
+        <v>1</v>
       </c>
       <c r="CR4">
-        <v>0.02913823659893298</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.01752848513069979</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.00286891151392754</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>2.228010913009107E-05</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.00423826722452317</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.007777771842404866</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.006736074215275563</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.004630788585897692</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.005224195041629092</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.01051080574950169</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.0194728287877308</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.02753301842045819</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.02752351011785964</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.01667366505947259</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.01777717968153894</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.007764866476683361</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.001567575451204107</v>
+        <v>0</v>
       </c>
       <c r="DI4">
         <v>0</v>
@@ -3882,85 +3882,85 @@
         <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.0009988778798836</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.005174885405593196</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.0115747797076276</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.02006282884357259</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.01968999655172829</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.01566936498263569</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.01228037761999861</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.01285797931826157</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.01134197720216839</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.01012988141227965</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.006666190362517321</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.003727519923940699</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.001123020614973239</v>
+        <v>0</v>
       </c>
       <c r="DY4">
         <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.001938516179264727</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.006925594076140475</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.007685076205939168</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.007075516709629757</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.01024731948037596</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.01019735366506505</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.009681182463026525</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.01531403858543061</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.01448971771387795</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.01591583662304203</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.009326337560706404</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.002009001384935658</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0004570606100530315</v>
+        <v>0</v>
       </c>
       <c r="EM4">
         <v>0</v>
@@ -3969,106 +3969,106 @@
         <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.002294993387243323</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.004651091059283611</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.005204848826855733</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.006315063881800307</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.005265012996961084</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.008219859058062972</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.00646581879032636</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.008257002018613499</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.01139454645543675</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.008788040393041208</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.006179868477767472</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.002262117111919138</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>5.04609896446842E-06</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.0004737448583700753</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.003844548802810085</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.004373969310997516</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.006449295753227958</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.01229327972870849</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.01152809913137392</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.005807229543846536</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.0048671586047548</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.003256441504989567</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.002640870976595505</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.001307115922979778</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.002132593793628037</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.0001912396064287635</v>
+        <v>0</v>
       </c>
       <c r="FO4">
         <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.0005501487489894357</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.003545103931127062</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.008478831651914275</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.01164662721269345</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.007941195657608582</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.004273444795693227</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.0009478098918394131</v>
+        <v>0</v>
       </c>
       <c r="FW4">
         <v>0</v>
@@ -4089,55 +4089,55 @@
         <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.0008030326853124009</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.00200049005359496</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.005224195041629092</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.007764866476683361</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.005557360623183131</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.000910380314266049</v>
+        <v>0</v>
       </c>
       <c r="GI4">
         <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0001604316094822235</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.00171170635805803</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.0009868459361123737</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.001645575994061373</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.001088978546622071</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.001184048110292836</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0009381325503376234</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0005003669548352346</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.0006552931181470699</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.0006794531960994601</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,7 +4313,7 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>4.793832484196968E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4325,40 +4325,40 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0002235012656412164</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0003713486696836827</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0005841752606696106</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0005324576804086167</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0005396374954064891</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0002831374302099335</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0003776320295787998</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0004707622176435961</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0003510461270458396</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.023058059768765E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>8.251791576434562E-05</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>6.173756284354718E-07</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -4370,37 +4370,37 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>5.758497908827565E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.000149315600746933</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0001330938156476637</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0003322058911988006</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.000185381334684622</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0001704434278438325</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0001484506950947523</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>3.714004394639437E-05</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0001144602389452164</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>2.397646591392631E-05</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -4433,13 +4433,13 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>6.784881433978298E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0002327297462608154</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0001044023150753488</v>
+        <v>0</v>
       </c>
       <c r="AS5">
         <v>0</v>
@@ -4505,31 +4505,31 @@
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>1.57852144552794E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>5.184128893456192E-05</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>8.671708617585519E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>1.128239082531747E-05</v>
+        <v>0</v>
       </c>
       <c r="BR5">
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>2.965672937999135E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0001169085787430859</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0001280637269466379</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0001615537350580984</v>
+        <v>0</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -4544,64 +4544,64 @@
         <v>0</v>
       </c>
       <c r="CA5">
-        <v>7.83329528489227E-05</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0004031389409021089</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.0005977386460414867</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0005600721872202615</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0002748647955094634</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.0002831374302099335</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0003839527468915291</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0004316462254617181</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.0003295030764007283</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.0003399397575707408</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0001280887821271916</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>6.269749585059156E-05</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0010698651827992</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1667103293324589</v>
+        <v>0.5778951130843856</v>
       </c>
       <c r="CO5">
-        <v>0.04781664789155875</v>
+        <v>0.07318736571115758</v>
       </c>
       <c r="CP5">
-        <v>0.08852969477251159</v>
+        <v>0.2460156433030198</v>
       </c>
       <c r="CQ5">
-        <v>0.002692998063606017</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.03756939966125771</v>
+        <v>0.02968744621661007</v>
       </c>
       <c r="CS5">
-        <v>0.03334661837845773</v>
+        <v>0.01176159512795297</v>
       </c>
       <c r="CT5">
-        <v>0.01990382770840452</v>
+        <v>0</v>
       </c>
       <c r="CU5">
         <v>0</v>
@@ -4610,22 +4610,22 @@
         <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.02097700480502112</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.00318030616525024</v>
+        <v>0</v>
       </c>
       <c r="CY5">
         <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.02510121249276609</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.001885229695615368</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.03597478799593674</v>
+        <v>0.02291826511475916</v>
       </c>
       <c r="DC5">
         <v>0</v>
@@ -4634,220 +4634,220 @@
         <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.003184611948220704</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.001687262936823386</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.00231162871479347</v>
+        <v>0</v>
       </c>
       <c r="DH5">
         <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.008490538417519639</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.0005808036282493413</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.001348377586474835</v>
+        <v>0</v>
       </c>
       <c r="DL5">
         <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.0003432254279815225</v>
+        <v>0</v>
       </c>
       <c r="DN5">
         <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.0007261024205550828</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.002554202196933401</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.001055996740872921</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.001783375162567168</v>
+        <v>0</v>
       </c>
       <c r="DS5">
         <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.00138611380236048</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.005037942731879726</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.001572883579196915</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.005506270766004898</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.01243630835394502</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.001300609567206</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.0005272594986933281</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.001094272165550204</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.0002129262585684249</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.01130588949119176</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.01254527175670062</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.002726237970618377</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.003236409692767476</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.0002519914950595246</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.01721038350688606</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.01652641190508512</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.01186053292962434</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>1.938525260571496E-05</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.009214154772099428</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.008034550520766936</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.004040200576453542</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.01413510388512611</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.02041731550316223</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0396535112955716</v>
+        <v>0.03853457144211472</v>
       </c>
       <c r="ER5">
-        <v>0.01366676151034158</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.001687262936823386</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.001077648473229264</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.008828613315748234</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.01888239785672712</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.01504902488663934</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.01325491723607304</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.001474120072838776</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.006720586173565991</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.0002733224780828027</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.002710258788502032</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.01110726828616692</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.01734797189004123</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.005849676292181227</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.005286115319597118</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.004035374125115316</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.007348205539843221</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.00538737594448158</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.001634340065117161</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.000607306498364653</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.0003538083019303013</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.0104910388861468</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.009942020059178677</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.0008097788259985305</v>
+        <v>0</v>
       </c>
       <c r="FP5">
         <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.003006168972803778</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.004080524769185834</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.0005916197939957943</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.007736168518959297</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.01256785214918329</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.011202548651235</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.004151965529446845</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.00289541544602792</v>
+        <v>0</v>
       </c>
       <c r="FY5">
         <v>0</v>
@@ -4859,58 +4859,58 @@
         <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.002458092634454928</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.0005841346561169879</v>
+        <v>0</v>
       </c>
       <c r="GD5">
         <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.0002356377041909193</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.0007011748206529573</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.005387266238437536</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.01954629355976795</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.02029966883116895</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.01035051066782445</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.004220617850930126</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.00119452894428002</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.0005079039107658159</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>2.133429161825716E-05</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0004534934005183746</v>
+        <v>0</v>
       </c>
       <c r="GP5">
         <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0009453723824645127</v>
+        <v>0</v>
       </c>
       <c r="GR5">
         <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.003783570380016695</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5092,49 +5092,49 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.198169904015175E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.05428692045678E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.615389936957846E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0004077239338145488</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0007421161095467451</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.000697959225907763</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0008762537372204831</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0007882799043431691</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0003657708540304149</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0001344118775846983</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0002333141366575317</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0001123420753638802</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>6.230088878465749E-05</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>4.560284343464239E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -5146,34 +5146,34 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.000238291066373219</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0005516515039426393</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0005657709621516117</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0004450175202678546</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>6.914583997036921E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>7.753041271574172E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0002312596150508237</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.000138246396924228</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>7.431719170866528E-06</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>2.202192782555221E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -5188,46 +5188,46 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>2.949600707392308E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0001513475043855211</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0002448873523795069</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0003321450451664851</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0001249235447721293</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>5.584987324764767E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>5.470983187448835E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>2.661178949700154E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>3.575999157717142E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0003369779615371071</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0002173512234895438</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>2.397587248339753E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>1.444037547561576E-06</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>3.950567931441676E-06</v>
+        <v>0</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -5242,43 +5242,43 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>1.549022594963289E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
         <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0001116694137408361</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0001520746430606023</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0002619412490255816</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0002210823581358537</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>1.258315776112597E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>4.307951967432756E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0001773627934520687</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>6.000232981833655E-05</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>1.629990760085727E-06</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>1.113155192512701E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>6.195223314738826E-07</v>
+        <v>0</v>
       </c>
       <c r="BO6">
         <v>0</v>
@@ -5287,403 +5287,403 @@
         <v>0</v>
       </c>
       <c r="BQ6">
-        <v>2.979060987597122E-05</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>1.065042644831178E-06</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>6.789383941533633E-05</v>
+        <v>0</v>
       </c>
       <c r="BT6">
         <v>0</v>
       </c>
       <c r="BU6">
-        <v>1.925964929387549E-05</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>8.95109727435591E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0003013510613497397</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0001951034104768248</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>3.497080806246195E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>6.446601578569043E-06</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>8.763804197810342E-05</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.0001079441740554757</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0001168211838913461</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0002064312215287885</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>8.055025947066879E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>6.863963962355084E-05</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>2.789577910520729E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
         <v>0</v>
       </c>
       <c r="CI6">
-        <v>1.258315776112597E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0001108895910434713</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>5.785379435267947E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>4.590564358808055E-06</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>5.769904636886886E-07</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.007229516657754199</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.1167779442841655</v>
+        <v>0.3462640855449503</v>
       </c>
       <c r="CP6">
-        <v>0.1377357314890726</v>
+        <v>0.4299308130344818</v>
       </c>
       <c r="CQ6">
-        <v>0.04119158501269295</v>
+        <v>0.0445116504590844</v>
       </c>
       <c r="CR6">
-        <v>0.0004937357914644454</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.04503005302445081</v>
+        <v>0.05983540835284877</v>
       </c>
       <c r="CT6">
-        <v>0.002544794997616749</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.01200096997180987</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.0008454935204612752</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.0114794076672818</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.01807263600690898</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.005177629803091356</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.0006600359855031833</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.04007611716239057</v>
+        <v>0.04005853030178412</v>
       </c>
       <c r="DB6">
-        <v>0.0007298235282842625</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.04993069082666377</v>
+        <v>0.07939951230685044</v>
       </c>
       <c r="DD6">
-        <v>0.002842915744075198</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.004914731573517757</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.006737996917339172</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.002594846972425272</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.004826013062327939</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.01204366261125732</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.002439974277886024</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.003977774760400474</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0003034425053456743</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.005782273493534918</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.01010164110042678</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.002352116420977908</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.0009481861943484714</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.002380999926583789</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>3.901191998968722E-06</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.0005044216978646403</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.00016060777182698</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.0001821104457486003</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.01270459341226578</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.0006600359855031833</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.01000889638600155</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.003461933723325108</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.008917155628309357</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.00345436854013479</v>
+        <v>0</v>
       </c>
       <c r="EB6">
         <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.0003491729779403743</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.007478514699628909</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.003743956268013047</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>3.279845034339774E-05</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.000556714258680273</v>
+        <v>0</v>
       </c>
       <c r="EH6">
         <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.02020723893019619</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.01983485469777781</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0137210910286355</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.0003380457157638058</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.02267968471998475</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.01044778299011703</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.005011677386706323</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.007095023699664553</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.01259524464130717</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.02472169017765889</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.003327215584739039</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.000510660209325077</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.00347731240930122</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.01705592903678593</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.02848750041669421</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.01473756260099762</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.01038727174185901</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.0007294498368430015</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.005135038835442777</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.0003933337882143472</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.001016405116569127</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.007290996542756177</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.0134129162935534</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.001343376012269885</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.01384636771362266</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.006228137287284666</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.01222017487102887</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.008316222207255253</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.004309178646701405</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.00264589753458648</v>
+        <v>0</v>
       </c>
       <c r="FM6">
         <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.009048470516287791</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.006754401436706684</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0009892610501627045</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>3.27096472893525E-05</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.002875389616466347</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.0009364882178131979</v>
+        <v>0</v>
       </c>
       <c r="FT6">
         <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.00738767921129879</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.00751873115496979</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.00506388079688058</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.0006754518943763021</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.0008727308444487343</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0003491729779403743</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>4.99629568914141E-05</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0002725780724883889</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.004400658223373161</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.0004985305433470171</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>5.161212455547567E-05</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.0011318226421433</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.001085073848851699</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.006913229514814546</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.01623008958308137</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.01054253309312695</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.004244652313995822</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.001367894341864595</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0001912008661928465</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.0005933725015683382</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>3.840109936182733E-05</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.001881339430410631</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.0001066661345013125</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>8.312990439909691E-05</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.0005706572687378</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>0.0001113520074531394</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002197967869027668</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0002197967869027668</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0002197967869027668</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0002197967869027668</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0002197967869027668</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0002197967869027668</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0002197967869027668</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0002317323634242376</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0002369432466630933</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0002369432466630933</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0002369432466630933</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0002369432466630933</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0002369432466630933</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0003399698585760242</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0005484266416032125</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0005882992921055498</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0006210319413087896</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0006210319413087896</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0006210319413087896</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0006210319413087896</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0006210319413087896</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0006210319413087896</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0006210319413087896</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0006210319413087896</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0006210319413087896</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0006210319413087896</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0006210319413087896</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0006210319413087896</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0006210319413087896</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0006210319413087896</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0006317011570114553</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.2104571464587764</v>
+        <v>0.6878027500447378</v>
       </c>
       <c r="CO2">
-        <v>0.2478932909044859</v>
+        <v>0.7140485061152572</v>
       </c>
       <c r="CP2">
-        <v>0.3151317137058296</v>
+        <v>0.8547126334586312</v>
       </c>
       <c r="CQ2">
-        <v>0.3151317137058296</v>
+        <v>0.8547126334586312</v>
       </c>
       <c r="CR2">
-        <v>0.341419063360196</v>
+        <v>0.8547126334586312</v>
       </c>
       <c r="CS2">
-        <v>0.378401891506312</v>
+        <v>0.879217995319957</v>
       </c>
       <c r="CT2">
-        <v>0.4349485698909504</v>
+        <v>0.9788338522047144</v>
       </c>
       <c r="CU2">
-        <v>0.4371561742512955</v>
+        <v>0.9788338522047144</v>
       </c>
       <c r="CV2">
-        <v>0.437262661332017</v>
+        <v>0.9788338522047144</v>
       </c>
       <c r="CW2">
-        <v>0.4733757324104689</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CX2">
-        <v>0.4819286133172254</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CY2">
-        <v>0.4834534923774065</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ2">
-        <v>0.507911871330194</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA2">
-        <v>0.5174294899604317</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB2">
-        <v>0.5408229273475417</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC2">
-        <v>0.5423208043005353</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD2">
-        <v>0.5427999633468491</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE2">
-        <v>0.5427999633468491</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF2">
-        <v>0.5442172913922039</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG2">
-        <v>0.5547824977927124</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH2">
-        <v>0.5547824977927124</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI2">
-        <v>0.5563868810205591</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ2">
-        <v>0.561565177871754</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK2">
-        <v>0.5626767930031774</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL2">
-        <v>0.5649074617468534</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM2">
-        <v>0.5669443858091308</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN2">
-        <v>0.5669443858091308</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO2">
-        <v>0.5669443858091308</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP2">
-        <v>0.5744530001773804</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ2">
-        <v>0.5746919273311312</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR2">
-        <v>0.5825932080347571</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS2">
-        <v>0.5831039948815516</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT2">
-        <v>0.5844782923334003</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU2">
-        <v>0.5932611680263175</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV2">
-        <v>0.6021368749198625</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW2">
-        <v>0.6021368749198625</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX2">
-        <v>0.6034356765836675</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY2">
-        <v>0.6109660953416638</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ2">
-        <v>0.6146822160063207</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA2">
-        <v>0.6147560508293115</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB2">
-        <v>0.6192651847955927</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC2">
-        <v>0.6212990244461573</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED2">
-        <v>0.6290874941829321</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE2">
-        <v>0.6350139873221298</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF2">
-        <v>0.6423944641734838</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG2">
-        <v>0.6423944641734838</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH2">
-        <v>0.6618593023620948</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI2">
-        <v>0.670953472158227</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ2">
-        <v>0.6749244269103893</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK2">
-        <v>0.674935096126092</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL2">
-        <v>0.6932458134655751</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM2">
-        <v>0.7157428438269899</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN2">
-        <v>0.7157428438269899</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO2">
-        <v>0.7170134907087369</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP2">
-        <v>0.7259762715903965</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ2">
-        <v>0.7531375909570451</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER2">
-        <v>0.7599523225760351</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES2">
-        <v>0.7599523225760351</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET2">
-        <v>0.7638779035923314</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU2">
-        <v>0.7795523701123509</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV2">
-        <v>0.7974621991679415</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW2">
-        <v>0.8104435287615511</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX2">
-        <v>0.8212636135121157</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY2">
-        <v>0.8212636135121157</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ2">
-        <v>0.845993674152659</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA2">
-        <v>0.8536361704131509</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB2">
-        <v>0.8536361704131509</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC2">
-        <v>0.8568960872372896</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD2">
-        <v>0.8637665223007336</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE2">
-        <v>0.8647692831881691</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF2">
-        <v>0.8775221615365399</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG2">
-        <v>0.8863637749693254</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH2">
-        <v>0.8990020317968563</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI2">
-        <v>0.9113359050247403</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ2">
-        <v>0.9136339469162652</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK2">
-        <v>0.9138578434423378</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL2">
-        <v>0.9152179254265926</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM2">
-        <v>0.9360780136953851</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN2">
-        <v>0.9530581145484686</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO2">
-        <v>0.9580587227274688</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP2">
-        <v>0.9599440367703168</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ2">
-        <v>0.9599440367703168</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR2">
-        <v>0.9603273973819473</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS2">
-        <v>0.9604119442556986</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT2">
-        <v>0.9620595518669196</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU2">
-        <v>0.9651933796778731</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV2">
-        <v>0.9680454734779805</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW2">
-        <v>0.9689092599178026</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX2">
-        <v>0.9691157234688244</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY2">
-        <v>0.9700959277085458</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ2">
-        <v>0.9704276785968283</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA2">
-        <v>0.9704276785968283</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB2">
-        <v>0.9715333857560529</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC2">
-        <v>0.9715333857560529</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD2">
-        <v>0.9719183320145118</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE2">
-        <v>0.9719183320145118</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF2">
-        <v>0.9719183320145118</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG2">
-        <v>0.9728190868242462</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH2">
-        <v>0.9811010460035146</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI2">
-        <v>0.9898573364377208</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ2">
-        <v>0.9921821450541448</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK2">
-        <v>0.9922999396042267</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL2">
-        <v>0.9922999396042267</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM2">
-        <v>0.9928451908545493</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN2">
-        <v>0.9938441248285511</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO2">
-        <v>0.9968733958681325</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP2">
-        <v>0.9975031397782841</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ2">
-        <v>0.9975832406071874</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR2">
-        <v>0.9975832406071874</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>4.395401775626515E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0002582015817926656</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0003960265715506627</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.000409254141838871</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0006082141937418183</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007031398768481373</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0007031398768481373</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0008596351060291408</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0008596351060291408</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0008596351060291408</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0008596351060291408</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0009063109573934869</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001016232969726851</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.001016232969726851</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001016232969726851</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001186961405438876</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001285183446909462</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.001458010917503643</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.001775973575535352</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001888793097953958</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001888793097953958</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.001888793097953958</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.001888793097953958</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.001960974953955884</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.001997525147528865</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.002001987045489389</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.002091615828890122</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.002091615828890122</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002091615828890122</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.002091615828890122</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.002091615828890122</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.002310901630796269</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.002604943524584219</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.002862228579485392</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.003106422093386036</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.003163553230288354</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.003163553230288354</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.003163553230288354</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.003163553230288354</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.003163553230288354</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.003208362224562907</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.003319907519661819</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.003319907519661819</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.003319907519661819</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.003319907519661819</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.003319907519661819</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.003319907519661819</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.003574020961200755</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.003888785734184488</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.003888785734184488</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.003888785734184488</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.004088415602838768</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.004273169862583304</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.004915646642356791</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.005590434966397876</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.005731579400839825</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.005906937993637152</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.006027105730826334</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.00609928758682826</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.006135837780401242</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.00613782717801751</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.00613782717801751</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.00613782717801751</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.00613782717801751</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.006139037121616556</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.006170034601264241</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.00632897257138074</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.00664506283079695</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.007111024492257171</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.007385181955868329</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.007737248639488142</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.008005900202931493</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.008005900202931493</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.008005900202931493</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.008028292785282887</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.00805769552911223</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.00805769552911223</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.00805769552911223</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.00805769552911223</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.008163672430195043</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.008538625554308</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.009236612312806853</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.009897359361261999</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01048224141606998</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01085891374797193</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01134680427832816</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.01173618667583695</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.01222407720619319</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.01241884719725219</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.01241884719725219</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.02452501740043152</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.1626226137633747</v>
+        <v>0.4638612207567321</v>
       </c>
       <c r="CP3">
-        <v>0.285362144662842</v>
+        <v>0.8616525004763833</v>
       </c>
       <c r="CQ3">
-        <v>0.3246010864528753</v>
+        <v>0.9002267282735844</v>
       </c>
       <c r="CR3">
-        <v>0.3256757127137812</v>
+        <v>0.9002267282735844</v>
       </c>
       <c r="CS3">
-        <v>0.379140471996818</v>
+        <v>1</v>
       </c>
       <c r="CT3">
-        <v>0.3907619533619599</v>
+        <v>1</v>
       </c>
       <c r="CU3">
-        <v>0.4178891838731038</v>
+        <v>1</v>
       </c>
       <c r="CV3">
-        <v>0.4209174288086571</v>
+        <v>1</v>
       </c>
       <c r="CW3">
-        <v>0.4280601646605325</v>
+        <v>1</v>
       </c>
       <c r="CX3">
-        <v>0.4473839197948771</v>
+        <v>1</v>
       </c>
       <c r="CY3">
-        <v>0.4474567409993512</v>
+        <v>1</v>
       </c>
       <c r="CZ3">
-        <v>0.4505760274382624</v>
+        <v>1</v>
       </c>
       <c r="DA3">
-        <v>0.4756755065033962</v>
+        <v>1</v>
       </c>
       <c r="DB3">
-        <v>0.4851529887636573</v>
+        <v>1</v>
       </c>
       <c r="DC3">
-        <v>0.5060612005906501</v>
+        <v>1</v>
       </c>
       <c r="DD3">
-        <v>0.5060612005906501</v>
+        <v>1</v>
       </c>
       <c r="DE3">
-        <v>0.5065691683315592</v>
+        <v>1</v>
       </c>
       <c r="DF3">
-        <v>0.511318741498673</v>
+        <v>1</v>
       </c>
       <c r="DG3">
-        <v>0.5115282264550699</v>
+        <v>1</v>
       </c>
       <c r="DH3">
-        <v>0.5153932204353695</v>
+        <v>1</v>
       </c>
       <c r="DI3">
-        <v>0.5153932204353695</v>
+        <v>1</v>
       </c>
       <c r="DJ3">
-        <v>0.5205252825493151</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.5209257870316109</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.5222695379940541</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.5233395602381009</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.525705934242101</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.525705934242101</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.5259015844660918</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.5285447124772576</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.5298376871879628</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.5307674633264122</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.5310568661643145</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.5318741839452383</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.5409857920268812</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.5420535246500331</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.5531236960045435</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.5577293863892538</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.5622598147650549</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.5629103017899</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.5629103017899</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.563350787702644</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.5756732983615359</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.5835052604618979</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.5856021723178044</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.5886349752593739</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.5897993371246784</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.611961726667318</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.6258296646892672</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.636020291757783</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.6362290945098938</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.6530124423518525</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.6598466943102483</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.664092871136175</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.6744222426377199</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.7002591865281222</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.7303971127870581</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.73580642420731</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.7365279676073198</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.7401023783390119</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.7536896552748044</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.7735089421321106</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.7869625307714673</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.7985191530276178</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.7985191530276178</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8079181266325401</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8079712283026202</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8118020583724499</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.8233645700165043</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8391012662356057</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8402384858495727</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8510152647659844</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.8560104326895259</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.8662703156834146</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.8725133266913107</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.8748468371220499</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.8758174989000792</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.8761130938772322</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.8912244481337032</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.8963162115244048</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.8967193640571186</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.8967193640571186</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9016602860057462</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9036118252380408</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9042851291511641</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9157609614231451</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9247059071079454</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9316163787075213</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9337534826021898</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9345687820441716</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9352999180476488</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9353546513936811</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9356852629380669</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9395212080990425</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9399960122861066</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9402957651872994</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9419202533813166</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9434703803677198</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.952458122203873</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9725362589853001</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9879859061952727</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9944157027202845</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.996086521001765</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.996086521001765</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.996086521001765</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9963153213707264</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9988078537691794</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9988241229858499</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9988241229858499</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8194,598 +8194,598 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.001477093714105726</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.001477093714105726</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.001902941220106528</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.003580160384891558</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.003580160384891558</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.003580160384891558</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.004853719859953181</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.00781713910304649</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.00781713910304649</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.007987025990978036</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.007987025990978036</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.009685452101276736</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.009685452101276736</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.01206044800785503</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.01206044800785503</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.01364609998213473</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.01364609998213473</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.01517262927005912</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.01517262927005912</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.01517262927005912</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.01645694046618996</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.01814475023853591</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.01970846254825379</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.02107017054585401</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.02153861340185639</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.02807804803742586</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.03490609884956778</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.03987974805495112</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.03987974805495112</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.04189158987972334</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.04328767824061532</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.04328767824061532</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.04518574700390372</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.05274799218190095</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.06435086144343723</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.06894712136344724</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.06901406247363384</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.07287920297246198</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.08194007128679941</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0936149324475835</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.1081046501614615</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.1196670173977932</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.1223926778322733</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.1223926778322733</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.1224155884879969</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.1224155884879969</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.1253640031128105</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.1298155219791226</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.1306236667613116</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.1328324079667504</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.1351529390392956</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.1456339219618699</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.1529132906863111</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.1562853029060664</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.1575149815320656</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.1575149815320656</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.1597134339463538</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.1626768531894472</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.1639671515329107</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.1639671515329107</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.1646739633009436</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.16605156974938</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.1668874744759014</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.1700317455862599</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.1737242966049085</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.1787568793728389</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.1809863159558324</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.1814130061593072</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.1814130061593072</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.1816087029101453</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.1823106255780306</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.1845578936482586</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.1863354129202471</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.188504494146553</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.1903200404406136</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.1919486136397645</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.1980914709573851</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.2089777336072641</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.222126050541308</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.2337915173949003</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.2368287602805783</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.2372281485298384</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.2372281485298384</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.2372281485298384</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.2382667444722288</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.2385427746547829</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.2385427746547829</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.2392028795733349</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.2455766357816881</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.2606487826278898</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.2811536357182291</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.3130769690122199</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.3467880933568923</v>
+        <v>1</v>
       </c>
       <c r="CR4">
-        <v>0.3759263299558253</v>
+        <v>1</v>
       </c>
       <c r="CS4">
-        <v>0.393454815086525</v>
+        <v>1</v>
       </c>
       <c r="CT4">
-        <v>0.3963237266004526</v>
+        <v>1</v>
       </c>
       <c r="CU4">
-        <v>0.3963460067095826</v>
+        <v>1</v>
       </c>
       <c r="CV4">
-        <v>0.4005842739341058</v>
+        <v>1</v>
       </c>
       <c r="CW4">
-        <v>0.4083620457765107</v>
+        <v>1</v>
       </c>
       <c r="CX4">
-        <v>0.4150981199917863</v>
+        <v>1</v>
       </c>
       <c r="CY4">
-        <v>0.419728908577684</v>
+        <v>1</v>
       </c>
       <c r="CZ4">
-        <v>0.424953103619313</v>
+        <v>1</v>
       </c>
       <c r="DA4">
-        <v>0.4354639093688147</v>
+        <v>1</v>
       </c>
       <c r="DB4">
-        <v>0.4549367381565456</v>
+        <v>1</v>
       </c>
       <c r="DC4">
-        <v>0.4824697565770037</v>
+        <v>1</v>
       </c>
       <c r="DD4">
-        <v>0.5099932666948634</v>
+        <v>1</v>
       </c>
       <c r="DE4">
-        <v>0.526666931754336</v>
+        <v>1</v>
       </c>
       <c r="DF4">
-        <v>0.5444441114358749</v>
+        <v>1</v>
       </c>
       <c r="DG4">
-        <v>0.5522089779125583</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>0.5537765533637624</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>0.5537765533637624</v>
+        <v>1</v>
       </c>
       <c r="DJ4">
-        <v>0.5537765533637624</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.5537765533637624</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.554775431243646</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.5599503166492392</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.5715250963568668</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.5915879252004393</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.6112779217521677</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.6269472867348034</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.6392276643548019</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.6520856436730635</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.6634276208752319</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.6735575022875115</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.6802236926500289</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.6839512125739696</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.6850742331889429</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.6850742331889429</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.6870127493682077</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.6939383434443481</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.7016234196502873</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.7086989363599171</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.718946255840293</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.7291436095053581</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.7388247919683846</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.7541388305538151</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.7686285482676931</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.7845443848907352</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.7938707224514416</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.7958797238363773</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.7963367844464303</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.7963367844464303</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.7963367844464303</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.7986317778336737</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.8032828688929573</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.808487717719813</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.8148027816016132</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.8200677945985744</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.8282876536566374</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.8347534724469637</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.8430104744655772</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.854405020921014</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8631930613140553</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8693729297918228</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8716350469037419</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8716400930027064</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8721138378610764</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8759583866638865</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.880332355974884</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.886781651728112</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8990749314568205</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.9106030305881944</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.9164102601320409</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.9212774187367957</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9245338602417853</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9271747312183808</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9284818471413606</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9306144409349887</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9308056805414174</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9308056805414174</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9313558292904068</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9349009332215339</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9433797648734482</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9550263920861417</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9629675877437502</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9672410325394435</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9681888424312829</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9681888424312829</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9681888424312829</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9681888424312829</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9681888424312829</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9681888424312829</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9681888424312829</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9689918751165953</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9709923651701903</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9762165602118194</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9839814266885027</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9895387873116859</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9904491676259519</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9904491676259519</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9906095992354341</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9923213055934922</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9933081515296046</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.994953727523666</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.996042706070288</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9972267541805808</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9981648867309184</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9986652536857537</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9993205468039007</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>4.793832484196968E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.793832484196968E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4.793832484196968E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>4.793832484196968E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0002714395904831861</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0006427882601668688</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.001226963520836479</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001759421201245096</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.002299058696651585</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.002582196126861518</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.002959828156440318</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.003430590374083914</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.003781636501129754</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.003861867081727441</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.003944384997491787</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.003945002373120222</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.003945002373120222</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.003945002373120222</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.003945002373120222</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.004002587352208498</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.004151902952955431</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.004284996768603094</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.004617202659801895</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.004802583994486517</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.00497302742233035</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.005121478117425102</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.005121478117425102</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.005158618161371496</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.005273078400316713</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.005297054866230639</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.005297054866230639</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.005297054866230639</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.005297054866230639</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.005297054866230639</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.005297054866230639</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.005297054866230639</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.005297054866230639</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.005297054866230639</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.005297054866230639</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.005297054866230639</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.005364903680570422</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.005597633426831237</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.005702035741906586</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.005717820956361865</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.005769662245296426</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.005856379331472282</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0058676617222976</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0058676617222976</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.005897318451677592</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.006014227030420678</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.006142290757367315</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.006303844492425414</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.006303844492425414</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.006303844492425414</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.006303844492425414</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.006303844492425414</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.006382177445274337</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.006785316386176445</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.007383055032217932</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.007943127219438193</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.008217992014947656</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.008501129445157589</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.008885082192049119</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.009316728417510836</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.009646231493911564</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.009986171251482306</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0101142600336095</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.01017695752946009</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.01124682271225929</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.1779571520447182</v>
+        <v>0.5778951130843856</v>
       </c>
       <c r="CO5">
-        <v>0.2257737999362769</v>
+        <v>0.6510824787955432</v>
       </c>
       <c r="CP5">
-        <v>0.3143034947087885</v>
+        <v>0.897098122098563</v>
       </c>
       <c r="CQ5">
-        <v>0.3169964927723946</v>
+        <v>0.897098122098563</v>
       </c>
       <c r="CR5">
-        <v>0.3545658924336523</v>
+        <v>0.926785568315173</v>
       </c>
       <c r="CS5">
-        <v>0.38791251081211</v>
+        <v>0.9385471634431259</v>
       </c>
       <c r="CT5">
-        <v>0.4078163385205145</v>
+        <v>0.9385471634431259</v>
       </c>
       <c r="CU5">
-        <v>0.4078163385205145</v>
+        <v>0.9385471634431259</v>
       </c>
       <c r="CV5">
-        <v>0.4078163385205145</v>
+        <v>0.9385471634431259</v>
       </c>
       <c r="CW5">
-        <v>0.4287933433255356</v>
+        <v>0.9385471634431259</v>
       </c>
       <c r="CX5">
-        <v>0.4319736494907859</v>
+        <v>0.9385471634431259</v>
       </c>
       <c r="CY5">
-        <v>0.4319736494907859</v>
+        <v>0.9385471634431259</v>
       </c>
       <c r="CZ5">
-        <v>0.457074861983552</v>
+        <v>0.9385471634431259</v>
       </c>
       <c r="DA5">
-        <v>0.4589600916791673</v>
+        <v>0.9385471634431259</v>
       </c>
       <c r="DB5">
-        <v>0.4949348796751041</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DC5">
-        <v>0.4949348796751041</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DD5">
-        <v>0.4949348796751041</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DE5">
-        <v>0.4981194916233248</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DF5">
-        <v>0.4998067545601482</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DG5">
-        <v>0.5021183832749416</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DH5">
-        <v>0.5021183832749416</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DI5">
-        <v>0.5106089216924613</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DJ5">
-        <v>0.5111897253207106</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DK5">
-        <v>0.5125381029071855</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DL5">
-        <v>0.5125381029071855</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DM5">
-        <v>0.512881328335167</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DN5">
-        <v>0.512881328335167</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DO5">
-        <v>0.513607430755722</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DP5">
-        <v>0.5161616329526554</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DQ5">
-        <v>0.5172176296935282</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DR5">
-        <v>0.5190010048560955</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DS5">
-        <v>0.5190010048560955</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DT5">
-        <v>0.520387118658456</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DU5">
-        <v>0.5254250613903357</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DV5">
-        <v>0.5269979449695327</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DW5">
-        <v>0.5325042157355375</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DX5">
-        <v>0.5449405240894826</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DY5">
-        <v>0.5462411336566886</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="DZ5">
-        <v>0.5467683931553819</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="EA5">
-        <v>0.5478626653209322</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="EB5">
-        <v>0.5480755915795006</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="EC5">
-        <v>0.5593814810706923</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="ED5">
-        <v>0.5719267528273929</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="EE5">
-        <v>0.5746529907980112</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="EF5">
-        <v>0.5778894004907787</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="EG5">
-        <v>0.5781413919858382</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="EH5">
-        <v>0.5953517754927243</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="EI5">
-        <v>0.6118781873978094</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="EJ5">
-        <v>0.6237387203274337</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="EK5">
-        <v>0.6237581055800394</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="EL5">
-        <v>0.6329722603521388</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="EM5">
-        <v>0.6410068108729058</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="EN5">
-        <v>0.6450470114493593</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="EO5">
-        <v>0.6591821153344853</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="EP5">
-        <v>0.6795994308376476</v>
+        <v>0.9614654285578851</v>
       </c>
       <c r="EQ5">
-        <v>0.7192529421332192</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ER5">
-        <v>0.7329197036435608</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ES5">
-        <v>0.7346069665803843</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ET5">
-        <v>0.7356846150536135</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EU5">
-        <v>0.7445132283693617</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV5">
-        <v>0.7633956262260888</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW5">
-        <v>0.7784446511127282</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX5">
-        <v>0.7916995683488013</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY5">
-        <v>0.79317368842164</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ5">
-        <v>0.799894274595206</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA5">
-        <v>0.8001675970732888</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB5">
-        <v>0.8028778558617908</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC5">
-        <v>0.8139851241479578</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD5">
-        <v>0.831333096037999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE5">
-        <v>0.8371827723301802</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF5">
-        <v>0.8424688876497773</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG5">
-        <v>0.8465042617748927</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH5">
-        <v>0.8538524673147359</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI5">
-        <v>0.8592398432592174</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ5">
-        <v>0.8608741833243346</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK5">
-        <v>0.8614814898226992</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL5">
-        <v>0.8618352981246296</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM5">
-        <v>0.8723263370107763</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN5">
-        <v>0.882268357069955</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO5">
-        <v>0.8830781358959535</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP5">
-        <v>0.8830781358959535</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ5">
-        <v>0.8860843048687573</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR5">
-        <v>0.8901648296379432</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS5">
-        <v>0.890756449431939</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT5">
-        <v>0.8984926179508983</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU5">
-        <v>0.9110604701000816</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV5">
-        <v>0.9222630187513167</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW5">
-        <v>0.9264149842807635</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX5">
-        <v>0.9293103997267914</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY5">
-        <v>0.9293103997267914</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ5">
-        <v>0.9293103997267914</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA5">
-        <v>0.9293103997267914</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB5">
-        <v>0.9317684923612464</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC5">
-        <v>0.9323526270173633</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD5">
-        <v>0.9323526270173633</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE5">
-        <v>0.9325882647215542</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF5">
-        <v>0.9332894395422071</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG5">
-        <v>0.9386767057806447</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH5">
-        <v>0.9582229993404127</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI5">
-        <v>0.9785226681715816</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ5">
-        <v>0.9888731788394061</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK5">
-        <v>0.9930937966903362</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL5">
-        <v>0.9942883256346162</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM5">
-        <v>0.994796229545382</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN5">
-        <v>0.9948175638370003</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO5">
-        <v>0.9952710572375186</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP5">
-        <v>0.9952710572375186</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ5">
-        <v>0.9962164296199831</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR5">
-        <v>0.9962164296199831</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS5">
         <v>0.9999999999999998</v>
@@ -9743,766 +9743,766 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.198169904015175E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>6.252456824471955E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>6.252456824471955E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000128678467614298</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0005364024014288468</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001278518510975592</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.001976477736883355</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.002852731474103838</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.003641011378447007</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.004006782232477422</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.004141194110062121</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004374508246719653</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.004486850322083533</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.004549151210868191</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.004594754054302833</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.004594754054302833</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.004594754054302833</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.004594754054302833</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.004833045120676052</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.005384696624618691</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.005950467586770303</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.006395485107038158</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.006464630947008527</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.006542161359724269</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.006773420974775093</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.00691166737169932</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.006919099090870187</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.006941121018695739</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.006941121018695739</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.006941121018695739</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.006941121018695739</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.006941121018695739</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.006970617025769663</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.007121964530155183</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.00736685188253469</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.007698996927701175</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.007823920472473305</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.007879770345720953</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.007934480177595441</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.007961091967092443</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.007996851958669613</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.008333829920206721</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.008551181143696265</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.008575157016179662</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.008576601053727224</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.008580551621658666</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.008580551621658666</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.008580551621658666</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.008580551621658666</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.008580551621658666</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.008596041847608298</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.008596041847608298</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.008707711261349135</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.008859785904409737</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.009121727153435318</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.009342809511571171</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.009355392669332297</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.009398472189006624</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.009575834982458693</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.009635837312277028</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.009637467303037115</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.009648598854962241</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.009649218377293715</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.009649218377293715</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.009649218377293715</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.009679008987169686</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.009680074029814517</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.009747967869229855</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.009747967869229855</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.009767227518523731</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.009856738491267289</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.01015808955261703</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.01035319296309385</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.01038816377115631</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.01039461037273488</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.01048224841471299</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.01059019258876846</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.01070701377265981</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0109134449941886</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.01099399525365927</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.01106263489328282</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.01109053067238802</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.01109053067238802</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.01110311383014915</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.01121400342119262</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0112718572155453</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.01127644777990411</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0112770247703678</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.018506541428122</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.1352844857122875</v>
+        <v>0.3462640855449503</v>
       </c>
       <c r="CP6">
-        <v>0.2730202172013602</v>
+        <v>0.7761948985794321</v>
       </c>
       <c r="CQ6">
-        <v>0.3142118022140531</v>
+        <v>0.8207065490385166</v>
       </c>
       <c r="CR6">
-        <v>0.3147055380055175</v>
+        <v>0.8207065490385166</v>
       </c>
       <c r="CS6">
-        <v>0.3597355910299683</v>
+        <v>0.8805419573913653</v>
       </c>
       <c r="CT6">
-        <v>0.3622803860275851</v>
+        <v>0.8805419573913653</v>
       </c>
       <c r="CU6">
-        <v>0.3742813559993949</v>
+        <v>0.8805419573913653</v>
       </c>
       <c r="CV6">
-        <v>0.3751268495198562</v>
+        <v>0.8805419573913653</v>
       </c>
       <c r="CW6">
-        <v>0.386606257187138</v>
+        <v>0.8805419573913653</v>
       </c>
       <c r="CX6">
-        <v>0.404678893194047</v>
+        <v>0.8805419573913653</v>
       </c>
       <c r="CY6">
-        <v>0.4098565229971383</v>
+        <v>0.8805419573913653</v>
       </c>
       <c r="CZ6">
-        <v>0.4105165589826415</v>
+        <v>0.8805419573913653</v>
       </c>
       <c r="DA6">
-        <v>0.4505926761450321</v>
+        <v>0.9206004876931494</v>
       </c>
       <c r="DB6">
-        <v>0.4513224996733163</v>
+        <v>0.9206004876931494</v>
       </c>
       <c r="DC6">
-        <v>0.5012531904999801</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DD6">
-        <v>0.5040961062440553</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DE6">
-        <v>0.5090108378175731</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DF6">
-        <v>0.5157488347349122</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DG6">
-        <v>0.5183436817073375</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DH6">
-        <v>0.5231696947696655</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DI6">
-        <v>0.5352133573809228</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DJ6">
-        <v>0.5376533316588088</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DK6">
-        <v>0.5416311064192093</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DL6">
-        <v>0.5419345489245549</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DM6">
-        <v>0.5477168224180898</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DN6">
-        <v>0.5578184635185166</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DO6">
-        <v>0.5601705799394945</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DP6">
-        <v>0.5611187661338429</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DQ6">
-        <v>0.5634997660604267</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DR6">
-        <v>0.5635036672524257</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DS6">
-        <v>0.5640080889502904</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DT6">
-        <v>0.5641686967221174</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DU6">
-        <v>0.564350807167866</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DV6">
-        <v>0.5770554005801318</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DW6">
-        <v>0.5777154365656351</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DX6">
-        <v>0.5877243329516366</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DY6">
-        <v>0.5911862666749618</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="DZ6">
-        <v>0.6001034223032711</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EA6">
-        <v>0.6035577908434059</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EB6">
-        <v>0.6035577908434059</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EC6">
-        <v>0.6039069638213462</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ED6">
-        <v>0.6113854785209751</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EE6">
-        <v>0.6151294347889882</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EF6">
-        <v>0.6151622332393316</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EG6">
-        <v>0.6157189474980119</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EH6">
-        <v>0.6157189474980119</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EI6">
-        <v>0.6359261864282081</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EJ6">
-        <v>0.6557610411259859</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EK6">
-        <v>0.6694821321546214</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EL6">
-        <v>0.6698201778703852</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EM6">
-        <v>0.6924998625903699</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EN6">
-        <v>0.7029476455804869</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EO6">
-        <v>0.7079593229671932</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EP6">
-        <v>0.7150543466668577</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EQ6">
-        <v>0.7276495913081649</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ER6">
-        <v>0.7523712814858238</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ES6">
-        <v>0.7556984970705628</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ET6">
-        <v>0.7562091572798879</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EU6">
-        <v>0.7596864696891892</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV6">
-        <v>0.7767423987259751</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW6">
-        <v>0.8052298991426693</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX6">
-        <v>0.8199674617436669</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY6">
-        <v>0.8303547334855259</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ6">
-        <v>0.8310841833223689</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA6">
-        <v>0.8362192221578116</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB6">
-        <v>0.836612555946026</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC6">
-        <v>0.8376289610625951</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD6">
-        <v>0.8449199576053513</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE6">
-        <v>0.8583328738989047</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF6">
-        <v>0.8596762499111745</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG6">
-        <v>0.8735226176247972</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH6">
-        <v>0.8797507549120819</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI6">
-        <v>0.8919709297831108</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ6">
-        <v>0.900287151990366</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK6">
-        <v>0.9045963306370675</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL6">
-        <v>0.9072422281716539</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM6">
-        <v>0.9072422281716539</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN6">
-        <v>0.9162906986879417</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO6">
-        <v>0.9230451001246484</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP6">
-        <v>0.9240343611748111</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ6">
-        <v>0.9240670708221004</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR6">
-        <v>0.9269424604385668</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS6">
-        <v>0.92787894865638</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT6">
-        <v>0.92787894865638</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU6">
-        <v>0.9352666278676788</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV6">
-        <v>0.9427853590226486</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW6">
-        <v>0.9478492398195292</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX6">
-        <v>0.9485246917139055</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY6">
-        <v>0.9493974225583542</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ6">
-        <v>0.9497465955362946</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA6">
-        <v>0.949796558493186</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB6">
-        <v>0.9500691365656744</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC6">
-        <v>0.9544697947890476</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD6">
-        <v>0.9549683253323946</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE6">
-        <v>0.9550199374569501</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF6">
-        <v>0.9561517600990934</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG6">
-        <v>0.9572368339479451</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH6">
-        <v>0.9641500634627597</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI6">
-        <v>0.980380153045841</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ6">
-        <v>0.9909226861389679</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK6">
-        <v>0.9951673384529638</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL6">
-        <v>0.9965352327948284</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM6">
-        <v>0.9967264336610212</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN6">
-        <v>0.9973198061625895</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO6">
-        <v>0.9973582072619513</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP6">
-        <v>0.9992395466923619</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ6">
-        <v>0.9993462128268632</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR6">
-        <v>0.9994293427312623</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.507911871330194</v>
+        <v>0.6878027500447378</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -10611,16 +10611,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.01241884719725219</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5060612005906501</v>
+        <v>0.8616525004763833</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.07287920297246198</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5099932666948634</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -10693,16 +10693,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E5">
-        <v>0.01017695752946009</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5021183832749416</v>
+        <v>0.5778951130843856</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -10734,16 +10734,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.0112770247703678</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5012531904999801</v>
+        <v>0.7761948985794321</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7157428438269899</v>
+        <v>0.7140485061152572</v>
       </c>
       <c r="G2">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -10870,16 +10870,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.01241884719725219</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7002591865281222</v>
+        <v>0.8616525004763833</v>
       </c>
       <c r="G3">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.07287920297246198</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7016234196502873</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -10952,16 +10952,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.01017695752946009</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7192529421332192</v>
+        <v>0.897098122098563</v>
       </c>
       <c r="G5">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -10993,16 +10993,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.0112770247703678</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7029476455804869</v>
+        <v>0.7761948985794321</v>
       </c>
       <c r="G6">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8104435287615511</v>
+        <v>0.8547126334586312</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -11129,16 +11129,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.01241884719725219</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8079181266325401</v>
+        <v>0.8616525004763833</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.07287920297246198</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8032828688929573</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -11211,16 +11211,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.01017695752946009</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8001675970732888</v>
+        <v>0.897098122098563</v>
       </c>
       <c r="G5">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -11252,16 +11252,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>0.0112770247703678</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8052298991426693</v>
+        <v>0.8207065490385166</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="E2">
-        <v>0.0007068407188146443</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9113359050247403</v>
+        <v>0.9788338522047144</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -11388,16 +11388,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.01241884719725219</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9016602860057462</v>
+        <v>0.9002267282735844</v>
       </c>
       <c r="G3">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.07287920297246198</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9106030305881944</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -11470,16 +11470,16 @@
         <v>89</v>
       </c>
       <c r="D5">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="E5">
-        <v>0.01017695752946009</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9110604701000816</v>
+        <v>0.926785568315173</v>
       </c>
       <c r="G5">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -11511,16 +11511,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="E6">
-        <v>0.0112770247703678</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.900287151990366</v>
+        <v>0.9206004876931494</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>24</v>

--- a/on_trucks/Processed_Stand_Alone/24_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/24_455-55R22.xlsx
@@ -1244,25 +1244,25 @@
         <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.5324397014438319</v>
+        <v>0.4227059363421588</v>
       </c>
       <c r="BQ2">
-        <v>0.05534153927111299</v>
+        <v>0.06578473301828035</v>
       </c>
       <c r="BR2">
-        <v>0.1378571730718225</v>
+        <v>0.1275153822730551</v>
       </c>
       <c r="BS2">
         <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.02447309836388278</v>
+        <v>0.04269178916126325</v>
       </c>
       <c r="BU2">
-        <v>0.05408641101122687</v>
+        <v>0.06484576086461655</v>
       </c>
       <c r="BV2">
-        <v>0.1082541992168776</v>
+        <v>0.1053691451084542</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1271,22 +1271,22 @@
         <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0516782543315755</v>
+        <v>0.06304419831828581</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
+        <v>0.005957675852389435</v>
       </c>
       <c r="CA2">
         <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.01940910040900244</v>
+        <v>0.03890336911065064</v>
       </c>
       <c r="CC2">
-        <v>0</v>
+        <v>0.00795597562398411</v>
       </c>
       <c r="CD2">
-        <v>0.01646052288066745</v>
+        <v>0.03669751311926647</v>
       </c>
       <c r="CE2">
         <v>0</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="CI2">
-        <v>0</v>
+        <v>0.01012588600595163</v>
       </c>
       <c r="CJ2">
         <v>0</v>
@@ -1328,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="CR2">
-        <v>0</v>
+        <v>0.003794644870401417</v>
       </c>
       <c r="CS2">
         <v>0</v>
       </c>
       <c r="CT2">
-        <v>0</v>
+        <v>0.004607990331242381</v>
       </c>
       <c r="CU2">
         <v>0</v>
@@ -1543,37 +1543,37 @@
         <v>0</v>
       </c>
       <c r="BP3">
-        <v>0</v>
+        <v>0.01640721081252504</v>
       </c>
       <c r="BQ3">
-        <v>0.3810162656015723</v>
+        <v>0.3130748243644427</v>
       </c>
       <c r="BR3">
-        <v>0.3332685257119337</v>
+        <v>0.2769117236781629</v>
       </c>
       <c r="BS3">
-        <v>0.07366783453696035</v>
+        <v>0.08029580102114885</v>
       </c>
       <c r="BT3">
         <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.1178954512891336</v>
+        <v>0.1137928369315358</v>
       </c>
       <c r="BV3">
-        <v>0</v>
+        <v>0.01526593092326119</v>
       </c>
       <c r="BW3">
-        <v>0.03601290715446389</v>
+        <v>0.05177677722200827</v>
       </c>
       <c r="BX3">
         <v>0</v>
       </c>
       <c r="BY3">
-        <v>0</v>
+        <v>0.004719985190078639</v>
       </c>
       <c r="BZ3">
-        <v>0.01175214896114116</v>
+        <v>0.03340220612611006</v>
       </c>
       <c r="CA3">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.02970869202820462</v>
+        <v>0.04700210166907482</v>
       </c>
       <c r="CD3">
-        <v>0</v>
+        <v>0.01021753106551277</v>
       </c>
       <c r="CE3">
-        <v>0.01667817471659076</v>
+        <v>0.03713307099613899</v>
       </c>
       <c r="CF3">
         <v>0</v>
@@ -1650,58 +1650,58 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04236544679009897</v>
+        <v>0.04895182667398544</v>
       </c>
       <c r="E4">
-        <v>0.04733527629693696</v>
+        <v>0.05151734615735443</v>
       </c>
       <c r="F4">
-        <v>0.01540338691968571</v>
+        <v>0.03503350416128496</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.008705892759931071</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.003232438266502352</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.007694559960135596</v>
       </c>
       <c r="L4">
-        <v>0.05997774445833617</v>
+        <v>0.05804362605112446</v>
       </c>
       <c r="M4">
-        <v>0.1295553164256924</v>
+        <v>0.09396087758704909</v>
       </c>
       <c r="N4">
-        <v>0.00890492786487241</v>
+        <v>0.03167887734882384</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.02517993074788459</v>
       </c>
       <c r="Q4">
-        <v>0.08578330245256774</v>
+        <v>0.07136494053934149</v>
       </c>
       <c r="R4">
-        <v>0.1307949817465489</v>
+        <v>0.09460081614613614</v>
       </c>
       <c r="S4">
-        <v>0.1792654359020202</v>
+        <v>0.1196221764025613</v>
       </c>
       <c r="T4">
-        <v>0.1288578913459941</v>
+        <v>0.09360085364101749</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.01505105183086493</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1713,37 +1713,37 @@
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>0.01703112177042816</v>
       </c>
       <c r="Z4">
-        <v>0.006412557658663429</v>
+        <v>0.03039226896215791</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.01045613837458238</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.01144984248885231</v>
       </c>
       <c r="AD4">
-        <v>0.110236981961884</v>
+        <v>0.08398838992224139</v>
       </c>
       <c r="AE4">
-        <v>0.05510675017669921</v>
+        <v>0.05552912717028268</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.02079649589407237</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.00175321620015875</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.01036468094322692</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -2141,25 +2141,25 @@
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.4467576771361818</v>
+        <v>0.3720174631488403</v>
       </c>
       <c r="BQ5">
-        <v>0.09617776503596735</v>
+        <v>0.09856167432464744</v>
       </c>
       <c r="BR5">
-        <v>0.2162276804215153</v>
+        <v>0.1922017922463169</v>
       </c>
       <c r="BS5">
         <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0659618667618966</v>
+        <v>0.0749929756845335</v>
       </c>
       <c r="BU5">
-        <v>0.05351021859186041</v>
+        <v>0.06528056731492549</v>
       </c>
       <c r="BV5">
-        <v>0.01387167502609936</v>
+        <v>0.03436211242205402</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.01703613530388821</v>
+        <v>0.03683042264633811</v>
       </c>
       <c r="BZ5">
         <v>0</v>
@@ -2177,13 +2177,13 @@
         <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0291971210781522</v>
+        <v>0.04631611148075868</v>
       </c>
       <c r="CC5">
         <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.06125986064443868</v>
+        <v>0.07132536454217549</v>
       </c>
       <c r="CE5">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="CK5">
-        <v>0</v>
+        <v>0.008111516189410294</v>
       </c>
       <c r="CL5">
         <v>0</v>
@@ -2440,37 +2440,37 @@
         <v>0</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>0.003910122905935161</v>
       </c>
       <c r="BQ6">
-        <v>0.301121726047383</v>
+        <v>0.2546542562376047</v>
       </c>
       <c r="BR6">
-        <v>0.3641064926737698</v>
+        <v>0.3026242938100749</v>
       </c>
       <c r="BS6">
-        <v>0.07396085489695799</v>
+        <v>0.08164550971450804</v>
       </c>
       <c r="BT6">
         <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.08549666302210263</v>
+        <v>0.09043133490418438</v>
       </c>
       <c r="BV6">
         <v>0</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>0.01483144740039066</v>
       </c>
       <c r="BX6">
         <v>0</v>
       </c>
       <c r="BY6">
-        <v>0</v>
+        <v>0.01363764945311798</v>
       </c>
       <c r="BZ6">
-        <v>0.004481114810862648</v>
+        <v>0.02872881380570465</v>
       </c>
       <c r="CA6">
         <v>0</v>
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0706085218694482</v>
+        <v>0.07909232820890717</v>
       </c>
       <c r="CD6">
         <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.1002246266794758</v>
+        <v>0.1016483482845942</v>
       </c>
       <c r="CF6">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="CH6">
-        <v>0</v>
+        <v>0.002785089037388248</v>
       </c>
       <c r="CI6">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="CK6">
-        <v>0</v>
+        <v>0.01492916609074375</v>
       </c>
       <c r="CL6">
         <v>0</v>
@@ -2515,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="CO6">
-        <v>0</v>
+        <v>0.0005975447083740931</v>
       </c>
       <c r="CP6">
-        <v>0</v>
+        <v>0.01048409543847212</v>
       </c>
       <c r="CQ6">
         <v>0</v>
@@ -3051,94 +3051,94 @@
         <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.5324397014438319</v>
+        <v>0.4227059363421588</v>
       </c>
       <c r="BQ2">
-        <v>0.5877812407149449</v>
+        <v>0.4884906693604392</v>
       </c>
       <c r="BR2">
-        <v>0.7256384137867673</v>
+        <v>0.6160060516334942</v>
       </c>
       <c r="BS2">
-        <v>0.7256384137867673</v>
+        <v>0.6160060516334942</v>
       </c>
       <c r="BT2">
-        <v>0.7501115121506501</v>
+        <v>0.6586978407947575</v>
       </c>
       <c r="BU2">
-        <v>0.804197923161877</v>
+        <v>0.723543601659374</v>
       </c>
       <c r="BV2">
-        <v>0.9124521223787546</v>
+        <v>0.8289127467678282</v>
       </c>
       <c r="BW2">
-        <v>0.9124521223787546</v>
+        <v>0.8289127467678282</v>
       </c>
       <c r="BX2">
-        <v>0.9124521223787546</v>
+        <v>0.8289127467678282</v>
       </c>
       <c r="BY2">
-        <v>0.9641303767103301</v>
+        <v>0.891956945086114</v>
       </c>
       <c r="BZ2">
-        <v>0.9641303767103301</v>
+        <v>0.8979146209385035</v>
       </c>
       <c r="CA2">
-        <v>0.9641303767103301</v>
+        <v>0.8979146209385035</v>
       </c>
       <c r="CB2">
-        <v>0.9835394771193325</v>
+        <v>0.9368179900491541</v>
       </c>
       <c r="CC2">
-        <v>0.9835394771193325</v>
+        <v>0.9447739656731382</v>
       </c>
       <c r="CD2">
-        <v>1</v>
+        <v>0.9814714787924047</v>
       </c>
       <c r="CE2">
-        <v>1</v>
+        <v>0.9814714787924047</v>
       </c>
       <c r="CF2">
-        <v>1</v>
+        <v>0.9814714787924047</v>
       </c>
       <c r="CG2">
-        <v>1</v>
+        <v>0.9814714787924047</v>
       </c>
       <c r="CH2">
-        <v>1</v>
+        <v>0.9814714787924047</v>
       </c>
       <c r="CI2">
-        <v>1</v>
+        <v>0.9915973647983564</v>
       </c>
       <c r="CJ2">
-        <v>1</v>
+        <v>0.9915973647983564</v>
       </c>
       <c r="CK2">
-        <v>1</v>
+        <v>0.9915973647983564</v>
       </c>
       <c r="CL2">
-        <v>1</v>
+        <v>0.9915973647983564</v>
       </c>
       <c r="CM2">
-        <v>1</v>
+        <v>0.9915973647983564</v>
       </c>
       <c r="CN2">
-        <v>1</v>
+        <v>0.9915973647983564</v>
       </c>
       <c r="CO2">
-        <v>1</v>
+        <v>0.9915973647983564</v>
       </c>
       <c r="CP2">
-        <v>1</v>
+        <v>0.9915973647983564</v>
       </c>
       <c r="CQ2">
-        <v>1</v>
+        <v>0.9915973647983564</v>
       </c>
       <c r="CR2">
-        <v>1</v>
+        <v>0.9953920096687577</v>
       </c>
       <c r="CS2">
-        <v>1</v>
+        <v>0.9953920096687577</v>
       </c>
       <c r="CT2">
         <v>1</v>
@@ -3350,49 +3350,49 @@
         <v>0</v>
       </c>
       <c r="BP3">
-        <v>0</v>
+        <v>0.01640721081252504</v>
       </c>
       <c r="BQ3">
-        <v>0.3810162656015723</v>
+        <v>0.3294820351769678</v>
       </c>
       <c r="BR3">
-        <v>0.714284791313506</v>
+        <v>0.6063937588551307</v>
       </c>
       <c r="BS3">
-        <v>0.7879526258504663</v>
+        <v>0.6866895598762796</v>
       </c>
       <c r="BT3">
-        <v>0.7879526258504663</v>
+        <v>0.6866895598762796</v>
       </c>
       <c r="BU3">
-        <v>0.9058480771395999</v>
+        <v>0.8004823968078154</v>
       </c>
       <c r="BV3">
-        <v>0.9058480771395999</v>
+        <v>0.8157483277310766</v>
       </c>
       <c r="BW3">
-        <v>0.9418609842940638</v>
+        <v>0.8675251049530849</v>
       </c>
       <c r="BX3">
-        <v>0.9418609842940638</v>
+        <v>0.8675251049530849</v>
       </c>
       <c r="BY3">
-        <v>0.9418609842940638</v>
+        <v>0.8722450901431635</v>
       </c>
       <c r="BZ3">
-        <v>0.953613133255205</v>
+        <v>0.9056472962692736</v>
       </c>
       <c r="CA3">
-        <v>0.953613133255205</v>
+        <v>0.9056472962692736</v>
       </c>
       <c r="CB3">
-        <v>0.953613133255205</v>
+        <v>0.9056472962692736</v>
       </c>
       <c r="CC3">
-        <v>0.9833218252834096</v>
+        <v>0.9526493979383485</v>
       </c>
       <c r="CD3">
-        <v>0.9833218252834096</v>
+        <v>0.9628669290038613</v>
       </c>
       <c r="CE3">
         <v>1</v>
@@ -3457,97 +3457,97 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04236544679009897</v>
+        <v>0.04895182667398544</v>
       </c>
       <c r="E4">
-        <v>0.08970072308703593</v>
+        <v>0.1004691728313399</v>
       </c>
       <c r="F4">
-        <v>0.1051041100067216</v>
+        <v>0.1355026769926248</v>
       </c>
       <c r="G4">
-        <v>0.1051041100067216</v>
+        <v>0.1355026769926248</v>
       </c>
       <c r="H4">
-        <v>0.1051041100067216</v>
+        <v>0.1442085697525559</v>
       </c>
       <c r="I4">
-        <v>0.1051041100067216</v>
+        <v>0.1474410080190583</v>
       </c>
       <c r="J4">
-        <v>0.1051041100067216</v>
+        <v>0.1474410080190583</v>
       </c>
       <c r="K4">
-        <v>0.1051041100067216</v>
+        <v>0.1551355679791939</v>
       </c>
       <c r="L4">
-        <v>0.1650818544650578</v>
+        <v>0.2131791940303183</v>
       </c>
       <c r="M4">
-        <v>0.2946371708907501</v>
+        <v>0.3071400716173674</v>
       </c>
       <c r="N4">
-        <v>0.3035420987556225</v>
+        <v>0.3388189489661912</v>
       </c>
       <c r="O4">
-        <v>0.3035420987556225</v>
+        <v>0.3388189489661912</v>
       </c>
       <c r="P4">
-        <v>0.3035420987556225</v>
+        <v>0.3639988797140759</v>
       </c>
       <c r="Q4">
-        <v>0.3893254012081903</v>
+        <v>0.4353638202534174</v>
       </c>
       <c r="R4">
-        <v>0.5201203829547392</v>
+        <v>0.5299646363995535</v>
       </c>
       <c r="S4">
-        <v>0.6993858188567594</v>
+        <v>0.6495868128021147</v>
       </c>
       <c r="T4">
-        <v>0.8282437102027536</v>
+        <v>0.7431876664431322</v>
       </c>
       <c r="U4">
-        <v>0.8282437102027536</v>
+        <v>0.7582387182739971</v>
       </c>
       <c r="V4">
-        <v>0.8282437102027536</v>
+        <v>0.7582387182739971</v>
       </c>
       <c r="W4">
-        <v>0.8282437102027536</v>
+        <v>0.7582387182739971</v>
       </c>
       <c r="X4">
-        <v>0.8282437102027536</v>
+        <v>0.7582387182739971</v>
       </c>
       <c r="Y4">
-        <v>0.8282437102027536</v>
+        <v>0.7752698400444253</v>
       </c>
       <c r="Z4">
-        <v>0.834656267861417</v>
+        <v>0.8056621090065833</v>
       </c>
       <c r="AA4">
-        <v>0.834656267861417</v>
+        <v>0.8056621090065833</v>
       </c>
       <c r="AB4">
-        <v>0.834656267861417</v>
+        <v>0.8161182473811657</v>
       </c>
       <c r="AC4">
-        <v>0.834656267861417</v>
+        <v>0.827568089870018</v>
       </c>
       <c r="AD4">
-        <v>0.9448932498233009</v>
+        <v>0.9115564797922593</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.967085606962542</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9878821028566144</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9896353190567732</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9896353190567732</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -3948,67 +3948,67 @@
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.4467576771361818</v>
+        <v>0.3720174631488403</v>
       </c>
       <c r="BQ5">
-        <v>0.5429354421721492</v>
+        <v>0.4705791374734877</v>
       </c>
       <c r="BR5">
-        <v>0.7591631225936645</v>
+        <v>0.6627809297198046</v>
       </c>
       <c r="BS5">
-        <v>0.7591631225936645</v>
+        <v>0.6627809297198046</v>
       </c>
       <c r="BT5">
-        <v>0.8251249893555611</v>
+        <v>0.7377739054043382</v>
       </c>
       <c r="BU5">
-        <v>0.8786352079474216</v>
+        <v>0.8030544727192637</v>
       </c>
       <c r="BV5">
-        <v>0.8925068829735209</v>
+        <v>0.8374165851413177</v>
       </c>
       <c r="BW5">
-        <v>0.8925068829735209</v>
+        <v>0.8374165851413177</v>
       </c>
       <c r="BX5">
-        <v>0.8925068829735209</v>
+        <v>0.8374165851413177</v>
       </c>
       <c r="BY5">
-        <v>0.9095430182774091</v>
+        <v>0.8742470077876557</v>
       </c>
       <c r="BZ5">
-        <v>0.9095430182774091</v>
+        <v>0.8742470077876557</v>
       </c>
       <c r="CA5">
-        <v>0.9095430182774091</v>
+        <v>0.8742470077876557</v>
       </c>
       <c r="CB5">
-        <v>0.9387401393555613</v>
+        <v>0.9205631192684144</v>
       </c>
       <c r="CC5">
-        <v>0.9387401393555613</v>
+        <v>0.9205631192684144</v>
       </c>
       <c r="CD5">
-        <v>1</v>
+        <v>0.9918884838105899</v>
       </c>
       <c r="CE5">
-        <v>1</v>
+        <v>0.9918884838105899</v>
       </c>
       <c r="CF5">
-        <v>1</v>
+        <v>0.9918884838105899</v>
       </c>
       <c r="CG5">
-        <v>1</v>
+        <v>0.9918884838105899</v>
       </c>
       <c r="CH5">
-        <v>1</v>
+        <v>0.9918884838105899</v>
       </c>
       <c r="CI5">
-        <v>1</v>
+        <v>0.9918884838105899</v>
       </c>
       <c r="CJ5">
-        <v>1</v>
+        <v>0.9918884838105899</v>
       </c>
       <c r="CK5">
         <v>1</v>
@@ -4247,82 +4247,82 @@
         <v>0</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>0.003910122905935161</v>
       </c>
       <c r="BQ6">
-        <v>0.301121726047383</v>
+        <v>0.2585643791435399</v>
       </c>
       <c r="BR6">
-        <v>0.6652282187211529</v>
+        <v>0.5611886729536147</v>
       </c>
       <c r="BS6">
-        <v>0.7391890736181109</v>
+        <v>0.6428341826681228</v>
       </c>
       <c r="BT6">
-        <v>0.7391890736181109</v>
+        <v>0.6428341826681228</v>
       </c>
       <c r="BU6">
-        <v>0.8246857366402136</v>
+        <v>0.7332655175723072</v>
       </c>
       <c r="BV6">
-        <v>0.8246857366402136</v>
+        <v>0.7332655175723072</v>
       </c>
       <c r="BW6">
-        <v>0.8246857366402136</v>
+        <v>0.7480969649726978</v>
       </c>
       <c r="BX6">
-        <v>0.8246857366402136</v>
+        <v>0.7480969649726978</v>
       </c>
       <c r="BY6">
-        <v>0.8246857366402136</v>
+        <v>0.7617346144258158</v>
       </c>
       <c r="BZ6">
-        <v>0.8291668514510763</v>
+        <v>0.7904634282315205</v>
       </c>
       <c r="CA6">
-        <v>0.8291668514510763</v>
+        <v>0.7904634282315205</v>
       </c>
       <c r="CB6">
-        <v>0.8291668514510763</v>
+        <v>0.7904634282315205</v>
       </c>
       <c r="CC6">
-        <v>0.8997753733205245</v>
+        <v>0.8695557564404277</v>
       </c>
       <c r="CD6">
-        <v>0.8997753733205245</v>
+        <v>0.8695557564404277</v>
       </c>
       <c r="CE6">
-        <v>1</v>
+        <v>0.9712041047250218</v>
       </c>
       <c r="CF6">
-        <v>1</v>
+        <v>0.9712041047250218</v>
       </c>
       <c r="CG6">
-        <v>1</v>
+        <v>0.9712041047250218</v>
       </c>
       <c r="CH6">
-        <v>1</v>
+        <v>0.9739891937624101</v>
       </c>
       <c r="CI6">
-        <v>1</v>
+        <v>0.9739891937624101</v>
       </c>
       <c r="CJ6">
-        <v>1</v>
+        <v>0.9739891937624101</v>
       </c>
       <c r="CK6">
-        <v>1</v>
+        <v>0.9889183598531539</v>
       </c>
       <c r="CL6">
-        <v>1</v>
+        <v>0.9889183598531539</v>
       </c>
       <c r="CM6">
-        <v>1</v>
+        <v>0.9889183598531539</v>
       </c>
       <c r="CN6">
-        <v>1</v>
+        <v>0.9889183598531539</v>
       </c>
       <c r="CO6">
-        <v>1</v>
+        <v>0.989515904561528</v>
       </c>
       <c r="CP6">
         <v>1</v>
@@ -4408,16 +4408,16 @@
         <v>65</v>
       </c>
       <c r="D2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5324397014438319</v>
+        <v>0.6160060516334942</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.714284791313506</v>
+        <v>0.6063937588551307</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5201203829547392</v>
+        <v>0.5299646363995535</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -4531,16 +4531,16 @@
         <v>65</v>
       </c>
       <c r="D5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5429354421721492</v>
+        <v>0.6627809297198046</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6652282187211529</v>
+        <v>0.5611886729536147</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -4667,16 +4667,16 @@
         <v>65</v>
       </c>
       <c r="D2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7256384137867673</v>
+        <v>0.723543601659374</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -4708,16 +4708,16 @@
         <v>66</v>
       </c>
       <c r="D3">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.714284791313506</v>
+        <v>0.8004823968078154</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8282437102027536</v>
+        <v>0.7431876664431322</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -4790,16 +4790,16 @@
         <v>65</v>
       </c>
       <c r="D5">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7591631225936645</v>
+        <v>0.7377739054043382</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -4831,16 +4831,16 @@
         <v>66</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7391890736181109</v>
+        <v>0.7332655175723072</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -4926,16 +4926,16 @@
         <v>65</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.804197923161877</v>
+        <v>0.8289127467678282</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9058480771395999</v>
+        <v>0.8004823968078154</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -5008,16 +5008,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8282437102027536</v>
+        <v>0.8056621090065833</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>24</v>
@@ -5049,16 +5049,16 @@
         <v>65</v>
       </c>
       <c r="D5">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8251249893555611</v>
+        <v>0.8030544727192637</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -5090,16 +5090,16 @@
         <v>66</v>
       </c>
       <c r="D6">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8246857366402136</v>
+        <v>0.8695557564404277</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -5185,16 +5185,16 @@
         <v>65</v>
       </c>
       <c r="D2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9124521223787546</v>
+        <v>0.9368179900491541</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>24</v>
@@ -5226,16 +5226,16 @@
         <v>66</v>
       </c>
       <c r="D3">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9058480771395999</v>
+        <v>0.9056472962692736</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>24</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9448932498233009</v>
+        <v>0.9115564797922593</v>
       </c>
       <c r="G4">
         <v>27</v>
@@ -5308,16 +5308,16 @@
         <v>65</v>
       </c>
       <c r="D5">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9095430182774091</v>
+        <v>0.9205631192684144</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>24</v>
@@ -5355,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.9712041047250218</v>
       </c>
       <c r="G6">
         <v>16</v>
